--- a/Arduino/2015-07_Benchmarking/FIR Speed Results.xlsx
+++ b/Arduino/2015-07_Benchmarking/FIR Speed Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="15315" windowHeight="11250" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="15315" windowHeight="11250"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="3" r:id="rId1"/>
@@ -492,7 +492,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.15304642013303429"/>
           <c:y val="0.16714129483814524"/>
-          <c:w val="0.76257425202307094"/>
+          <c:w val="0.56091349791240519"/>
           <c:h val="0.67521216097987746"/>
         </c:manualLayout>
       </c:layout>
@@ -585,10 +585,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Comparison!$B$5:$B$12</c:f>
+              <c:f>Comparison!$B$5:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -612,16 +612,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comparison!$D$5:$D$12</c:f>
+              <c:f>Comparison!$D$5:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>30.2</c:v>
                 </c:pt>
@@ -645,6 +648,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3761</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -886,6 +892,76 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparison!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Python, PC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparison!$B$8:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparison!$H$8:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.6927500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3607499999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.97575</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.0565</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.3535</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -894,15 +970,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="138462720"/>
-        <c:axId val="138464640"/>
+        <c:axId val="134063616"/>
+        <c:axId val="134065536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="138462720"/>
+        <c:axId val="134063616"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:max val="512"/>
+          <c:max val="1024"/>
           <c:min val="4"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -930,18 +1006,18 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138464640"/>
+        <c:crossAx val="134065536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138464640"/>
+        <c:axId val="134065536"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="1000"/>
-          <c:min val="10"/>
+          <c:max val="10000"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -969,7 +1045,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138462720"/>
+        <c:crossAx val="134063616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -982,10 +1058,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.69238015726204705"/>
-          <c:y val="0.48738438806648249"/>
-          <c:w val="0.26242659376517646"/>
-          <c:h val="0.32708209332000465"/>
+          <c:x val="0.74739597052147844"/>
+          <c:y val="0.28192695880538099"/>
+          <c:w val="0.2246035437741101"/>
+          <c:h val="0.46440861222539109"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1324,11 +1400,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="138506240"/>
-        <c:axId val="138507776"/>
+        <c:axId val="134119424"/>
+        <c:axId val="134120960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="138506240"/>
+        <c:axId val="134119424"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1341,12 +1417,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138507776"/>
+        <c:crossAx val="134120960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138507776"/>
+        <c:axId val="134120960"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1358,13 +1434,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138506240"/>
+        <c:crossAx val="134119424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1616,11 +1693,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="139074176"/>
-        <c:axId val="139075968"/>
+        <c:axId val="142350976"/>
+        <c:axId val="142352768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139074176"/>
+        <c:axId val="142350976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1629,7 +1706,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139075968"/>
+        <c:crossAx val="142352768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1637,7 +1714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139075968"/>
+        <c:axId val="142352768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1666,7 +1743,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139074176"/>
+        <c:crossAx val="142350976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1924,11 +2001,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139102464"/>
-        <c:axId val="139116544"/>
+        <c:axId val="142389248"/>
+        <c:axId val="142390784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139102464"/>
+        <c:axId val="142389248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1937,7 +2014,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139116544"/>
+        <c:crossAx val="142390784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1945,7 +2022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139116544"/>
+        <c:axId val="142390784"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1975,7 +2052,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139102464"/>
+        <c:crossAx val="142389248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2168,11 +2245,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="139131904"/>
-        <c:axId val="139408128"/>
+        <c:axId val="142408704"/>
+        <c:axId val="142680832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139131904"/>
+        <c:axId val="142408704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2181,7 +2258,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139408128"/>
+        <c:crossAx val="142680832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2189,7 +2266,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139408128"/>
+        <c:axId val="142680832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2226,7 +2303,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139131904"/>
+        <c:crossAx val="142408704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10000"/>
@@ -2457,11 +2534,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139442816"/>
-        <c:axId val="139444608"/>
+        <c:axId val="142715520"/>
+        <c:axId val="142717312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139442816"/>
+        <c:axId val="142715520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2470,7 +2547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="139444608"/>
+        <c:crossAx val="142717312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2478,7 +2555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139444608"/>
+        <c:axId val="142717312"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2521,7 +2598,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139442816"/>
+        <c:crossAx val="142715520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2690,11 +2767,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="41949440"/>
-        <c:axId val="41947904"/>
+        <c:axId val="134396928"/>
+        <c:axId val="134399104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41949440"/>
+        <c:axId val="134396928"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -2724,13 +2801,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="41947904"/>
+        <c:crossAx val="134399104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41947904"/>
+        <c:axId val="134399104"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2761,7 +2838,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41949440"/>
+        <c:crossAx val="134396928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2931,11 +3008,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="42461440"/>
-        <c:axId val="42459904"/>
+        <c:axId val="142288384"/>
+        <c:axId val="142290304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42461440"/>
+        <c:axId val="142288384"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -2965,13 +3042,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42459904"/>
+        <c:crossAx val="142290304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42459904"/>
+        <c:axId val="142290304"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3002,7 +3079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42461440"/>
+        <c:crossAx val="142288384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3034,8 +3111,8 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -3869,8 +3946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M75" sqref="M75"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8012,7 +8089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="L25" sqref="K25:L25"/>
     </sheetView>
   </sheetViews>

--- a/Arduino/2015-07_Benchmarking/FIR Speed Results.xlsx
+++ b/Arduino/2015-07_Benchmarking/FIR Speed Results.xlsx
@@ -13,14 +13,15 @@
     <sheet name="Maple" sheetId="5" r:id="rId4"/>
     <sheet name="Arduino Due" sheetId="6" r:id="rId5"/>
     <sheet name="Teensy 3.1" sheetId="7" r:id="rId6"/>
-    <sheet name="Python" sheetId="8" r:id="rId7"/>
+    <sheet name="NXP K66" sheetId="9" r:id="rId7"/>
+    <sheet name="Python" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="85">
   <si>
     <t>Float</t>
   </si>
@@ -184,9 +185,6 @@
     <t>http://www.pjrc.com/teensy/teensy31.html</t>
   </si>
   <si>
-    <t>MK20DX256VLH7, Cortex-M4</t>
-  </si>
-  <si>
     <t>Teensy 3.1</t>
   </si>
   <si>
@@ -239,6 +237,45 @@
   </si>
   <si>
     <t>Ratio of Time / N</t>
+  </si>
+  <si>
+    <t>FRDM-K66F, with an NXP Kentis MK66FNM0VMD18</t>
+  </si>
+  <si>
+    <t>180 MHz</t>
+  </si>
+  <si>
+    <t>K66F</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>NXP K66</t>
+  </si>
+  <si>
+    <t>Microseconds per trial</t>
+  </si>
+  <si>
+    <t>Uno/Python</t>
+  </si>
+  <si>
+    <t>Uno/K66</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>Debug vs Release</t>
+  </si>
+  <si>
+    <t>or only 120 MHz for the FRDM-K66F configuration?</t>
+  </si>
+  <si>
+    <t>NXP Kinetis MK20DX256VLH7, Cortex-M4 (No FPU)</t>
   </si>
 </sst>
 </file>
@@ -585,10 +622,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Comparison!$B$5:$B$13</c:f>
+              <c:f>Comparison!$B$5:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -612,19 +649,16 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comparison!$D$5:$D$13</c:f>
+              <c:f>Comparison!$D$5:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>30.2</c:v>
                 </c:pt>
@@ -648,9 +682,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3761</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -893,11 +924,81 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="6"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Comparison!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NXP K66</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Comparison!$B$7:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Comparison!$H$7:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.3250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6499999999999986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.074999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparison!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -935,7 +1036,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comparison!$H$8:$H$13</c:f>
+              <c:f>Comparison!$I$8:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -970,11 +1071,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="134063616"/>
-        <c:axId val="134065536"/>
+        <c:axId val="149849600"/>
+        <c:axId val="149851520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="134063616"/>
+        <c:axId val="149849600"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1006,13 +1107,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134065536"/>
+        <c:crossAx val="149851520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134065536"/>
+        <c:axId val="149851520"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1045,7 +1146,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134063616"/>
+        <c:crossAx val="149849600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -1060,8 +1161,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.74739597052147844"/>
           <c:y val="0.28192695880538099"/>
-          <c:w val="0.2246035437741101"/>
-          <c:h val="0.46440861222539109"/>
+          <c:w val="0.21322160743420587"/>
+          <c:h val="0.54181004759628959"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1400,11 +1501,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="134119424"/>
-        <c:axId val="134120960"/>
+        <c:axId val="149762048"/>
+        <c:axId val="149763584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="134119424"/>
+        <c:axId val="149762048"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1417,12 +1518,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134120960"/>
+        <c:crossAx val="149763584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134120960"/>
+        <c:axId val="149763584"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1434,7 +1535,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134119424"/>
+        <c:crossAx val="149762048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1486,6 +1587,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1512,9 +1614,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$C$23:$G$23</c:f>
+              <c:f>Comparison!$C$23:$H$23</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -1529,16 +1631,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Teensy 3.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>K66F</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$C$27:$G$27</c:f>
+              <c:f>Comparison!$C$27:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>549.1</c:v>
                 </c:pt>
@@ -1553,6 +1658,9 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>62.01</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>4.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1575,9 +1683,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$C$23:$G$23</c:f>
+              <c:f>Comparison!$C$23:$H$23</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -1592,16 +1700,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Teensy 3.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>K66F</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$C$31:$G$31</c:f>
+              <c:f>Comparison!$C$31:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>236.54</c:v>
                 </c:pt>
@@ -1616,6 +1727,9 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>3.82</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1638,9 +1752,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$C$23:$G$23</c:f>
+              <c:f>Comparison!$C$23:$H$23</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -1655,16 +1769,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Teensy 3.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>K66F</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$C$35:$G$35</c:f>
+              <c:f>Comparison!$C$35:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>78.62</c:v>
                 </c:pt>
@@ -1679,6 +1796,9 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>3.82</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1693,11 +1813,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="142350976"/>
-        <c:axId val="142352768"/>
+        <c:axId val="149785216"/>
+        <c:axId val="149791104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142350976"/>
+        <c:axId val="149785216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1706,7 +1826,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142352768"/>
+        <c:crossAx val="149791104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1714,7 +1834,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142352768"/>
+        <c:axId val="149791104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1737,19 +1857,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142350976"/>
+        <c:crossAx val="149785216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1794,6 +1916,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1818,9 +1941,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$C$23:$G$23</c:f>
+              <c:f>Comparison!$C$23:$I$23</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -1835,16 +1958,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Teensy 3.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>K66F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Python, PC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$C$27:$G$27</c:f>
+              <c:f>Comparison!$C$27:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>549.1</c:v>
                 </c:pt>
@@ -1859,6 +1988,9 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>62.01</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>4.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1881,9 +2013,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$C$23:$G$23</c:f>
+              <c:f>Comparison!$C$23:$I$23</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -1898,16 +2030,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Teensy 3.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>K66F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Python, PC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$C$31:$G$31</c:f>
+              <c:f>Comparison!$C$31:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>236.54</c:v>
                 </c:pt>
@@ -1922,6 +2060,9 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>3.82</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1944,9 +2085,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Comparison!$C$23:$G$23</c:f>
+              <c:f>Comparison!$C$23:$I$23</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -1961,16 +2102,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Teensy 3.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>K66F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Python, PC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparison!$C$35:$G$35</c:f>
+              <c:f>Comparison!$C$35:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>78.62</c:v>
                 </c:pt>
@@ -1985,6 +2132,9 @@
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
                   <c:v>3.82</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2001,11 +2151,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142389248"/>
-        <c:axId val="142390784"/>
+        <c:axId val="149696512"/>
+        <c:axId val="149698048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142389248"/>
+        <c:axId val="149696512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2014,7 +2164,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142390784"/>
+        <c:crossAx val="149698048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2022,7 +2172,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142390784"/>
+        <c:axId val="149698048"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2046,19 +2196,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142389248"/>
+        <c:crossAx val="149696512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2103,6 +2255,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2139,9 +2292,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(Comparison!$C$60:$D$60,Comparison!$F$60:$G$60)</c:f>
+              <c:f>(Comparison!$C$60:$D$60,Comparison!$F$60:$G$60,Comparison!$H$60)</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -2153,16 +2306,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Teensy 3.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>K66F</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Comparison!$C$61:$D$61,Comparison!$F$61:$G$61)</c:f>
+              <c:f>(Comparison!$C$61:$D$61,Comparison!$F$61:$H$61)</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3765.5502941905706</c:v>
                 </c:pt>
@@ -2174,6 +2330,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11318.689818636485</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43008.26644563763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2196,9 +2355,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(Comparison!$C$60:$D$60,Comparison!$F$60:$G$60)</c:f>
+              <c:f>(Comparison!$C$60:$D$60,Comparison!$F$60:$G$60,Comparison!$H$60)</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -2210,16 +2369,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Teensy 3.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>K66F</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Comparison!$C$62:$D$62,Comparison!$F$62:$G$62)</c:f>
+              <c:f>(Comparison!$C$62:$D$62,Comparison!$F$62:$H$62)</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>5834.5996599157825</c:v>
                 </c:pt>
@@ -2231,6 +2393,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>46188.021535170061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43008.26644563763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2245,11 +2410,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="142408704"/>
-        <c:axId val="142680832"/>
+        <c:axId val="149740160"/>
+        <c:axId val="149741952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142408704"/>
+        <c:axId val="149740160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2258,7 +2423,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142680832"/>
+        <c:crossAx val="149741952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2266,7 +2431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142680832"/>
+        <c:axId val="149741952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2303,7 +2468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142408704"/>
+        <c:crossAx val="149740160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10000"/>
@@ -2311,6 +2476,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2355,6 +2521,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2387,12 +2554,38 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Comparison!$C$60:$D$60,Comparison!$F$60:$J$60)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0 Pro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Arduino Due</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Teensy 3.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>K66F</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Python, PC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Comparison!$J$41:$K$41,Comparison!$M$41:$N$41)</c:f>
+              <c:f>(Comparison!$K$41:$L$41,Comparison!$N$41:$P$41)</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2404,6 +2597,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>20.706666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.953757225433531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2426,9 +2622,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>(Comparison!$C$60:$D$60,Comparison!$F$60:$G$60)</c:f>
+              <c:f>(Comparison!$C$60:$D$60,Comparison!$F$60:$J$60)</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -2440,16 +2636,22 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Teensy 3.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>K66F</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Python, PC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Comparison!$J$40:$K$40,Comparison!$M$40:$N$40)</c:f>
+              <c:f>(Comparison!$K$40:$L$40,Comparison!$N$40:$P$40)</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.33042553191489366</c:v>
                 </c:pt>
@@ -2461,6 +2663,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>20.706666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.953757225433531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2483,9 +2688,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>(Comparison!$C$60:$D$60,Comparison!$F$60:$G$60)</c:f>
+              <c:f>(Comparison!$C$60:$D$60,Comparison!$F$60:$J$60)</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -2497,16 +2702,22 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Teensy 3.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>K66F</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Python, PC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Comparison!$J$39:$K$39,Comparison!$M$39:$N$39)</c:f>
+              <c:f>(Comparison!$K$39:$L$39,Comparison!$N$39:$P$39)</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.13762850053172634</c:v>
                 </c:pt>
@@ -2518,6 +2729,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.2434942749619666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.953757225433531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2534,11 +2748,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142715520"/>
-        <c:axId val="142717312"/>
+        <c:axId val="149906176"/>
+        <c:axId val="149907712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142715520"/>
+        <c:axId val="149906176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2547,7 +2761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="142717312"/>
+        <c:crossAx val="149907712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2555,7 +2769,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142717312"/>
+        <c:axId val="149907712"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2598,13 +2812,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142715520"/>
+        <c:crossAx val="149906176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2649,7 +2864,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2767,11 +2981,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="134396928"/>
-        <c:axId val="134399104"/>
+        <c:axId val="148837504"/>
+        <c:axId val="148839424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="134396928"/>
+        <c:axId val="148837504"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -2794,20 +3008,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="134399104"/>
+        <c:crossAx val="148839424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134399104"/>
+        <c:axId val="148839424"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2831,21 +3044,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134396928"/>
+        <c:crossAx val="148837504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2890,7 +3101,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3008,11 +3218,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142288384"/>
-        <c:axId val="142290304"/>
+        <c:axId val="148880768"/>
+        <c:axId val="148887040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142288384"/>
+        <c:axId val="148880768"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -3035,20 +3245,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142290304"/>
+        <c:crossAx val="148887040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142290304"/>
+        <c:axId val="148887040"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3072,21 +3281,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142288384"/>
+        <c:crossAx val="148880768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3105,16 +3312,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3135,13 +3342,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
@@ -3171,7 +3378,7 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>442912</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -3195,13 +3402,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -3228,15 +3435,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>514352</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>590552</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3259,13 +3466,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>466724</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -3944,26 +4151,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y63"/>
+  <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="8" width="9.28515625" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="15" width="9.28515625" customWidth="1"/>
-    <col min="16" max="16" width="1.7109375" customWidth="1"/>
-    <col min="17" max="19" width="9.28515625" customWidth="1"/>
-    <col min="20" max="20" width="2.5703125" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" customWidth="1"/>
+    <col min="4" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="17" width="9.28515625" customWidth="1"/>
+    <col min="18" max="18" width="1.7109375" customWidth="1"/>
+    <col min="19" max="21" width="9.28515625" customWidth="1"/>
+    <col min="22" max="22" width="2.5703125" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15">
+    <row r="1" spans="2:17">
       <c r="C1" t="str">
         <f>'Arduino Uno'!I5</f>
         <v>Arduino Uno</v>
@@ -3980,13 +4187,16 @@
         <v>Arduino Due</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="2:15">
+        <v>77</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17">
       <c r="C2" t="str">
         <f>'Arduino Uno'!I6</f>
         <v>float</v>
@@ -4008,8 +4218,11 @@
       <c r="H2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="2:15">
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17">
       <c r="C3" t="str">
         <f>'Arduino Uno'!I7</f>
         <v>function</v>
@@ -4029,11 +4242,15 @@
         <f>'Teensy 3.1'!C7</f>
         <v>96 MHz, Optimized</v>
       </c>
-      <c r="H3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15">
+      <c r="H3" t="str">
+        <f>'NXP K66'!C7</f>
+        <v>Inline, using types.h</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -4055,26 +4272,29 @@
       <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="J4" t="s">
-        <v>63</v>
+      <c r="I4" t="s">
+        <v>23</v>
       </c>
       <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
         <v>31</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>32</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>47</v>
       </c>
-      <c r="N4" t="s">
-        <v>56</v>
-      </c>
       <c r="O4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15">
+        <v>55</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
       <c r="B5">
         <f>'Arduino M0 Pro'!B10</f>
         <v>4</v>
@@ -4100,35 +4320,40 @@
         <v>6.81</v>
       </c>
       <c r="H5" s="10">
+        <f>'NXP K66'!D9</f>
+        <v>0.7</v>
+      </c>
+      <c r="I5" s="10">
         <f>Python!D9</f>
         <v>5.698666666666667</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f>C5/C5</f>
         <v>1</v>
       </c>
-      <c r="K5" s="10">
-        <f t="shared" ref="K5" si="0">C5/D5</f>
+      <c r="L5" s="10">
+        <f t="shared" ref="L5" si="0">C5/D5</f>
         <v>2.632450331125828</v>
       </c>
-      <c r="L5" s="10">
-        <f t="shared" ref="L5" si="1">C5/E5</f>
+      <c r="M5" s="10">
+        <f t="shared" ref="M5" si="1">C5/E5</f>
         <v>8.5853131749460037</v>
       </c>
-      <c r="M5" s="10">
+      <c r="N5" s="10">
         <f>$C5/F5</f>
         <v>9.2334494773519165</v>
       </c>
-      <c r="N5" s="10">
+      <c r="O5" s="10">
         <f>$C5/G5</f>
         <v>11.674008810572689</v>
       </c>
-      <c r="O5" s="10">
-        <f>$C5/H5</f>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10">
+        <f>$C5/I5</f>
         <v>13.950631726719699</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:17">
       <c r="B6">
         <f>'Arduino M0 Pro'!B11</f>
         <v>8</v>
@@ -4154,35 +4379,40 @@
         <v>14.74</v>
       </c>
       <c r="H6" s="10">
+        <f>'NXP K66'!D10</f>
+        <v>1.25</v>
+      </c>
+      <c r="I6" s="10">
         <f>Python!D10</f>
         <v>5.5945</v>
       </c>
-      <c r="J6">
-        <f t="shared" ref="J6:J10" si="2">C6/C6</f>
+      <c r="K6">
+        <f t="shared" ref="K6:K10" si="2">C6/C6</f>
         <v>1</v>
       </c>
-      <c r="K6" s="10">
-        <f t="shared" ref="K6:K10" si="3">C6/D6</f>
+      <c r="L6" s="10">
+        <f t="shared" ref="L6:L10" si="3">C6/D6</f>
         <v>2.6076884337753903</v>
       </c>
-      <c r="L6" s="10">
-        <f t="shared" ref="L6:L10" si="4">C6/E6</f>
+      <c r="M6" s="10">
+        <f t="shared" ref="M6:M10" si="4">C6/E6</f>
         <v>8.1757894736842101</v>
       </c>
-      <c r="M6" s="10">
-        <f t="shared" ref="M6:M10" si="5">$C6/F6</f>
+      <c r="N6" s="10">
+        <f t="shared" ref="N6:N10" si="5">$C6/F6</f>
         <v>8.7911714770797964</v>
       </c>
-      <c r="N6" s="10">
-        <f t="shared" ref="N6:O10" si="6">$C6/G6</f>
+      <c r="O6" s="10">
+        <f>$C6/G6</f>
         <v>10.538670284938942</v>
       </c>
-      <c r="O6" s="10">
-        <f t="shared" si="6"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10">
+        <f t="shared" ref="Q6:Q10" si="6">$C6/I6</f>
         <v>27.766556439360087</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:17">
       <c r="B7">
         <f>'Arduino M0 Pro'!B12</f>
         <v>16</v>
@@ -4208,35 +4438,40 @@
         <v>30.53</v>
       </c>
       <c r="H7" s="10">
+        <f>'NXP K66'!D11</f>
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="I7" s="10">
         <f>Python!D11</f>
         <v>5.5045000000000002</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K7" s="10">
+      <c r="L7" s="10">
         <f t="shared" si="3"/>
         <v>2.6091293322062556</v>
       </c>
-      <c r="L7" s="10">
+      <c r="M7" s="10">
         <f t="shared" si="4"/>
         <v>8.0296566077003124</v>
       </c>
-      <c r="M7" s="10">
+      <c r="N7" s="10">
         <f t="shared" si="5"/>
         <v>8.6483608854020755</v>
       </c>
-      <c r="N7" s="10">
-        <f t="shared" si="6"/>
+      <c r="O7" s="10">
+        <f>$C7/G7</f>
         <v>10.110055682934819</v>
       </c>
-      <c r="O7" s="10">
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10">
         <f t="shared" si="6"/>
         <v>56.074121173585254</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:17">
       <c r="B8">
         <f>'Arduino M0 Pro'!B13</f>
         <v>32</v>
@@ -4262,35 +4497,40 @@
         <v>62.01</v>
       </c>
       <c r="H8" s="10">
+        <f>'NXP K66'!D12</f>
+        <v>4.45</v>
+      </c>
+      <c r="I8" s="10">
         <f>Python!D12</f>
         <v>5.6927500000000002</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K8" s="10">
+      <c r="L8" s="10">
         <f t="shared" si="3"/>
         <v>2.6716595744680851</v>
       </c>
-      <c r="L8" s="10">
+      <c r="M8" s="10">
         <f t="shared" si="4"/>
         <v>8.1242236024844718</v>
       </c>
-      <c r="M8" s="10">
+      <c r="N8" s="10">
         <f t="shared" si="5"/>
         <v>8.7638190954773876</v>
       </c>
-      <c r="N8" s="10">
-        <f t="shared" si="6"/>
+      <c r="O8" s="10">
+        <f>$C8/G8</f>
         <v>10.124818577648767</v>
       </c>
-      <c r="O8" s="10">
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10">
         <f t="shared" si="6"/>
         <v>110.28764656800317</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:17">
       <c r="B9">
         <f>'Arduino M0 Pro'!B14</f>
         <v>64</v>
@@ -4316,35 +4556,40 @@
         <v>124.89</v>
       </c>
       <c r="H9" s="10">
+        <f>'NXP K66'!D13</f>
+        <v>8.6499999999999986</v>
+      </c>
+      <c r="I9" s="10">
         <f>Python!D13</f>
         <v>8.3607499999999995</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K9" s="10">
+      <c r="L9" s="10">
         <f t="shared" si="3"/>
         <v>2.7124735729386891</v>
       </c>
-      <c r="L9" s="10">
+      <c r="M9" s="10">
         <f t="shared" si="4"/>
         <v>8.2816937774335155</v>
       </c>
-      <c r="M9" s="10">
+      <c r="N9" s="10">
         <f t="shared" si="5"/>
         <v>8.945130028585373</v>
       </c>
-      <c r="N9" s="10">
-        <f t="shared" si="6"/>
+      <c r="O9" s="10">
+        <f>$C9/G9</f>
         <v>10.273040275442389</v>
       </c>
-      <c r="O9" s="10">
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10">
         <f t="shared" si="6"/>
         <v>153.45513261370093</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:17">
       <c r="B10">
         <f>'Arduino M0 Pro'!B15</f>
         <v>128</v>
@@ -4370,35 +4615,40 @@
         <v>250.57</v>
       </c>
       <c r="H10" s="10">
+        <f>'NXP K66'!D14</f>
+        <v>17.149999999999999</v>
+      </c>
+      <c r="I10" s="10">
         <f>Python!D14</f>
         <v>8.7690000000000001</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K10" s="10">
+      <c r="L10" s="10">
         <f t="shared" si="3"/>
         <v>2.7798941798941801</v>
       </c>
-      <c r="L10" s="10">
+      <c r="M10" s="10">
         <f t="shared" si="4"/>
         <v>8.4700951152668065</v>
       </c>
-      <c r="M10" s="10">
+      <c r="N10" s="10">
         <f t="shared" si="5"/>
         <v>9.1555431638378693</v>
       </c>
-      <c r="N10" s="10">
-        <f t="shared" si="6"/>
+      <c r="O10" s="10">
+        <f>$C10/G10</f>
         <v>10.484096260526002</v>
       </c>
-      <c r="O10" s="10">
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10">
         <f t="shared" si="6"/>
         <v>299.57805907172997</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:17">
       <c r="B11">
         <f>'Arduino M0 Pro'!B16</f>
         <v>256</v>
@@ -4424,16 +4674,21 @@
         <v>501.85</v>
       </c>
       <c r="H11" s="10">
+        <f>'NXP K66'!D15</f>
+        <v>34.074999999999996</v>
+      </c>
+      <c r="I11" s="10">
         <f>Python!D15</f>
         <v>10.97575</v>
       </c>
-      <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
-    </row>
-    <row r="12" spans="2:15">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="2:17">
       <c r="B12">
         <f>'Arduino M0 Pro'!B17</f>
         <v>512</v>
@@ -4459,11 +4714,15 @@
         <v>1004.33</v>
       </c>
       <c r="H12" s="10">
+        <f>'NXP K66'!D16</f>
+        <v>68.05</v>
+      </c>
+      <c r="I12" s="10">
         <f>Python!D16</f>
         <v>18.0565</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:17">
       <c r="B13">
         <f>'Arduino M0 Pro'!B18</f>
         <v>1024</v>
@@ -4476,12 +4735,12 @@
         <f>'Arduino M0 Pro'!C18</f>
         <v>7519</v>
       </c>
-      <c r="H13" s="10">
+      <c r="I13" s="10">
         <f>Python!D17</f>
         <v>27.3535</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:17">
       <c r="C15" t="s">
         <v>22</v>
       </c>
@@ -4489,7 +4748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:17">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -4497,7 +4756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:28">
       <c r="C17">
         <v>6000</v>
       </c>
@@ -4506,7 +4765,7 @@
         <v>166.66666666666666</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:28">
       <c r="C18">
         <v>8000</v>
       </c>
@@ -4515,7 +4774,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:28">
       <c r="C19">
         <v>11025</v>
       </c>
@@ -4524,7 +4783,7 @@
         <v>90.702947845804985</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:28">
       <c r="C20">
         <v>22050</v>
       </c>
@@ -4549,8 +4808,10 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+    </row>
+    <row r="21" spans="1:28">
       <c r="C21">
         <v>44100</v>
       </c>
@@ -4575,8 +4836,10 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+    </row>
+    <row r="23" spans="1:28">
       <c r="C23" t="str">
         <f>'Arduino Uno'!L5</f>
         <v>Arduino Uno</v>
@@ -4597,63 +4860,75 @@
         <v>Teensy 3.1</v>
       </c>
       <c r="H23" t="str">
-        <f>H1</f>
+        <f>'NXP K66'!C6</f>
+        <v>K66F</v>
+      </c>
+      <c r="I23" t="str">
+        <f>I1</f>
         <v>Python, PC</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <f>48/16</f>
         <v>3</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <f>72/16</f>
         <v>4.5</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <f>84/16</f>
         <v>5.25</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <f>96/16</f>
         <v>6</v>
       </c>
-      <c r="O23">
+      <c r="P23">
+        <f>180/16</f>
+        <v>11.25</v>
+      </c>
+      <c r="Q23">
         <f>2530/16</f>
         <v>158.125</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <f>72/48</f>
         <v>1.5</v>
       </c>
-      <c r="R23">
+      <c r="T23">
         <f>84/72</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <f>96/72</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="U23" t="str">
+      <c r="W23" t="str">
         <f>C23</f>
         <v>Arduino Uno</v>
       </c>
-      <c r="V23" t="str">
+      <c r="X23" t="str">
         <f>D23</f>
         <v>Arduino M0 Pro</v>
       </c>
-      <c r="W23" t="str">
+      <c r="Y23" t="str">
         <f>E23</f>
         <v>Maple</v>
       </c>
-      <c r="X23" t="str">
+      <c r="Z23" t="str">
         <f>F23</f>
         <v>Arduino Due</v>
       </c>
-      <c r="Y23" t="str">
+      <c r="AA23" t="str">
         <f>G23</f>
         <v>Teensy 3.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="AB23" t="e">
+        <f>-H23</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="C24" t="str">
         <f>'Arduino Uno'!L6</f>
         <v>inline, using types.h</v>
@@ -4671,11 +4946,15 @@
         <v>96 MHz, Optimized</v>
       </c>
       <c r="H24" t="str">
+        <f>'NXP K66'!C7</f>
+        <v>Inline, using types.h</v>
+      </c>
+      <c r="I24" t="str">
         <f>Python!C7</f>
         <v>i5, M540, 2.53 GHz</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:28">
       <c r="B25" t="s">
         <v>2</v>
       </c>
@@ -4697,35 +4976,38 @@
       <c r="H25" t="s">
         <v>23</v>
       </c>
-      <c r="J25" t="s">
-        <v>63</v>
+      <c r="I25" t="s">
+        <v>23</v>
       </c>
       <c r="K25" t="s">
+        <v>62</v>
+      </c>
+      <c r="L25" t="s">
         <v>31</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>32</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>47</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
+        <v>55</v>
+      </c>
+      <c r="P25" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>79</v>
+      </c>
+      <c r="S25" t="s">
+        <v>33</v>
+      </c>
+      <c r="T25" t="s">
+        <v>48</v>
+      </c>
+      <c r="U25" t="s">
         <v>56</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R25" t="s">
-        <v>48</v>
-      </c>
-      <c r="S25" t="s">
-        <v>57</v>
-      </c>
-      <c r="U25" t="s">
-        <v>28</v>
-      </c>
-      <c r="V25" t="s">
-        <v>28</v>
       </c>
       <c r="W25" t="s">
         <v>28</v>
@@ -4736,8 +5018,17 @@
       <c r="Y25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="Z25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" t="str">
         <f>'Arduino Uno'!L7</f>
         <v>float</v>
@@ -4767,69 +5058,81 @@
         <v>30.53</v>
       </c>
       <c r="H26" s="10">
-        <f>H7</f>
+        <f>'NXP K66'!D11</f>
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="I26" s="10">
+        <f>I7</f>
         <v>5.5045000000000002</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <f>C26/C26</f>
         <v>1</v>
       </c>
-      <c r="K26" s="6">
-        <f t="shared" ref="K26:K37" si="8">C26/D26</f>
+      <c r="L26" s="6">
+        <f t="shared" ref="L26:L37" si="8">C26/D26</f>
         <v>2.3994661921708182</v>
       </c>
-      <c r="L26" s="6">
-        <f t="shared" ref="L26:L37" si="9">C26/E26</f>
+      <c r="M26" s="6">
+        <f t="shared" ref="M26:M37" si="9">C26/E26</f>
         <v>7.0161290322580649</v>
       </c>
-      <c r="M26" s="6">
+      <c r="N26" s="6">
         <f>$C26/F26</f>
         <v>7.556738582235921</v>
       </c>
-      <c r="N26" s="6">
+      <c r="O26" s="6">
         <f>$C26/G26</f>
         <v>8.8339338355715675</v>
       </c>
-      <c r="O26" s="6">
-        <f>$C26/H26</f>
+      <c r="P26" s="6">
+        <f>C26/H26</f>
+        <v>115.99999999999999</v>
+      </c>
+      <c r="Q26" s="6">
+        <f>$C26/I26</f>
         <v>48.996275774366424</v>
       </c>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6">
-        <f t="shared" ref="Q26:Q37" si="10">D26/E26</f>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6">
+        <f t="shared" ref="S26:S37" si="10">D26/E26</f>
         <v>2.9240374609781479</v>
       </c>
-      <c r="R26" s="6">
-        <f t="shared" ref="R26:R37" si="11">E26/F26</f>
+      <c r="T26" s="6">
+        <f t="shared" ref="T26:T37" si="11">E26/F26</f>
         <v>1.0770523956290277</v>
       </c>
-      <c r="S26" s="6">
-        <f t="shared" ref="S26:S37" si="12">E26/G26</f>
+      <c r="U26" s="6">
+        <f t="shared" ref="U26:U37" si="12">E26/G26</f>
         <v>1.2590894202423843</v>
       </c>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6">
-        <f>C26/C34</f>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6">
+        <f t="shared" ref="W26:AB26" si="13">C26/C34</f>
         <v>6.6757425742574261</v>
       </c>
-      <c r="V26" s="6">
-        <f>D26/D34</f>
+      <c r="X26" s="6">
+        <f t="shared" si="13"/>
         <v>8.4766214177978885</v>
       </c>
-      <c r="W26" s="6">
-        <f>E26/E34</f>
+      <c r="Y26" s="6">
+        <f t="shared" si="13"/>
         <v>6.3642384105960259</v>
       </c>
-      <c r="X26" s="6">
-        <f>F26/F34</f>
+      <c r="Z26" s="6">
+        <f t="shared" si="13"/>
         <v>5.499229583975346</v>
       </c>
-      <c r="Y26" s="6">
-        <f>G26/G34</f>
+      <c r="AA26" s="6">
+        <f t="shared" si="13"/>
         <v>15.341708542713569</v>
       </c>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="AB26" s="6">
+        <f t="shared" si="13"/>
+        <v>1.0219780219780221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="B27">
         <f>'Arduino Uno'!B12</f>
         <v>32</v>
@@ -4855,69 +5158,81 @@
         <v>62.01</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" ref="H27:H29" si="13">H8</f>
+        <f>'NXP K66'!D12</f>
+        <v>4.45</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" ref="I27:I29" si="14">I8</f>
         <v>5.6927500000000002</v>
       </c>
-      <c r="J27">
-        <f t="shared" ref="J27:J37" si="14">C27/C27</f>
+      <c r="K27">
+        <f t="shared" ref="K27:K37" si="15">C27/C27</f>
         <v>1</v>
       </c>
-      <c r="K27" s="6">
+      <c r="L27" s="6">
         <f t="shared" si="8"/>
         <v>2.4459886854648314</v>
       </c>
-      <c r="L27" s="6">
+      <c r="M27" s="6">
         <f t="shared" si="9"/>
         <v>7.1053312629399592</v>
       </c>
-      <c r="M27" s="6">
-        <f t="shared" ref="M27:M37" si="15">$C27/F27</f>
+      <c r="N27" s="6">
+        <f t="shared" ref="N27:N37" si="16">$C27/F27</f>
         <v>7.6647124511446121</v>
       </c>
-      <c r="N27" s="6">
-        <f t="shared" ref="N27:O37" si="16">$C27/G27</f>
+      <c r="O27" s="6">
+        <f t="shared" ref="O27:O37" si="17">$C27/G27</f>
         <v>8.8550233833252712</v>
       </c>
-      <c r="O27" s="6">
-        <f t="shared" si="16"/>
+      <c r="P27" s="6">
+        <f t="shared" ref="P27:P37" si="18">C27/H27</f>
+        <v>123.3932584269663</v>
+      </c>
+      <c r="Q27" s="6">
+        <f t="shared" ref="Q27:Q37" si="19">$C27/I27</f>
         <v>96.456018620174788</v>
       </c>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6">
+      <c r="R27" s="6"/>
+      <c r="S27" s="6">
         <f t="shared" si="10"/>
         <v>2.9048913043478262</v>
       </c>
-      <c r="R27" s="6">
+      <c r="T27" s="6">
         <f t="shared" si="11"/>
         <v>1.0787269681742044</v>
       </c>
-      <c r="S27" s="6">
+      <c r="U27" s="6">
         <f t="shared" si="12"/>
         <v>1.2462506047411708</v>
       </c>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6">
-        <f t="shared" ref="U27:X29" si="17">C27/C35</f>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6">
+        <f t="shared" ref="W27:Z29" si="20">C27/C35</f>
         <v>6.9842279318239635</v>
       </c>
-      <c r="V27" s="6">
-        <f t="shared" si="17"/>
+      <c r="X27" s="6">
+        <f t="shared" si="20"/>
         <v>8.6542020046260593</v>
       </c>
-      <c r="W27" s="6">
-        <f t="shared" si="17"/>
+      <c r="Y27" s="6">
+        <f t="shared" si="20"/>
         <v>6.6563307493540051</v>
       </c>
-      <c r="X27" s="6">
-        <f t="shared" si="17"/>
+      <c r="Z27" s="6">
+        <f t="shared" si="20"/>
         <v>5.6857142857142859</v>
       </c>
-      <c r="Y27" s="6">
-        <f t="shared" ref="Y27:Y29" si="18">G27/G35</f>
+      <c r="AA27" s="6">
+        <f t="shared" ref="AA27:AB29" si="21">G27/G35</f>
         <v>16.232984293193716</v>
       </c>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="AB27" s="6">
+        <f t="shared" si="21"/>
+        <v>1.0113636363636362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="B28">
         <f>'Arduino Uno'!B13</f>
         <v>64</v>
@@ -4943,69 +5258,81 @@
         <v>124.89</v>
       </c>
       <c r="H28" s="10">
-        <f t="shared" si="13"/>
+        <f>'NXP K66'!D13</f>
+        <v>8.6499999999999986</v>
+      </c>
+      <c r="I28" s="10">
+        <f t="shared" si="14"/>
         <v>8.3607499999999995</v>
       </c>
-      <c r="J28">
-        <f t="shared" si="14"/>
+      <c r="K28">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="K28" s="6">
+      <c r="L28" s="6">
         <f t="shared" si="8"/>
         <v>2.4946388698516571</v>
       </c>
-      <c r="L28" s="6">
+      <c r="M28" s="6">
         <f t="shared" si="9"/>
         <v>7.2837593596695083</v>
       </c>
-      <c r="M28" s="6">
-        <f t="shared" si="15"/>
-        <v>7.8672523182040024</v>
-      </c>
       <c r="N28" s="6">
         <f t="shared" si="16"/>
+        <v>7.8672523182040024</v>
+      </c>
+      <c r="O28" s="6">
+        <f t="shared" si="17"/>
         <v>9.0351509328208834</v>
       </c>
-      <c r="O28" s="6">
-        <f t="shared" si="16"/>
+      <c r="P28" s="6">
+        <f t="shared" si="18"/>
+        <v>130.45086705202314</v>
+      </c>
+      <c r="Q28" s="6">
+        <f t="shared" si="19"/>
         <v>134.96396854349194</v>
       </c>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6">
+      <c r="R28" s="6"/>
+      <c r="S28" s="6">
         <f t="shared" si="10"/>
         <v>2.9197650400206561</v>
       </c>
-      <c r="R28" s="6">
+      <c r="T28" s="6">
         <f t="shared" si="11"/>
         <v>1.0801087638569336</v>
       </c>
-      <c r="S28" s="6">
+      <c r="U28" s="6">
         <f t="shared" si="12"/>
         <v>1.2404515974057169</v>
       </c>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6">
-        <f t="shared" si="17"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6">
+        <f t="shared" si="20"/>
         <v>7.2659368963296842</v>
       </c>
-      <c r="V28" s="6">
-        <f t="shared" si="17"/>
+      <c r="X28" s="6">
+        <f t="shared" si="20"/>
         <v>8.3826908821349146</v>
       </c>
-      <c r="W28" s="6">
-        <f t="shared" si="17"/>
+      <c r="Y28" s="6">
+        <f t="shared" si="20"/>
         <v>6.8066783831282942</v>
       </c>
-      <c r="X28" s="6">
-        <f t="shared" si="17"/>
+      <c r="Z28" s="6">
+        <f t="shared" si="20"/>
         <v>5.7834677419354836</v>
       </c>
-      <c r="Y28" s="6">
-        <f t="shared" si="18"/>
+      <c r="AA28" s="6">
+        <f t="shared" si="21"/>
         <v>16.652000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="AB28" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="B29">
         <f>'Arduino Uno'!B14</f>
         <v>128</v>
@@ -5031,69 +5358,81 @@
         <v>250.57</v>
       </c>
       <c r="H29" s="10">
-        <f t="shared" si="13"/>
+        <f>'NXP K66'!D14</f>
+        <v>17.149999999999999</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" si="14"/>
         <v>8.7690000000000001</v>
       </c>
-      <c r="J29">
-        <f t="shared" si="14"/>
+      <c r="K29">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="K29" s="6">
+      <c r="L29" s="6">
         <f t="shared" si="8"/>
         <v>2.5816660764872523</v>
       </c>
-      <c r="L29" s="6">
+      <c r="M29" s="6">
         <f t="shared" si="9"/>
         <v>7.5221666935353868</v>
       </c>
-      <c r="M29" s="6">
-        <f t="shared" si="15"/>
-        <v>8.1309030077022264</v>
-      </c>
       <c r="N29" s="6">
         <f t="shared" si="16"/>
+        <v>8.1309030077022264</v>
+      </c>
+      <c r="O29" s="6">
+        <f t="shared" si="17"/>
         <v>9.3107714411142606</v>
       </c>
-      <c r="O29" s="6">
-        <f t="shared" si="16"/>
+      <c r="P29" s="6">
+        <f t="shared" si="18"/>
+        <v>136.03498542274053</v>
+      </c>
+      <c r="Q29" s="6">
+        <f t="shared" si="19"/>
         <v>266.05086098756982</v>
       </c>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6">
+      <c r="R29" s="6"/>
+      <c r="S29" s="6">
         <f t="shared" si="10"/>
         <v>2.9136869256811222</v>
       </c>
-      <c r="R29" s="6">
+      <c r="T29" s="6">
         <f t="shared" si="11"/>
         <v>1.0809256613111211</v>
       </c>
-      <c r="S29" s="6">
+      <c r="U29" s="6">
         <f t="shared" si="12"/>
         <v>1.237777866464461</v>
       </c>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6">
-        <f t="shared" si="17"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6">
+        <f t="shared" si="20"/>
         <v>7.5746753246753249</v>
       </c>
-      <c r="V29" s="6">
-        <f t="shared" si="17"/>
+      <c r="X29" s="6">
+        <f t="shared" si="20"/>
         <v>8.4188559716787772</v>
       </c>
-      <c r="W29" s="6">
-        <f t="shared" si="17"/>
+      <c r="Y29" s="6">
+        <f t="shared" si="20"/>
         <v>6.8830448291167325</v>
       </c>
-      <c r="X29" s="6">
-        <f t="shared" si="17"/>
+      <c r="Z29" s="6">
+        <f t="shared" si="20"/>
         <v>5.83072546230441</v>
       </c>
-      <c r="Y29" s="6">
-        <f t="shared" si="18"/>
+      <c r="AA29" s="6">
+        <f t="shared" si="21"/>
         <v>16.873400673400674</v>
       </c>
-    </row>
-    <row r="30" spans="1:25">
+      <c r="AB29" s="6">
+        <f t="shared" si="21"/>
+        <v>1.0014598540145985</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" t="str">
         <f>'Arduino Uno'!N7</f>
         <v>long</v>
@@ -5123,71 +5462,83 @@
         <v>1.99</v>
       </c>
       <c r="H30" s="10">
-        <f>H26</f>
+        <f>H34</f>
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="I30" s="10">
+        <f>I26</f>
         <v>5.5045000000000002</v>
       </c>
-      <c r="J30">
-        <f t="shared" si="14"/>
+      <c r="K30">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="K30" s="6">
+      <c r="L30" s="6">
         <f t="shared" si="8"/>
         <v>9.0346907993966816</v>
       </c>
-      <c r="L30" s="6">
+      <c r="M30" s="6">
         <f t="shared" si="9"/>
         <v>19.834437086092716</v>
       </c>
-      <c r="M30" s="6">
-        <f t="shared" si="15"/>
-        <v>18.459167950693374</v>
-      </c>
       <c r="N30" s="6">
         <f t="shared" si="16"/>
+        <v>18.459167950693374</v>
+      </c>
+      <c r="O30" s="6">
+        <f t="shared" si="17"/>
         <v>60.201005025125625</v>
       </c>
-      <c r="O30" s="6">
-        <f t="shared" si="16"/>
+      <c r="P30" s="6">
+        <f t="shared" si="18"/>
+        <v>52.659340659340657</v>
+      </c>
+      <c r="Q30" s="6">
+        <f t="shared" si="19"/>
         <v>21.764011263511669</v>
       </c>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6">
+      <c r="R30" s="6"/>
+      <c r="S30" s="6">
         <f t="shared" si="10"/>
         <v>2.1953642384105958</v>
       </c>
-      <c r="R30" s="6">
+      <c r="T30" s="6">
         <f t="shared" si="11"/>
         <v>0.93066255778120177</v>
       </c>
-      <c r="S30" s="6">
+      <c r="U30" s="6">
         <f t="shared" si="12"/>
         <v>3.0351758793969847</v>
       </c>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6">
-        <f>C30/C34</f>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6">
+        <f t="shared" ref="W30:AB30" si="22">C30/C34</f>
         <v>2.9653465346534653</v>
       </c>
-      <c r="V30" s="6">
-        <f>D30/D34</f>
+      <c r="X30" s="6">
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="W30" s="6">
-        <f>E30/E34</f>
+      <c r="Y30" s="6">
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="X30" s="6">
-        <f>F30/F34</f>
+      <c r="Z30" s="6">
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="Y30" s="6">
-        <f>G30/G34</f>
+      <c r="AA30" s="6">
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="AB30" s="6">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="B31">
-        <f t="shared" ref="B31:B37" si="19">B27</f>
+        <f t="shared" ref="B31:B37" si="23">B27</f>
         <v>32</v>
       </c>
       <c r="C31" s="4">
@@ -5211,71 +5562,83 @@
         <v>3.82</v>
       </c>
       <c r="H31" s="10">
-        <f t="shared" ref="H31:H33" si="20">H27</f>
+        <f t="shared" ref="H31:H33" si="24">H35</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I31" s="10">
+        <f t="shared" ref="I31:I33" si="25">I27</f>
         <v>5.6927500000000002</v>
       </c>
-      <c r="J31">
-        <f t="shared" si="14"/>
+      <c r="K31">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="K31" s="6">
+      <c r="L31" s="6">
         <f t="shared" si="8"/>
         <v>9.1187355435620656</v>
       </c>
-      <c r="L31" s="6">
+      <c r="M31" s="6">
         <f t="shared" si="9"/>
         <v>20.373815676141259</v>
       </c>
-      <c r="M31" s="6">
-        <f t="shared" si="15"/>
-        <v>18.773015873015872</v>
-      </c>
       <c r="N31" s="6">
         <f t="shared" si="16"/>
+        <v>18.773015873015872</v>
+      </c>
+      <c r="O31" s="6">
+        <f t="shared" si="17"/>
         <v>61.921465968586389</v>
       </c>
-      <c r="O31" s="6">
-        <f t="shared" si="16"/>
+      <c r="P31" s="6">
+        <f t="shared" si="18"/>
+        <v>53.759090909090901</v>
+      </c>
+      <c r="Q31" s="6">
+        <f t="shared" si="19"/>
         <v>41.551095691888804</v>
       </c>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6">
+      <c r="R31" s="6"/>
+      <c r="S31" s="6">
         <f t="shared" si="10"/>
         <v>2.2342807924203276</v>
       </c>
-      <c r="R31" s="6">
+      <c r="T31" s="6">
         <f t="shared" si="11"/>
         <v>0.92142857142857137</v>
       </c>
-      <c r="S31" s="6">
+      <c r="U31" s="6">
         <f t="shared" si="12"/>
         <v>3.0392670157068062</v>
       </c>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6">
-        <f t="shared" ref="U31:X33" si="21">C31/C35</f>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6">
+        <f t="shared" ref="W31:Z33" si="26">C31/C35</f>
         <v>3.0086491986771811</v>
       </c>
-      <c r="V31" s="6">
-        <f t="shared" si="21"/>
+      <c r="X31" s="6">
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="W31" s="6">
-        <f t="shared" si="21"/>
+      <c r="Y31" s="6">
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="X31" s="6">
-        <f t="shared" si="21"/>
+      <c r="Z31" s="6">
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="Y31" s="6">
-        <f t="shared" ref="Y31:Y33" si="22">G31/G35</f>
+      <c r="AA31" s="6">
+        <f t="shared" ref="AA31:AB33" si="27">G31/G35</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:25">
+      <c r="AB31" s="6">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="B32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>64</v>
       </c>
       <c r="C32" s="4">
@@ -5299,71 +5662,83 @@
         <v>7.5</v>
       </c>
       <c r="H32" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
+        <v>8.6499999999999986</v>
+      </c>
+      <c r="I32" s="10">
+        <f t="shared" si="25"/>
         <v>8.3607499999999995</v>
       </c>
-      <c r="J32">
-        <f t="shared" si="14"/>
+      <c r="K32">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="K32" s="6">
+      <c r="L32" s="6">
         <f t="shared" si="8"/>
         <v>8.7085417824717446</v>
       </c>
-      <c r="L32" s="6">
+      <c r="M32" s="6">
         <f t="shared" si="9"/>
         <v>20.650263620386642</v>
       </c>
-      <c r="M32" s="6">
-        <f t="shared" si="15"/>
-        <v>18.951612903225804</v>
-      </c>
       <c r="N32" s="6">
         <f t="shared" si="16"/>
+        <v>18.951612903225804</v>
+      </c>
+      <c r="O32" s="6">
+        <f t="shared" si="17"/>
         <v>62.666666666666664</v>
       </c>
-      <c r="O32" s="6">
-        <f t="shared" si="16"/>
+      <c r="P32" s="6">
+        <f t="shared" si="18"/>
+        <v>54.335260115606943</v>
+      </c>
+      <c r="Q32" s="6">
+        <f t="shared" si="19"/>
         <v>56.215052477349523</v>
       </c>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6">
+      <c r="R32" s="6"/>
+      <c r="S32" s="6">
         <f t="shared" si="10"/>
         <v>2.3712653778558872</v>
       </c>
-      <c r="R32" s="6">
+      <c r="T32" s="6">
         <f t="shared" si="11"/>
         <v>0.91774193548387095</v>
       </c>
-      <c r="S32" s="6">
+      <c r="U32" s="6">
         <f t="shared" si="12"/>
         <v>3.0346666666666668</v>
       </c>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6">
-        <f t="shared" si="21"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6">
+        <f t="shared" si="26"/>
         <v>3.0264005151320021</v>
       </c>
-      <c r="V32" s="6">
-        <f t="shared" si="21"/>
+      <c r="X32" s="6">
+        <f t="shared" si="26"/>
         <v>1.0001853224610822</v>
       </c>
-      <c r="W32" s="6">
-        <f t="shared" si="21"/>
+      <c r="Y32" s="6">
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="X32" s="6">
-        <f t="shared" si="21"/>
+      <c r="Z32" s="6">
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="Y32" s="6">
-        <f t="shared" si="22"/>
+      <c r="AA32" s="6">
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:25">
+      <c r="AB32" s="6">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="B33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>128</v>
       </c>
       <c r="C33" s="4">
@@ -5387,75 +5762,87 @@
         <v>14.85</v>
       </c>
       <c r="H33" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
+        <v>17.125</v>
+      </c>
+      <c r="I33" s="10">
+        <f t="shared" si="25"/>
         <v>8.7690000000000001</v>
       </c>
-      <c r="J33">
-        <f t="shared" si="14"/>
+      <c r="K33">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="K33" s="6">
+      <c r="L33" s="6">
         <f t="shared" si="8"/>
         <v>8.7265952491849088</v>
       </c>
-      <c r="L33" s="6">
+      <c r="M33" s="6">
         <f t="shared" si="9"/>
         <v>20.790057700843317</v>
       </c>
-      <c r="M33" s="6">
-        <f t="shared" si="15"/>
-        <v>19.036781142044298</v>
-      </c>
       <c r="N33" s="6">
         <f t="shared" si="16"/>
+        <v>19.036781142044298</v>
+      </c>
+      <c r="O33" s="6">
+        <f t="shared" si="17"/>
         <v>63.084175084175079</v>
       </c>
-      <c r="O33" s="6">
-        <f t="shared" si="16"/>
+      <c r="P33" s="6">
+        <f t="shared" si="18"/>
+        <v>54.703649635036491</v>
+      </c>
+      <c r="Q33" s="6">
+        <f t="shared" si="19"/>
         <v>106.83088151442581</v>
       </c>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6">
+      <c r="R33" s="6"/>
+      <c r="S33" s="6">
         <f t="shared" si="10"/>
         <v>2.3823790501553481</v>
       </c>
-      <c r="R33" s="6">
+      <c r="T33" s="6">
         <f t="shared" si="11"/>
         <v>0.91566754724649468</v>
       </c>
-      <c r="S33" s="6">
+      <c r="U33" s="6">
         <f t="shared" si="12"/>
         <v>3.0343434343434348</v>
       </c>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6">
-        <f t="shared" si="21"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6">
+        <f t="shared" si="26"/>
         <v>3.0415584415584416</v>
       </c>
-      <c r="V33" s="6">
-        <f t="shared" si="21"/>
+      <c r="X33" s="6">
+        <f t="shared" si="26"/>
         <v>1.000093161915409</v>
       </c>
-      <c r="W33" s="6">
-        <f t="shared" si="21"/>
+      <c r="Y33" s="6">
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="X33" s="6">
-        <f t="shared" si="21"/>
+      <c r="Z33" s="6">
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="Y33" s="6">
-        <f t="shared" si="22"/>
+      <c r="AA33" s="6">
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:25">
+      <c r="AB33" s="6">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" t="str">
         <f>'Arduino Uno'!M7</f>
         <v>int</v>
       </c>
       <c r="B34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="C34" s="4">
@@ -5479,55 +5866,63 @@
         <v>1.99</v>
       </c>
       <c r="H34" s="10">
-        <f>H26</f>
+        <f>'NXP K66'!F11</f>
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="I34" s="10">
+        <f>I26</f>
         <v>5.5045000000000002</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="14"/>
+      <c r="K34">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="K34" s="6">
+      <c r="L34" s="6">
         <f t="shared" si="8"/>
         <v>3.0467571644042231</v>
       </c>
-      <c r="L34" s="6">
+      <c r="M34" s="6">
         <f t="shared" si="9"/>
         <v>6.6887417218543046</v>
       </c>
-      <c r="M34" s="6">
-        <f t="shared" si="15"/>
-        <v>6.2249614791987673</v>
-      </c>
       <c r="N34" s="6">
         <f t="shared" si="16"/>
+        <v>6.2249614791987673</v>
+      </c>
+      <c r="O34" s="6">
+        <f t="shared" si="17"/>
         <v>20.30150753768844</v>
       </c>
-      <c r="O34" s="6">
-        <f t="shared" si="16"/>
+      <c r="P34" s="6">
+        <f t="shared" si="18"/>
+        <v>17.758241758241759</v>
+      </c>
+      <c r="Q34" s="6">
+        <f t="shared" si="19"/>
         <v>7.3394495412844032</v>
       </c>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6">
+      <c r="R34" s="6"/>
+      <c r="S34" s="6">
         <f t="shared" si="10"/>
         <v>2.1953642384105958</v>
       </c>
-      <c r="R34" s="6">
+      <c r="T34" s="6">
         <f t="shared" si="11"/>
         <v>0.93066255778120177</v>
       </c>
-      <c r="S34" s="6">
+      <c r="U34" s="6">
         <f t="shared" si="12"/>
         <v>3.0351758793969847</v>
       </c>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+    </row>
+    <row r="35" spans="1:28">
       <c r="B35">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>32</v>
       </c>
       <c r="C35" s="4">
@@ -5551,53 +5946,61 @@
         <v>3.82</v>
       </c>
       <c r="H35" s="10">
-        <f t="shared" ref="H35:H37" si="23">H27</f>
+        <f>'NXP K66'!F12</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I35" s="10">
+        <f t="shared" ref="I35:I37" si="28">I27</f>
         <v>5.6927500000000002</v>
       </c>
-      <c r="J35">
-        <f t="shared" si="14"/>
+      <c r="K35">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="K35" s="6">
+      <c r="L35" s="6">
         <f t="shared" si="8"/>
         <v>3.0308404009252121</v>
       </c>
-      <c r="L35" s="6">
+      <c r="M35" s="6">
         <f t="shared" si="9"/>
         <v>6.7717484926787259</v>
       </c>
-      <c r="M35" s="6">
-        <f t="shared" si="15"/>
-        <v>6.2396825396825406</v>
-      </c>
       <c r="N35" s="6">
         <f t="shared" si="16"/>
+        <v>6.2396825396825406</v>
+      </c>
+      <c r="O35" s="6">
+        <f t="shared" si="17"/>
         <v>20.581151832460733</v>
       </c>
-      <c r="O35" s="6">
-        <f t="shared" si="16"/>
+      <c r="P35" s="6">
+        <f t="shared" si="18"/>
+        <v>17.868181818181817</v>
+      </c>
+      <c r="Q35" s="6">
+        <f t="shared" si="19"/>
         <v>13.810548504677001</v>
       </c>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6">
+      <c r="R35" s="6"/>
+      <c r="S35" s="6">
         <f t="shared" si="10"/>
         <v>2.2342807924203276</v>
       </c>
-      <c r="R35" s="6">
+      <c r="T35" s="6">
         <f t="shared" si="11"/>
         <v>0.92142857142857137</v>
       </c>
-      <c r="S35" s="6">
+      <c r="U35" s="6">
         <f t="shared" si="12"/>
         <v>3.0392670157068062</v>
       </c>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
-    </row>
-    <row r="36" spans="1:25">
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+    </row>
+    <row r="36" spans="1:28">
       <c r="B36">
         <f>B32</f>
         <v>64</v>
@@ -5623,55 +6026,63 @@
         <v>7.5</v>
       </c>
       <c r="H36" s="10">
-        <f t="shared" si="23"/>
+        <f>'NXP K66'!F13</f>
+        <v>8.6499999999999986</v>
+      </c>
+      <c r="I36" s="10">
+        <f t="shared" si="28"/>
         <v>8.3607499999999995</v>
       </c>
-      <c r="J36">
-        <f t="shared" si="14"/>
+      <c r="K36">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="K36" s="6">
+      <c r="L36" s="6">
         <f t="shared" si="8"/>
         <v>2.8780578206078578</v>
       </c>
-      <c r="L36" s="6">
+      <c r="M36" s="6">
         <f t="shared" si="9"/>
         <v>6.8233743409490337</v>
       </c>
-      <c r="M36" s="6">
-        <f t="shared" si="15"/>
-        <v>6.2620967741935489</v>
-      </c>
       <c r="N36" s="6">
         <f t="shared" si="16"/>
+        <v>6.2620967741935489</v>
+      </c>
+      <c r="O36" s="6">
+        <f t="shared" si="17"/>
         <v>20.706666666666667</v>
       </c>
-      <c r="O36" s="6">
-        <f t="shared" si="16"/>
+      <c r="P36" s="6">
+        <f t="shared" si="18"/>
+        <v>17.953757225433531</v>
+      </c>
+      <c r="Q36" s="6">
+        <f t="shared" si="19"/>
         <v>18.574888616451876</v>
       </c>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6">
+      <c r="R36" s="6"/>
+      <c r="S36" s="6">
         <f t="shared" si="10"/>
         <v>2.3708260105448153</v>
       </c>
-      <c r="R36" s="6">
+      <c r="T36" s="6">
         <f t="shared" si="11"/>
         <v>0.91774193548387095</v>
       </c>
-      <c r="S36" s="6">
+      <c r="U36" s="6">
         <f t="shared" si="12"/>
         <v>3.0346666666666668</v>
       </c>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
-    </row>
-    <row r="37" spans="1:25">
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+    </row>
+    <row r="37" spans="1:28">
       <c r="B37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>128</v>
       </c>
       <c r="C37" s="4">
@@ -5695,270 +6106,306 @@
         <v>14.85</v>
       </c>
       <c r="H37" s="10">
-        <f t="shared" si="23"/>
+        <f>'NXP K66'!F14</f>
+        <v>17.125</v>
+      </c>
+      <c r="I37" s="10">
+        <f t="shared" si="28"/>
         <v>8.7690000000000001</v>
       </c>
-      <c r="J37">
-        <f t="shared" si="14"/>
+      <c r="K37">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="K37" s="6">
+      <c r="L37" s="6">
         <f t="shared" si="8"/>
         <v>2.8693869945966086</v>
       </c>
-      <c r="L37" s="6">
+      <c r="M37" s="6">
         <f t="shared" si="9"/>
         <v>6.8353306702174876</v>
       </c>
-      <c r="M37" s="6">
-        <f t="shared" si="15"/>
-        <v>6.2588904694167855</v>
-      </c>
       <c r="N37" s="6">
         <f t="shared" si="16"/>
+        <v>6.2588904694167855</v>
+      </c>
+      <c r="O37" s="6">
+        <f t="shared" si="17"/>
         <v>20.74074074074074</v>
       </c>
-      <c r="O37" s="6">
-        <f t="shared" si="16"/>
+      <c r="P37" s="6">
+        <f t="shared" si="18"/>
+        <v>17.985401459854014</v>
+      </c>
+      <c r="Q37" s="6">
+        <f t="shared" si="19"/>
         <v>35.12373132626297</v>
       </c>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6">
+      <c r="R37" s="6"/>
+      <c r="S37" s="6">
         <f t="shared" si="10"/>
         <v>2.3821571238348866</v>
       </c>
-      <c r="R37" s="6">
+      <c r="T37" s="6">
         <f t="shared" si="11"/>
         <v>0.91566754724649468</v>
       </c>
-      <c r="S37" s="6">
+      <c r="U37" s="6">
         <f t="shared" si="12"/>
         <v>3.0343434343434348</v>
       </c>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
-    </row>
-    <row r="39" spans="1:25">
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" t="str">
         <f>A26</f>
         <v>float</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="8">
         <f>1/(C27*0.000001)</f>
         <v>1821.161901293025</v>
       </c>
       <c r="D39" s="8">
-        <f t="shared" ref="D39:G39" si="24">1/(D27*0.000001)</f>
+        <f t="shared" ref="D39:G39" si="29">1/(D27*0.000001)</f>
         <v>4454.5414049623596</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>12939.958592132507</v>
       </c>
       <c r="F39" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>13958.682300390843</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>16126.431220770844</v>
       </c>
       <c r="H39" s="8">
-        <f>1/(H27*0.000001)</f>
+        <f t="shared" ref="H39" si="30">1/(H27*0.000001)</f>
+        <v>224719.10112359552</v>
+      </c>
+      <c r="I39" s="8">
+        <f>1/(I27*0.000001)</f>
         <v>175662.02626147293</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>4</v>
       </c>
-      <c r="J39" s="9">
-        <f>$C$36/C28</f>
+      <c r="K39" s="9">
+        <f t="shared" ref="K39:P39" si="31">$C$36/C28</f>
         <v>0.13762850053172634</v>
       </c>
-      <c r="K39" s="9">
-        <f t="shared" ref="K39:N39" si="25">$C$36/D28</f>
+      <c r="L39" s="9">
+        <f t="shared" si="31"/>
         <v>0.34333340702584397</v>
       </c>
-      <c r="L39" s="9">
-        <f t="shared" si="25"/>
+      <c r="M39" s="9">
+        <f t="shared" si="31"/>
         <v>1.0024528789052416</v>
       </c>
-      <c r="M39" s="9">
-        <f t="shared" si="25"/>
+      <c r="N39" s="9">
+        <f t="shared" si="31"/>
         <v>1.0827581398591648</v>
       </c>
-      <c r="N39" s="9">
-        <f t="shared" si="25"/>
+      <c r="O39" s="9">
+        <f t="shared" si="31"/>
         <v>1.2434942749619666</v>
       </c>
-      <c r="O39" s="9">
-        <f>$C$37/H29</f>
+      <c r="P39" s="9">
+        <f t="shared" si="31"/>
+        <v>17.953757225433531</v>
+      </c>
+      <c r="Q39" s="9">
+        <f>$C$37/I29</f>
         <v>35.12373132626297</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:28">
       <c r="A40" t="str">
         <f>A30</f>
         <v>long</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="8">
         <f>1/(C31*0.000001)</f>
         <v>4227.6147797412705</v>
       </c>
       <c r="D40" s="8">
-        <f t="shared" ref="D40:G40" si="26">1/(D31*0.000001)</f>
+        <f t="shared" ref="D40:G40" si="32">1/(D31*0.000001)</f>
         <v>38550.501156515034</v>
       </c>
       <c r="E40" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>86132.644272179168</v>
       </c>
       <c r="F40" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>79365.079365079364</v>
       </c>
       <c r="G40" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>261780.10471204188</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" ref="H40" si="27">1/(H31*0.000001)</f>
+        <f t="shared" ref="H40" si="33">1/(H31*0.000001)</f>
+        <v>227272.72727272726</v>
+      </c>
+      <c r="I40" s="8">
+        <f t="shared" ref="I40" si="34">1/(I31*0.000001)</f>
         <v>175662.02626147293</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="9">
-        <f>$C$36/C32</f>
+      <c r="K40" s="9">
+        <f t="shared" ref="K40:P40" si="35">$C$36/C32</f>
         <v>0.33042553191489366</v>
       </c>
-      <c r="K40" s="9">
-        <f t="shared" ref="K40:N40" si="28">$C$36/D32</f>
+      <c r="L40" s="9">
+        <f t="shared" si="35"/>
         <v>2.8775245506763021</v>
       </c>
-      <c r="L40" s="9">
-        <f t="shared" si="28"/>
+      <c r="M40" s="9">
+        <f t="shared" si="35"/>
         <v>6.8233743409490337</v>
       </c>
-      <c r="M40" s="9">
-        <f t="shared" si="28"/>
+      <c r="N40" s="9">
+        <f t="shared" si="35"/>
         <v>6.2620967741935489</v>
       </c>
-      <c r="N40" s="9">
-        <f t="shared" si="28"/>
+      <c r="O40" s="9">
+        <f t="shared" si="35"/>
         <v>20.706666666666667</v>
       </c>
-      <c r="O40" s="9">
-        <f>O39</f>
+      <c r="P40" s="9">
+        <f t="shared" si="35"/>
+        <v>17.953757225433531</v>
+      </c>
+      <c r="Q40" s="9">
+        <f>Q39</f>
         <v>35.12373132626297</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:28">
       <c r="A41" t="str">
         <f>A34</f>
         <v>int</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="8">
         <f>1/(C35*0.000001)</f>
         <v>12719.40981938438</v>
       </c>
       <c r="D41" s="8">
-        <f t="shared" ref="D41:G41" si="29">1/(D35*0.000001)</f>
+        <f t="shared" ref="D41:G41" si="36">1/(D35*0.000001)</f>
         <v>38550.501156515034</v>
       </c>
       <c r="E41" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>86132.644272179168</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>79365.079365079364</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>261780.10471204188</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" ref="H41" si="30">1/(H35*0.000001)</f>
+        <f t="shared" ref="H41" si="37">1/(H35*0.000001)</f>
+        <v>227272.72727272726</v>
+      </c>
+      <c r="I41" s="8">
+        <f t="shared" ref="I41" si="38">1/(I35*0.000001)</f>
         <v>175662.02626147293</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>4</v>
       </c>
-      <c r="J41" s="9">
+      <c r="K41" s="9">
         <f>$C$36/C36</f>
         <v>1</v>
       </c>
-      <c r="K41" s="9">
-        <f t="shared" ref="K41:N41" si="31">$C$36/D36</f>
+      <c r="L41" s="9">
+        <f t="shared" ref="L41:P41" si="39">$C$36/D36</f>
         <v>2.8780578206078578</v>
       </c>
-      <c r="L41" s="9">
-        <f t="shared" si="31"/>
+      <c r="M41" s="9">
+        <f t="shared" si="39"/>
         <v>6.8233743409490337</v>
       </c>
-      <c r="M41" s="9">
-        <f t="shared" si="31"/>
+      <c r="N41" s="9">
+        <f t="shared" si="39"/>
         <v>6.2620967741935489</v>
       </c>
-      <c r="N41" s="9">
-        <f t="shared" si="31"/>
+      <c r="O41" s="9">
+        <f t="shared" si="39"/>
         <v>20.706666666666667</v>
       </c>
-      <c r="O41" s="9">
-        <f>O40</f>
+      <c r="P41" s="9">
+        <f t="shared" si="39"/>
+        <v>17.953757225433531</v>
+      </c>
+      <c r="Q41" s="9">
+        <f>Q40</f>
         <v>35.12373132626297</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:10">
       <c r="B59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G59">
         <v>250</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="2:9">
+    <row r="60" spans="2:10">
       <c r="C60" t="str">
         <f>C23</f>
         <v>Arduino Uno</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" ref="D60:G60" si="32">D23</f>
+        <f t="shared" ref="D60:H60" si="40">D23</f>
         <v>Arduino M0 Pro</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>Maple</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>Arduino Due</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>Teensy 3.1</v>
       </c>
       <c r="H60" t="str">
-        <f>H23</f>
+        <f t="shared" si="40"/>
+        <v>K66F</v>
+      </c>
+      <c r="I60" t="str">
+        <f>I23</f>
         <v>Python, PC</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="2:10">
       <c r="B61" t="str">
         <f>A26</f>
         <v>float</v>
@@ -5968,30 +6415,34 @@
         <v>3765.5502941905706</v>
       </c>
       <c r="D61" s="8">
-        <f t="shared" ref="D61:G61" si="33">SQRT($G$59/((D28*0.000001)/$B28))</f>
+        <f t="shared" ref="D61:G61" si="41">SQRT($G$59/((D28*0.000001)/$B28))</f>
         <v>5947.4704793272776</v>
       </c>
       <c r="E61" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>10162.633113501566</v>
       </c>
       <c r="F61" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>10561.849922156138</v>
       </c>
       <c r="G61" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>11318.689818636485</v>
       </c>
       <c r="H61" s="8">
-        <f>SQRT($G$59/((H11*0.000001)/$B11))</f>
+        <f t="shared" ref="H61" si="42">SQRT($G$59/((H28*0.000001)/$B28))</f>
+        <v>43008.26644563763</v>
+      </c>
+      <c r="I61" s="8">
+        <f>SQRT($G$59/((I11*0.000001)/$B11))</f>
         <v>76361.22447565374</v>
       </c>
-      <c r="I61" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9">
+      <c r="J61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10">
       <c r="B62" t="str">
         <f>A30</f>
         <v>long</v>
@@ -6001,30 +6452,34 @@
         <v>5834.5996599157825</v>
       </c>
       <c r="D62" s="8">
-        <f t="shared" ref="D62:G62" si="34">SQRT($G$59/((D32*0.000001)/$B32))</f>
+        <f t="shared" ref="D62:G62" si="43">SQRT($G$59/((D32*0.000001)/$B32))</f>
         <v>17218.042770596836</v>
       </c>
       <c r="E62" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>26513.915171382934</v>
       </c>
       <c r="F62" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>25400.025400038103</v>
       </c>
       <c r="G62" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>46188.021535170061</v>
       </c>
       <c r="H62" s="8">
-        <f>H61</f>
+        <f t="shared" ref="H62" si="44">SQRT($G$59/((H32*0.000001)/$B32))</f>
+        <v>43008.26644563763</v>
+      </c>
+      <c r="I62" s="8">
+        <f>I61</f>
         <v>76361.22447565374</v>
       </c>
-      <c r="I62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9">
+      <c r="J62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
       <c r="B63" t="str">
         <f>A34</f>
         <v>int</v>
@@ -6034,31 +6489,35 @@
         <v>10150.192141783918</v>
       </c>
       <c r="D63" s="8">
-        <f t="shared" ref="D63:G63" si="35">SQRT($G$59/((D36*0.000001)/$B36))</f>
+        <f t="shared" ref="D63:G63" si="45">SQRT($G$59/((D36*0.000001)/$B36))</f>
         <v>17219.638141716368</v>
       </c>
       <c r="E63" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>26513.915171382934</v>
       </c>
       <c r="F63" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>25400.025400038103</v>
       </c>
       <c r="G63" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>46188.021535170061</v>
       </c>
       <c r="H63" s="8">
-        <f>H62</f>
+        <f t="shared" ref="H63" si="46">SQRT($G$59/((H36*0.000001)/$B36))</f>
+        <v>43008.26644563763</v>
+      </c>
+      <c r="I63" s="8">
+        <f>I62</f>
         <v>76361.22447565374</v>
       </c>
-      <c r="I63" t="s">
-        <v>62</v>
+      <c r="J63" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C26:H37">
+  <conditionalFormatting sqref="C26:I37">
     <cfRule type="cellIs" dxfId="14" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>$D$21</formula>
     </cfRule>
@@ -6075,7 +6534,7 @@
       <formula>$D$18</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39:H41">
+  <conditionalFormatting sqref="C39:I41">
     <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>$C$21</formula>
     </cfRule>
@@ -6092,7 +6551,7 @@
       <formula>$C$18</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61:H63">
+  <conditionalFormatting sqref="C61:I63">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>$C$21</formula>
     </cfRule>
@@ -6119,7 +6578,7 @@
   <dimension ref="B2:T34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7411,8 +7870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:F16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7424,7 +7883,7 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -7434,7 +7893,7 @@
     </row>
     <row r="6" spans="2:6">
       <c r="C6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -7790,12 +8249,12 @@
     </row>
     <row r="30" spans="2:8">
       <c r="C30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="C31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="2:8">
@@ -7812,7 +8271,7 @@
         <v>25</v>
       </c>
       <c r="H32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="2:11">
@@ -8086,6 +8545,1417 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:U49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:21">
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21">
+      <c r="B3" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21">
+      <c r="B4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21">
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8" t="s">
+        <v>81</v>
+      </c>
+      <c r="T8" t="s">
+        <v>82</v>
+      </c>
+      <c r="U8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6">
+        <f>D21</f>
+        <v>0.7</v>
+      </c>
+      <c r="F9" s="6">
+        <f>F21</f>
+        <v>0.7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>76</v>
+      </c>
+      <c r="R9" t="s">
+        <v>76</v>
+      </c>
+      <c r="T9" t="str">
+        <f>P9</f>
+        <v>Int</v>
+      </c>
+      <c r="U9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" ref="D10:F16" si="0">D22</f>
+        <v>1.25</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>736548.507935</v>
+      </c>
+      <c r="L10">
+        <v>736548.50128900004</v>
+      </c>
+      <c r="N10">
+        <v>0.7</v>
+      </c>
+      <c r="P10">
+        <v>0.7</v>
+      </c>
+      <c r="T10" t="e">
+        <f t="shared" ref="T10:T40" si="1">M10/Q10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U10" t="e">
+        <f t="shared" ref="U10:U40" si="2">K10/O10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>736548.507935</v>
+      </c>
+      <c r="L11">
+        <v>736548.50128900004</v>
+      </c>
+      <c r="N11">
+        <v>0.7</v>
+      </c>
+      <c r="P11">
+        <v>0.7</v>
+      </c>
+      <c r="T11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21">
+      <c r="B12">
+        <v>32</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>4.45</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>736548.50793600001</v>
+      </c>
+      <c r="L12">
+        <v>736548.50129000004</v>
+      </c>
+      <c r="N12">
+        <v>0.7</v>
+      </c>
+      <c r="P12">
+        <v>0.7</v>
+      </c>
+      <c r="T12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21">
+      <c r="B13">
+        <v>64</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>8.6499999999999986</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>8.6499999999999986</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>736548.50793600001</v>
+      </c>
+      <c r="L13">
+        <v>736548.50129000004</v>
+      </c>
+      <c r="N13">
+        <v>0.7</v>
+      </c>
+      <c r="P13">
+        <v>0.7</v>
+      </c>
+      <c r="T13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="B14">
+        <v>128</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>17.149999999999999</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>17.125</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>736548.50793600001</v>
+      </c>
+      <c r="K14">
+        <f>(J14-J10)*24*60*60/4</f>
+        <v>2.1600164473056793E-2</v>
+      </c>
+      <c r="L14">
+        <v>736548.50129000004</v>
+      </c>
+      <c r="M14">
+        <f>(L14-L10)*24*60*60/4</f>
+        <v>2.1600164473056793E-2</v>
+      </c>
+      <c r="N14">
+        <v>0.7</v>
+      </c>
+      <c r="O14">
+        <f>AVERAGE(N11:N14)</f>
+        <v>0.7</v>
+      </c>
+      <c r="P14">
+        <v>0.7</v>
+      </c>
+      <c r="Q14">
+        <f>AVERAGE(P11:P14)</f>
+        <v>0.7</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>3.0857377818652564E-2</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>3.0857377818652564E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21">
+      <c r="B15">
+        <v>256</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>34.074999999999996</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
+        <v>34.1</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>736548.50793700002</v>
+      </c>
+      <c r="L15">
+        <v>736548.50129100005</v>
+      </c>
+      <c r="N15">
+        <v>1.2</v>
+      </c>
+      <c r="P15">
+        <v>1.2</v>
+      </c>
+      <c r="T15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21">
+      <c r="B16">
+        <v>512</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>68.05</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="0"/>
+        <v>68.05</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>736548.50793700002</v>
+      </c>
+      <c r="L16">
+        <v>736548.50129100005</v>
+      </c>
+      <c r="N16">
+        <v>1.2</v>
+      </c>
+      <c r="P16">
+        <v>1.2</v>
+      </c>
+      <c r="T16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U16" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21">
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>736548.50793700002</v>
+      </c>
+      <c r="L17">
+        <v>736548.50129100005</v>
+      </c>
+      <c r="N17">
+        <v>1.3</v>
+      </c>
+      <c r="P17">
+        <v>1.2</v>
+      </c>
+      <c r="T17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U17" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21">
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>736548.50793800002</v>
+      </c>
+      <c r="L18">
+        <v>736548.50129199994</v>
+      </c>
+      <c r="N18">
+        <v>1.3</v>
+      </c>
+      <c r="P18">
+        <v>1.2</v>
+      </c>
+      <c r="T18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U18" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21">
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>736548.50793800002</v>
+      </c>
+      <c r="K19">
+        <f>(J19-J15)*24*60*60/4</f>
+        <v>2.1600164473056793E-2</v>
+      </c>
+      <c r="L19">
+        <v>736548.50129199994</v>
+      </c>
+      <c r="M19">
+        <f>(L19-L15)*24*60*60/4</f>
+        <v>2.1597649902105331E-2</v>
+      </c>
+      <c r="N19">
+        <v>1.2</v>
+      </c>
+      <c r="O19">
+        <f>AVERAGE(N16:N19)</f>
+        <v>1.25</v>
+      </c>
+      <c r="P19">
+        <v>1.2</v>
+      </c>
+      <c r="Q19">
+        <f>AVERAGE(P16:P19)</f>
+        <v>1.2</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>1.7998041585087776E-2</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="2"/>
+        <v>1.7280131578445435E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21">
+      <c r="I20">
+        <v>16</v>
+      </c>
+      <c r="J20">
+        <v>736548.50793900003</v>
+      </c>
+      <c r="L20">
+        <v>736548.50129299995</v>
+      </c>
+      <c r="N20">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P20">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21">
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <f>O14</f>
+        <v>0.7</v>
+      </c>
+      <c r="F21">
+        <f>Q14</f>
+        <v>0.7</v>
+      </c>
+      <c r="I21">
+        <v>16</v>
+      </c>
+      <c r="J21">
+        <v>736548.50794000004</v>
+      </c>
+      <c r="L21">
+        <v>736548.50129399996</v>
+      </c>
+      <c r="N21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21">
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <f>O19</f>
+        <v>1.25</v>
+      </c>
+      <c r="F22">
+        <f>Q19</f>
+        <v>1.2</v>
+      </c>
+      <c r="I22">
+        <v>16</v>
+      </c>
+      <c r="J22">
+        <v>736548.50794100005</v>
+      </c>
+      <c r="L22">
+        <v>736548.50129399996</v>
+      </c>
+      <c r="N22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21">
+      <c r="B23">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <f>O24</f>
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="F23">
+        <f>Q24</f>
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="I23">
+        <v>16</v>
+      </c>
+      <c r="J23">
+        <v>736548.50794100005</v>
+      </c>
+      <c r="L23">
+        <v>736548.50129499997</v>
+      </c>
+      <c r="N23">
+        <v>2.4</v>
+      </c>
+      <c r="P23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21">
+      <c r="B24">
+        <v>32</v>
+      </c>
+      <c r="D24">
+        <f>O29</f>
+        <v>4.45</v>
+      </c>
+      <c r="F24">
+        <f>Q29</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I24">
+        <v>16</v>
+      </c>
+      <c r="J24">
+        <v>736548.50794200005</v>
+      </c>
+      <c r="K24">
+        <f>(J24-J20)*24*60*60/4</f>
+        <v>6.480049341917038E-2</v>
+      </c>
+      <c r="L24">
+        <v>736548.50129599997</v>
+      </c>
+      <c r="M24">
+        <f>(L24-L20)*24*60*60/4</f>
+        <v>6.480049341917038E-2</v>
+      </c>
+      <c r="N24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O24">
+        <f>AVERAGE(N21:N24)</f>
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="P24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q24">
+        <f>AVERAGE(P21:P24)</f>
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>2.8483733371063906E-2</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="2"/>
+        <v>2.7871179965234569E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21">
+      <c r="B25">
+        <v>64</v>
+      </c>
+      <c r="D25">
+        <f>O34</f>
+        <v>8.6499999999999986</v>
+      </c>
+      <c r="F25">
+        <f>Q34</f>
+        <v>8.6499999999999986</v>
+      </c>
+      <c r="I25">
+        <v>32</v>
+      </c>
+      <c r="J25">
+        <v>736548.50794399995</v>
+      </c>
+      <c r="L25">
+        <v>736548.50129699998</v>
+      </c>
+      <c r="N25">
+        <v>4.5</v>
+      </c>
+      <c r="P25">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T25" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U25" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21">
+      <c r="B26">
+        <v>128</v>
+      </c>
+      <c r="D26">
+        <f>O39</f>
+        <v>17.149999999999999</v>
+      </c>
+      <c r="F26">
+        <f>Q39</f>
+        <v>17.125</v>
+      </c>
+      <c r="I26">
+        <v>32</v>
+      </c>
+      <c r="J26">
+        <v>736548.50794499996</v>
+      </c>
+      <c r="L26">
+        <v>736548.50129799999</v>
+      </c>
+      <c r="N26">
+        <v>4.5</v>
+      </c>
+      <c r="P26">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T26" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U26" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21">
+      <c r="B27">
+        <v>256</v>
+      </c>
+      <c r="D27">
+        <f>O44</f>
+        <v>34.074999999999996</v>
+      </c>
+      <c r="F27">
+        <f>Q44</f>
+        <v>34.1</v>
+      </c>
+      <c r="I27">
+        <v>32</v>
+      </c>
+      <c r="J27">
+        <v>736548.50794699998</v>
+      </c>
+      <c r="L27">
+        <v>736548.5013</v>
+      </c>
+      <c r="N27">
+        <v>4.5</v>
+      </c>
+      <c r="P27">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T27" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U27" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21">
+      <c r="B28">
+        <v>512</v>
+      </c>
+      <c r="D28">
+        <f>O49</f>
+        <v>68.05</v>
+      </c>
+      <c r="F28">
+        <f>Q49</f>
+        <v>68.05</v>
+      </c>
+      <c r="I28">
+        <v>32</v>
+      </c>
+      <c r="J28">
+        <v>736548.50794799998</v>
+      </c>
+      <c r="L28">
+        <v>736548.50130100001</v>
+      </c>
+      <c r="N28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T28" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U28" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21">
+      <c r="I29">
+        <v>32</v>
+      </c>
+      <c r="J29">
+        <v>736548.50795</v>
+      </c>
+      <c r="K29">
+        <f>(J29-J25)*24*60*60/4</f>
+        <v>0.12960098683834076</v>
+      </c>
+      <c r="L29">
+        <v>736548.50130200002</v>
+      </c>
+      <c r="M29">
+        <f>(L29-L25)*24*60*60/4</f>
+        <v>0.10800082236528397</v>
+      </c>
+      <c r="N29">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O29">
+        <f>AVERAGE(N26:N29)</f>
+        <v>4.45</v>
+      </c>
+      <c r="P29">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q29">
+        <f>AVERAGE(P26:P29)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>2.4545641446655445E-2</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="2"/>
+        <v>2.9123817267042867E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21">
+      <c r="I30">
+        <v>64</v>
+      </c>
+      <c r="J30">
+        <v>736548.50795200001</v>
+      </c>
+      <c r="L30">
+        <v>736548.50130500004</v>
+      </c>
+      <c r="N30">
+        <v>8.6</v>
+      </c>
+      <c r="P30">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="T30" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U30" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21">
+      <c r="I31">
+        <v>64</v>
+      </c>
+      <c r="J31">
+        <v>736548.50795500004</v>
+      </c>
+      <c r="L31">
+        <v>736548.50130799995</v>
+      </c>
+      <c r="N31">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="P31">
+        <v>8.6</v>
+      </c>
+      <c r="T31" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U31" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21">
+      <c r="I32">
+        <v>64</v>
+      </c>
+      <c r="J32">
+        <v>736548.50795799994</v>
+      </c>
+      <c r="L32">
+        <v>736548.50130999996</v>
+      </c>
+      <c r="N32">
+        <v>8.6</v>
+      </c>
+      <c r="P32">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="T32" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="9:21">
+      <c r="I33">
+        <v>64</v>
+      </c>
+      <c r="J33">
+        <v>736548.50796099997</v>
+      </c>
+      <c r="L33">
+        <v>736548.50131299999</v>
+      </c>
+      <c r="N33">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="P33">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="T33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U33" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="9:21">
+      <c r="I34">
+        <v>64</v>
+      </c>
+      <c r="J34">
+        <v>736548.50796399999</v>
+      </c>
+      <c r="K34">
+        <f>(J34-J30)*24*60*60/4</f>
+        <v>0.25919945910573006</v>
+      </c>
+      <c r="L34">
+        <v>736548.50131600001</v>
+      </c>
+      <c r="M34">
+        <f>(L34-L30)*24*60*60/4</f>
+        <v>0.23759929463267326</v>
+      </c>
+      <c r="N34">
+        <v>8.6</v>
+      </c>
+      <c r="O34">
+        <f>AVERAGE(N31:N34)</f>
+        <v>8.6499999999999986</v>
+      </c>
+      <c r="P34">
+        <v>8.6</v>
+      </c>
+      <c r="Q34">
+        <f>AVERAGE(P31:P34)</f>
+        <v>8.6499999999999986</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="1"/>
+        <v>2.7468126547129861E-2</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="2"/>
+        <v>2.9965255387945675E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="9:21">
+      <c r="I35">
+        <v>128</v>
+      </c>
+      <c r="J35">
+        <v>736548.50797000004</v>
+      </c>
+      <c r="L35">
+        <v>736548.50132100005</v>
+      </c>
+      <c r="N35">
+        <v>17.2</v>
+      </c>
+      <c r="P35">
+        <v>17.2</v>
+      </c>
+      <c r="T35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="9:21">
+      <c r="I36">
+        <v>128</v>
+      </c>
+      <c r="J36">
+        <v>736548.50797499996</v>
+      </c>
+      <c r="L36">
+        <v>736548.50132599997</v>
+      </c>
+      <c r="N36">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="P36">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="T36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U36" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="9:21">
+      <c r="I37">
+        <v>128</v>
+      </c>
+      <c r="J37">
+        <v>736548.507981</v>
+      </c>
+      <c r="L37">
+        <v>736548.50133100001</v>
+      </c>
+      <c r="N37">
+        <v>17.2</v>
+      </c>
+      <c r="P37">
+        <v>17.2</v>
+      </c>
+      <c r="T37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U37" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="9:21">
+      <c r="I38">
+        <v>128</v>
+      </c>
+      <c r="J38">
+        <v>736548.50798700005</v>
+      </c>
+      <c r="L38">
+        <v>736548.50133600004</v>
+      </c>
+      <c r="N38">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="P38">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="T38" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U38" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="9:21">
+      <c r="I39">
+        <v>128</v>
+      </c>
+      <c r="J39">
+        <v>736548.50799199997</v>
+      </c>
+      <c r="K39">
+        <f>(J39-J35)*24*60*60/4</f>
+        <v>0.47519858926534653</v>
+      </c>
+      <c r="L39">
+        <v>736548.50134199997</v>
+      </c>
+      <c r="M39">
+        <f>(L39-L35)*24*60*60/4</f>
+        <v>0.45359842479228973</v>
+      </c>
+      <c r="N39">
+        <v>17.2</v>
+      </c>
+      <c r="O39">
+        <f>AVERAGE(N36:N39)</f>
+        <v>17.149999999999999</v>
+      </c>
+      <c r="P39">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="Q39">
+        <f>AVERAGE(P36:P39)</f>
+        <v>17.125</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="1"/>
+        <v>2.6487499257943928E-2</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="2"/>
+        <v>2.7708372551915252E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="9:21">
+      <c r="I40">
+        <v>256</v>
+      </c>
+      <c r="J40">
+        <v>736548.50800399994</v>
+      </c>
+      <c r="L40">
+        <v>736548.50135200005</v>
+      </c>
+      <c r="N40">
+        <v>34.1</v>
+      </c>
+      <c r="P40">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="T40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="9:21">
+      <c r="I41">
+        <v>256</v>
+      </c>
+      <c r="J41">
+        <v>736548.50801500003</v>
+      </c>
+      <c r="L41">
+        <v>736548.50136200001</v>
+      </c>
+      <c r="N41">
+        <v>34</v>
+      </c>
+      <c r="P41">
+        <v>34.1</v>
+      </c>
+      <c r="S41" t="e">
+        <f t="shared" ref="S41:S49" si="3">M41/Q41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T41" t="e">
+        <f t="shared" ref="T41:T49" si="4">K41/O41</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="9:21">
+      <c r="I42">
+        <v>256</v>
+      </c>
+      <c r="J42">
+        <v>736548.508027</v>
+      </c>
+      <c r="L42">
+        <v>736548.50137299998</v>
+      </c>
+      <c r="N42">
+        <v>34.1</v>
+      </c>
+      <c r="P42">
+        <v>34.1</v>
+      </c>
+      <c r="S42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T42" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="9:21">
+      <c r="I43">
+        <v>256</v>
+      </c>
+      <c r="J43">
+        <v>736548.50803799997</v>
+      </c>
+      <c r="L43">
+        <v>736548.50138300005</v>
+      </c>
+      <c r="N43">
+        <v>34.1</v>
+      </c>
+      <c r="P43">
+        <v>34.1</v>
+      </c>
+      <c r="S43" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T43" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="9:21">
+      <c r="I44">
+        <v>256</v>
+      </c>
+      <c r="J44">
+        <v>736548.50804900005</v>
+      </c>
+      <c r="K44">
+        <f>(J44-J40)*24*60*60/4</f>
+        <v>0.97200237214565277</v>
+      </c>
+      <c r="L44">
+        <v>736548.50139300001</v>
+      </c>
+      <c r="M44">
+        <f>(L44-L40)*24*60*60/4</f>
+        <v>0.88559919968247414</v>
+      </c>
+      <c r="N44">
+        <v>34.1</v>
+      </c>
+      <c r="O44">
+        <f>AVERAGE(N41:N44)</f>
+        <v>34.074999999999996</v>
+      </c>
+      <c r="P44">
+        <v>34.1</v>
+      </c>
+      <c r="Q44">
+        <f>AVERAGE(P41:P44)</f>
+        <v>34.1</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="3"/>
+        <v>2.5970651017081351E-2</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="4"/>
+        <v>2.8525381427605367E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="9:21">
+      <c r="I45">
+        <v>512</v>
+      </c>
+      <c r="J45">
+        <v>736548.508072</v>
+      </c>
+      <c r="L45">
+        <v>736548.50141400006</v>
+      </c>
+      <c r="N45">
+        <v>68</v>
+      </c>
+      <c r="P45">
+        <v>68</v>
+      </c>
+      <c r="S45" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T45" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="9:21">
+      <c r="I46">
+        <v>512</v>
+      </c>
+      <c r="J46">
+        <v>736548.50809400005</v>
+      </c>
+      <c r="L46">
+        <v>736548.50143499998</v>
+      </c>
+      <c r="N46">
+        <v>68</v>
+      </c>
+      <c r="P46">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="S46" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T46" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="9:21">
+      <c r="I47">
+        <v>512</v>
+      </c>
+      <c r="J47">
+        <v>736548.50811699999</v>
+      </c>
+      <c r="L47">
+        <v>736548.50145500002</v>
+      </c>
+      <c r="N47">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="P47">
+        <v>68</v>
+      </c>
+      <c r="S47" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T47" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="9:21">
+      <c r="I48">
+        <v>512</v>
+      </c>
+      <c r="J48">
+        <v>736548.50814000005</v>
+      </c>
+      <c r="L48">
+        <v>736548.50147599995</v>
+      </c>
+      <c r="N48">
+        <v>68</v>
+      </c>
+      <c r="P48">
+        <v>68</v>
+      </c>
+      <c r="S48" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T48" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="9:20">
+      <c r="I49">
+        <v>512</v>
+      </c>
+      <c r="J49">
+        <v>736548.50816199998</v>
+      </c>
+      <c r="K49">
+        <f>(J49-J45)*24*60*60/4</f>
+        <v>1.9439997151494026</v>
+      </c>
+      <c r="L49">
+        <v>736548.50149599998</v>
+      </c>
+      <c r="M49">
+        <f>(L49-L45)*24*60*60/4</f>
+        <v>1.7711983993649483</v>
+      </c>
+      <c r="N49">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="O49">
+        <f>AVERAGE(N46:N49)</f>
+        <v>68.05</v>
+      </c>
+      <c r="P49">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="Q49">
+        <f>AVERAGE(P46:P49)</f>
+        <v>68.05</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="3"/>
+        <v>2.6027897125127823E-2</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="4"/>
+        <v>2.8567225792055881E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:K21"/>
   <sheetViews>
@@ -8102,7 +9972,7 @@
   <sheetData>
     <row r="6" spans="2:11">
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" t="str">
         <f>C6</f>
@@ -8111,7 +9981,7 @@
     </row>
     <row r="7" spans="2:11">
       <c r="C7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" t="str">
         <f>C7</f>
@@ -8120,16 +9990,16 @@
     </row>
     <row r="8" spans="2:11">
       <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
         <v>64</v>
       </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
       <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" t="s">
         <v>71</v>
-      </c>
-      <c r="K8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="9" spans="2:11">

--- a/Arduino/2015-07_Benchmarking/FIR Speed Results.xlsx
+++ b/Arduino/2015-07_Benchmarking/FIR Speed Results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="81">
   <si>
     <t>Float</t>
   </si>
@@ -248,12 +248,6 @@
     <t>K66F</t>
   </si>
   <si>
-    <t>Debug</t>
-  </si>
-  <si>
-    <t>Int</t>
-  </si>
-  <si>
     <t>NXP K66</t>
   </si>
   <si>
@@ -266,16 +260,10 @@
     <t>Uno/K66</t>
   </si>
   <si>
-    <t>Release</t>
+    <t>NXP Kinetis MK20DX256VLH7, Cortex-M4 (No FPU)</t>
   </si>
   <si>
-    <t>Debug vs Release</t>
-  </si>
-  <si>
-    <t>or only 120 MHz for the FRDM-K66F configuration?</t>
-  </si>
-  <si>
-    <t>NXP Kinetis MK20DX256VLH7, Cortex-M4 (No FPU)</t>
+    <t>Teensy/K66</t>
   </si>
 </sst>
 </file>
@@ -971,22 +959,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.3250000000000002</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.45</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6499999999999986</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.149999999999999</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.074999999999996</c:v>
+                  <c:v>19.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68.05</c:v>
+                  <c:v>39.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1071,11 +1059,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="149849600"/>
-        <c:axId val="149851520"/>
+        <c:axId val="144223232"/>
+        <c:axId val="146072704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="149849600"/>
+        <c:axId val="144223232"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1107,13 +1095,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149851520"/>
+        <c:crossAx val="146072704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149851520"/>
+        <c:axId val="146072704"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1146,7 +1134,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149849600"/>
+        <c:crossAx val="144223232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -1501,11 +1489,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="149762048"/>
-        <c:axId val="149763584"/>
+        <c:axId val="142374784"/>
+        <c:axId val="142376320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="149762048"/>
+        <c:axId val="142374784"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1518,12 +1506,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149763584"/>
+        <c:crossAx val="142376320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149763584"/>
+        <c:axId val="142376320"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1535,7 +1523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149762048"/>
+        <c:crossAx val="142374784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1660,7 +1648,7 @@
                   <c:v>62.01</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
-                  <c:v>4.45</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1729,7 +1717,7 @@
                   <c:v>3.82</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1798,7 +1786,7 @@
                   <c:v>3.82</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1813,11 +1801,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="149785216"/>
-        <c:axId val="149791104"/>
+        <c:axId val="142398208"/>
+        <c:axId val="142399744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="149785216"/>
+        <c:axId val="142398208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1826,7 +1814,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149791104"/>
+        <c:crossAx val="142399744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1834,7 +1822,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149791104"/>
+        <c:axId val="142399744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1864,7 +1852,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149785216"/>
+        <c:crossAx val="142398208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1990,7 +1978,7 @@
                   <c:v>62.01</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
-                  <c:v>4.45</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2062,7 +2050,7 @@
                   <c:v>3.82</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2134,7 +2122,7 @@
                   <c:v>3.82</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2151,11 +2139,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149696512"/>
-        <c:axId val="149698048"/>
+        <c:axId val="142557568"/>
+        <c:axId val="142559104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149696512"/>
+        <c:axId val="142557568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2164,7 +2152,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149698048"/>
+        <c:crossAx val="142559104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2172,7 +2160,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149698048"/>
+        <c:axId val="142559104"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2203,7 +2191,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149696512"/>
+        <c:crossAx val="142557568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2332,7 +2320,7 @@
                   <c:v>11318.689818636485</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43008.26644563763</c:v>
+                  <c:v>56011.203361120395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2395,7 +2383,7 @@
                   <c:v>46188.021535170061</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43008.26644563763</c:v>
+                  <c:v>64051.261522034853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2410,11 +2398,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="149740160"/>
-        <c:axId val="149741952"/>
+        <c:axId val="142580736"/>
+        <c:axId val="142611200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="149740160"/>
+        <c:axId val="142580736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2423,7 +2411,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149741952"/>
+        <c:crossAx val="142611200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2431,7 +2419,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149741952"/>
+        <c:axId val="142611200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2468,7 +2456,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149740160"/>
+        <c:crossAx val="142580736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10000"/>
@@ -2599,7 +2587,7 @@
                   <c:v>20.706666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.953757225433531</c:v>
+                  <c:v>39.820512820512825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2665,7 +2653,7 @@
                   <c:v>20.706666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.953757225433531</c:v>
+                  <c:v>39.820512820512825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2731,7 +2719,7 @@
                   <c:v>1.2434942749619666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.953757225433531</c:v>
+                  <c:v>30.450980392156868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2748,11 +2736,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149906176"/>
-        <c:axId val="149907712"/>
+        <c:axId val="142650368"/>
+        <c:axId val="142660352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149906176"/>
+        <c:axId val="142650368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2761,7 +2749,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="149907712"/>
+        <c:crossAx val="142660352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2769,7 +2757,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149907712"/>
+        <c:axId val="142660352"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2812,7 +2800,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149906176"/>
+        <c:crossAx val="142650368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2981,11 +2969,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148837504"/>
-        <c:axId val="148839424"/>
+        <c:axId val="143571968"/>
+        <c:axId val="143602816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148837504"/>
+        <c:axId val="143571968"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -3014,13 +3002,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="148839424"/>
+        <c:crossAx val="143602816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148839424"/>
+        <c:axId val="143602816"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3050,7 +3038,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148837504"/>
+        <c:crossAx val="143571968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3218,11 +3206,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148880768"/>
-        <c:axId val="148887040"/>
+        <c:axId val="143623296"/>
+        <c:axId val="143625216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148880768"/>
+        <c:axId val="143623296"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -3251,13 +3239,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148887040"/>
+        <c:crossAx val="143625216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148887040"/>
+        <c:axId val="143625216"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3287,7 +3275,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148880768"/>
+        <c:crossAx val="143623296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3318,7 +3306,7 @@
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -3342,13 +3330,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
@@ -3408,7 +3396,7 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -3472,7 +3460,7 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>466724</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -4151,10 +4139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB63"/>
+  <dimension ref="A1:AC63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4165,9 +4153,9 @@
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="17" width="9.28515625" customWidth="1"/>
     <col min="18" max="18" width="1.7109375" customWidth="1"/>
-    <col min="19" max="21" width="9.28515625" customWidth="1"/>
-    <col min="22" max="22" width="2.5703125" customWidth="1"/>
-    <col min="23" max="23" width="9.28515625" customWidth="1"/>
+    <col min="19" max="22" width="9.28515625" customWidth="1"/>
+    <col min="23" max="23" width="2.5703125" customWidth="1"/>
+    <col min="24" max="24" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17">
@@ -4190,7 +4178,7 @@
         <v>54</v>
       </c>
       <c r="H1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I1" t="s">
         <v>66</v>
@@ -4319,10 +4307,7 @@
         <f>'Teensy 3.1'!D9</f>
         <v>6.81</v>
       </c>
-      <c r="H5" s="10">
-        <f>'NXP K66'!D9</f>
-        <v>0.7</v>
-      </c>
+      <c r="H5" s="10"/>
       <c r="I5" s="10">
         <f>Python!D9</f>
         <v>5.698666666666667</v>
@@ -4378,10 +4363,7 @@
         <f>'Teensy 3.1'!D10</f>
         <v>14.74</v>
       </c>
-      <c r="H6" s="10">
-        <f>'NXP K66'!D10</f>
-        <v>1.25</v>
-      </c>
+      <c r="H6" s="10"/>
       <c r="I6" s="10">
         <f>Python!D10</f>
         <v>5.5945</v>
@@ -4439,7 +4421,7 @@
       </c>
       <c r="H7" s="10">
         <f>'NXP K66'!D11</f>
-        <v>2.3250000000000002</v>
+        <v>1.3</v>
       </c>
       <c r="I7" s="10">
         <f>Python!D11</f>
@@ -4498,7 +4480,7 @@
       </c>
       <c r="H8" s="10">
         <f>'NXP K66'!D12</f>
-        <v>4.45</v>
+        <v>2.6</v>
       </c>
       <c r="I8" s="10">
         <f>Python!D12</f>
@@ -4557,7 +4539,7 @@
       </c>
       <c r="H9" s="10">
         <f>'NXP K66'!D13</f>
-        <v>8.6499999999999986</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I9" s="10">
         <f>Python!D13</f>
@@ -4616,7 +4598,7 @@
       </c>
       <c r="H10" s="10">
         <f>'NXP K66'!D14</f>
-        <v>17.149999999999999</v>
+        <v>10</v>
       </c>
       <c r="I10" s="10">
         <f>Python!D14</f>
@@ -4675,7 +4657,7 @@
       </c>
       <c r="H11" s="10">
         <f>'NXP K66'!D15</f>
-        <v>34.074999999999996</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="I11" s="10">
         <f>Python!D15</f>
@@ -4715,7 +4697,7 @@
       </c>
       <c r="H12" s="10">
         <f>'NXP K66'!D16</f>
-        <v>68.05</v>
+        <v>39.6</v>
       </c>
       <c r="I12" s="10">
         <f>Python!D16</f>
@@ -4735,6 +4717,10 @@
         <f>'Arduino M0 Pro'!C18</f>
         <v>7519</v>
       </c>
+      <c r="H13" s="10">
+        <f>'NXP K66'!D17</f>
+        <v>79.2</v>
+      </c>
       <c r="I13" s="10">
         <f>Python!D17</f>
         <v>27.3535</v>
@@ -4756,7 +4742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:29">
       <c r="C17">
         <v>6000</v>
       </c>
@@ -4765,7 +4751,7 @@
         <v>166.66666666666666</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:29">
       <c r="C18">
         <v>8000</v>
       </c>
@@ -4774,7 +4760,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:29">
       <c r="C19">
         <v>11025</v>
       </c>
@@ -4783,7 +4769,7 @@
         <v>90.702947845804985</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:29">
       <c r="C20">
         <v>22050</v>
       </c>
@@ -4810,8 +4796,9 @@
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="X20" s="4"/>
+    </row>
+    <row r="21" spans="1:29">
       <c r="C21">
         <v>44100</v>
       </c>
@@ -4838,8 +4825,9 @@
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
-    </row>
-    <row r="23" spans="1:28">
+      <c r="X21" s="4"/>
+    </row>
+    <row r="23" spans="1:29">
       <c r="C23" t="str">
         <f>'Arduino Uno'!L5</f>
         <v>Arduino Uno</v>
@@ -4903,32 +4891,36 @@
         <f>96/72</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="W23" t="str">
+      <c r="V23">
+        <f>180/96</f>
+        <v>1.875</v>
+      </c>
+      <c r="X23" t="str">
         <f>C23</f>
         <v>Arduino Uno</v>
       </c>
-      <c r="X23" t="str">
+      <c r="Y23" t="str">
         <f>D23</f>
         <v>Arduino M0 Pro</v>
       </c>
-      <c r="Y23" t="str">
+      <c r="Z23" t="str">
         <f>E23</f>
         <v>Maple</v>
       </c>
-      <c r="Z23" t="str">
+      <c r="AA23" t="str">
         <f>F23</f>
         <v>Arduino Due</v>
       </c>
-      <c r="AA23" t="str">
+      <c r="AB23" t="str">
         <f>G23</f>
         <v>Teensy 3.1</v>
       </c>
-      <c r="AB23" t="e">
-        <f>-H23</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28">
+      <c r="AC23" t="str">
+        <f>H23</f>
+        <v>K66F</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="C24" t="str">
         <f>'Arduino Uno'!L6</f>
         <v>inline, using types.h</v>
@@ -4954,7 +4946,7 @@
         <v>i5, M540, 2.53 GHz</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:29">
       <c r="B25" t="s">
         <v>2</v>
       </c>
@@ -4995,10 +4987,10 @@
         <v>55</v>
       </c>
       <c r="P25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s">
         <v>33</v>
@@ -5009,8 +5001,8 @@
       <c r="U25" t="s">
         <v>56</v>
       </c>
-      <c r="W25" t="s">
-        <v>28</v>
+      <c r="V25" t="s">
+        <v>80</v>
       </c>
       <c r="X25" t="s">
         <v>28</v>
@@ -5027,8 +5019,11 @@
       <c r="AB25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:28">
+      <c r="AC25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26" t="str">
         <f>'Arduino Uno'!L7</f>
         <v>float</v>
@@ -5059,7 +5054,7 @@
       </c>
       <c r="H26" s="10">
         <f>'NXP K66'!D11</f>
-        <v>2.3250000000000002</v>
+        <v>1.3</v>
       </c>
       <c r="I26" s="10">
         <f>I7</f>
@@ -5087,7 +5082,7 @@
       </c>
       <c r="P26" s="6">
         <f>C26/H26</f>
-        <v>115.99999999999999</v>
+        <v>207.46153846153845</v>
       </c>
       <c r="Q26" s="6">
         <f>$C26/I26</f>
@@ -5106,33 +5101,37 @@
         <f t="shared" ref="U26:U37" si="12">E26/G26</f>
         <v>1.2590894202423843</v>
       </c>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6">
-        <f t="shared" ref="W26:AB26" si="13">C26/C34</f>
+      <c r="V26" s="6">
+        <f>G26/H26</f>
+        <v>23.484615384615385</v>
+      </c>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6">
+        <f t="shared" ref="X26:AC26" si="13">C26/C34</f>
         <v>6.6757425742574261</v>
       </c>
-      <c r="X26" s="6">
+      <c r="Y26" s="6">
         <f t="shared" si="13"/>
         <v>8.4766214177978885</v>
       </c>
-      <c r="Y26" s="6">
+      <c r="Z26" s="6">
         <f t="shared" si="13"/>
         <v>6.3642384105960259</v>
       </c>
-      <c r="Z26" s="6">
+      <c r="AA26" s="6">
         <f t="shared" si="13"/>
         <v>5.499229583975346</v>
       </c>
-      <c r="AA26" s="6">
+      <c r="AB26" s="6">
         <f t="shared" si="13"/>
         <v>15.341708542713569</v>
       </c>
-      <c r="AB26" s="6">
+      <c r="AC26" s="6">
         <f t="shared" si="13"/>
-        <v>1.0219780219780221</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28">
+        <v>1.1818181818181817</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
       <c r="B27">
         <f>'Arduino Uno'!B12</f>
         <v>32</v>
@@ -5159,7 +5158,7 @@
       </c>
       <c r="H27" s="10">
         <f>'NXP K66'!D12</f>
-        <v>4.45</v>
+        <v>2.6</v>
       </c>
       <c r="I27" s="10">
         <f t="shared" ref="I27:I29" si="14">I8</f>
@@ -5187,7 +5186,7 @@
       </c>
       <c r="P27" s="6">
         <f t="shared" ref="P27:P37" si="18">C27/H27</f>
-        <v>123.3932584269663</v>
+        <v>211.19230769230771</v>
       </c>
       <c r="Q27" s="6">
         <f t="shared" ref="Q27:Q37" si="19">$C27/I27</f>
@@ -5206,33 +5205,37 @@
         <f t="shared" si="12"/>
         <v>1.2462506047411708</v>
       </c>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6">
-        <f t="shared" ref="W27:Z29" si="20">C27/C35</f>
+      <c r="V27" s="6">
+        <f t="shared" ref="V27:V37" si="20">G27/H27</f>
+        <v>23.849999999999998</v>
+      </c>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6">
+        <f t="shared" ref="X27:AA29" si="21">C27/C35</f>
         <v>6.9842279318239635</v>
       </c>
-      <c r="X27" s="6">
-        <f t="shared" si="20"/>
+      <c r="Y27" s="6">
+        <f t="shared" si="21"/>
         <v>8.6542020046260593</v>
       </c>
-      <c r="Y27" s="6">
-        <f t="shared" si="20"/>
+      <c r="Z27" s="6">
+        <f t="shared" si="21"/>
         <v>6.6563307493540051</v>
       </c>
-      <c r="Z27" s="6">
-        <f t="shared" si="20"/>
+      <c r="AA27" s="6">
+        <f t="shared" si="21"/>
         <v>5.6857142857142859</v>
       </c>
-      <c r="AA27" s="6">
-        <f t="shared" ref="AA27:AB29" si="21">G27/G35</f>
+      <c r="AB27" s="6">
+        <f t="shared" ref="AB27:AC29" si="22">G27/G35</f>
         <v>16.232984293193716</v>
       </c>
-      <c r="AB27" s="6">
-        <f t="shared" si="21"/>
-        <v>1.0113636363636362</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28">
+      <c r="AC27" s="6">
+        <f t="shared" si="22"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
       <c r="B28">
         <f>'Arduino Uno'!B13</f>
         <v>64</v>
@@ -5259,7 +5262,7 @@
       </c>
       <c r="H28" s="10">
         <f>'NXP K66'!D13</f>
-        <v>8.6499999999999986</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I28" s="10">
         <f t="shared" si="14"/>
@@ -5287,7 +5290,7 @@
       </c>
       <c r="P28" s="6">
         <f t="shared" si="18"/>
-        <v>130.45086705202314</v>
+        <v>221.25490196078434</v>
       </c>
       <c r="Q28" s="6">
         <f t="shared" si="19"/>
@@ -5306,33 +5309,37 @@
         <f t="shared" si="12"/>
         <v>1.2404515974057169</v>
       </c>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6">
+      <c r="V28" s="6">
         <f t="shared" si="20"/>
+        <v>24.488235294117651</v>
+      </c>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6">
+        <f t="shared" si="21"/>
         <v>7.2659368963296842</v>
       </c>
-      <c r="X28" s="6">
-        <f t="shared" si="20"/>
+      <c r="Y28" s="6">
+        <f t="shared" si="21"/>
         <v>8.3826908821349146</v>
       </c>
-      <c r="Y28" s="6">
-        <f t="shared" si="20"/>
+      <c r="Z28" s="6">
+        <f t="shared" si="21"/>
         <v>6.8066783831282942</v>
-      </c>
-      <c r="Z28" s="6">
-        <f t="shared" si="20"/>
-        <v>5.7834677419354836</v>
       </c>
       <c r="AA28" s="6">
         <f t="shared" si="21"/>
+        <v>5.7834677419354836</v>
+      </c>
+      <c r="AB28" s="6">
+        <f t="shared" si="22"/>
         <v>16.652000000000001</v>
       </c>
-      <c r="AB28" s="6">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28">
+      <c r="AC28" s="6">
+        <f t="shared" si="22"/>
+        <v>1.3076923076923077</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
       <c r="B29">
         <f>'Arduino Uno'!B14</f>
         <v>128</v>
@@ -5359,7 +5366,7 @@
       </c>
       <c r="H29" s="10">
         <f>'NXP K66'!D14</f>
-        <v>17.149999999999999</v>
+        <v>10</v>
       </c>
       <c r="I29" s="10">
         <f t="shared" si="14"/>
@@ -5387,7 +5394,7 @@
       </c>
       <c r="P29" s="6">
         <f t="shared" si="18"/>
-        <v>136.03498542274053</v>
+        <v>233.3</v>
       </c>
       <c r="Q29" s="6">
         <f t="shared" si="19"/>
@@ -5406,33 +5413,37 @@
         <f t="shared" si="12"/>
         <v>1.237777866464461</v>
       </c>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6">
+      <c r="V29" s="6">
         <f t="shared" si="20"/>
+        <v>25.056999999999999</v>
+      </c>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6">
+        <f t="shared" si="21"/>
         <v>7.5746753246753249</v>
       </c>
-      <c r="X29" s="6">
-        <f t="shared" si="20"/>
+      <c r="Y29" s="6">
+        <f t="shared" si="21"/>
         <v>8.4188559716787772</v>
       </c>
-      <c r="Y29" s="6">
-        <f t="shared" si="20"/>
+      <c r="Z29" s="6">
+        <f t="shared" si="21"/>
         <v>6.8830448291167325</v>
-      </c>
-      <c r="Z29" s="6">
-        <f t="shared" si="20"/>
-        <v>5.83072546230441</v>
       </c>
       <c r="AA29" s="6">
         <f t="shared" si="21"/>
+        <v>5.83072546230441</v>
+      </c>
+      <c r="AB29" s="6">
+        <f t="shared" si="22"/>
         <v>16.873400673400674</v>
       </c>
-      <c r="AB29" s="6">
-        <f t="shared" si="21"/>
-        <v>1.0014598540145985</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28">
+      <c r="AC29" s="6">
+        <f t="shared" si="22"/>
+        <v>1.2820512820512822</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
       <c r="A30" t="str">
         <f>'Arduino Uno'!N7</f>
         <v>long</v>
@@ -5463,7 +5474,7 @@
       </c>
       <c r="H30" s="10">
         <f>H34</f>
-        <v>2.2749999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I30" s="10">
         <f>I26</f>
@@ -5491,7 +5502,7 @@
       </c>
       <c r="P30" s="6">
         <f t="shared" si="18"/>
-        <v>52.659340659340657</v>
+        <v>108.90909090909089</v>
       </c>
       <c r="Q30" s="6">
         <f t="shared" si="19"/>
@@ -5510,35 +5521,39 @@
         <f t="shared" si="12"/>
         <v>3.0351758793969847</v>
       </c>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6">
-        <f t="shared" ref="W30:AB30" si="22">C30/C34</f>
+      <c r="V30" s="6">
+        <f t="shared" si="20"/>
+        <v>1.8090909090909089</v>
+      </c>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6">
+        <f t="shared" ref="X30:AC30" si="23">C30/C34</f>
         <v>2.9653465346534653</v>
       </c>
-      <c r="X30" s="6">
-        <f t="shared" si="22"/>
+      <c r="Y30" s="6">
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="Y30" s="6">
-        <f t="shared" si="22"/>
+      <c r="Z30" s="6">
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="Z30" s="6">
-        <f t="shared" si="22"/>
+      <c r="AA30" s="6">
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="AA30" s="6">
-        <f t="shared" si="22"/>
+      <c r="AB30" s="6">
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="AB30" s="6">
-        <f t="shared" si="22"/>
+      <c r="AC30" s="6">
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:29">
       <c r="B31">
-        <f t="shared" ref="B31:B37" si="23">B27</f>
+        <f t="shared" ref="B31:B37" si="24">B27</f>
         <v>32</v>
       </c>
       <c r="C31" s="4">
@@ -5562,11 +5577,11 @@
         <v>3.82</v>
       </c>
       <c r="H31" s="10">
-        <f t="shared" ref="H31:H33" si="24">H35</f>
-        <v>4.4000000000000004</v>
+        <f t="shared" ref="H31:H33" si="25">H35</f>
+        <v>2</v>
       </c>
       <c r="I31" s="10">
-        <f t="shared" ref="I31:I33" si="25">I27</f>
+        <f t="shared" ref="I31:I33" si="26">I27</f>
         <v>5.6927500000000002</v>
       </c>
       <c r="K31">
@@ -5591,7 +5606,7 @@
       </c>
       <c r="P31" s="6">
         <f t="shared" si="18"/>
-        <v>53.759090909090901</v>
+        <v>118.27</v>
       </c>
       <c r="Q31" s="6">
         <f t="shared" si="19"/>
@@ -5610,35 +5625,39 @@
         <f t="shared" si="12"/>
         <v>3.0392670157068062</v>
       </c>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6">
-        <f t="shared" ref="W31:Z33" si="26">C31/C35</f>
+      <c r="V31" s="6">
+        <f t="shared" si="20"/>
+        <v>1.91</v>
+      </c>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6">
+        <f t="shared" ref="X31:AA33" si="27">C31/C35</f>
         <v>3.0086491986771811</v>
       </c>
-      <c r="X31" s="6">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
       <c r="Y31" s="6">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="Z31" s="6">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="AA31" s="6">
-        <f t="shared" ref="AA31:AB33" si="27">G31/G35</f>
-        <v>1</v>
-      </c>
-      <c r="AB31" s="6">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:28">
+      <c r="Z31" s="6">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="AA31" s="6">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="AB31" s="6">
+        <f t="shared" ref="AB31:AC33" si="28">G31/G35</f>
+        <v>1</v>
+      </c>
+      <c r="AC31" s="6">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
       <c r="B32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>64</v>
       </c>
       <c r="C32" s="4">
@@ -5662,11 +5681,11 @@
         <v>7.5</v>
       </c>
       <c r="H32" s="10">
-        <f t="shared" si="24"/>
-        <v>8.6499999999999986</v>
+        <f t="shared" si="25"/>
+        <v>3.9</v>
       </c>
       <c r="I32" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.3607499999999995</v>
       </c>
       <c r="K32">
@@ -5691,7 +5710,7 @@
       </c>
       <c r="P32" s="6">
         <f t="shared" si="18"/>
-        <v>54.335260115606943</v>
+        <v>120.51282051282051</v>
       </c>
       <c r="Q32" s="6">
         <f t="shared" si="19"/>
@@ -5710,21 +5729,21 @@
         <f t="shared" si="12"/>
         <v>3.0346666666666668</v>
       </c>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6">
-        <f t="shared" si="26"/>
+      <c r="V32" s="6">
+        <f t="shared" si="20"/>
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6">
+        <f t="shared" si="27"/>
         <v>3.0264005151320021</v>
       </c>
-      <c r="X32" s="6">
-        <f t="shared" si="26"/>
+      <c r="Y32" s="6">
+        <f t="shared" si="27"/>
         <v>1.0001853224610822</v>
       </c>
-      <c r="Y32" s="6">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
       <c r="Z32" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="AA32" s="6">
@@ -5732,13 +5751,17 @@
         <v>1</v>
       </c>
       <c r="AB32" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:28">
+      <c r="AC32" s="6">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29">
       <c r="B33">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>128</v>
       </c>
       <c r="C33" s="4">
@@ -5762,11 +5785,11 @@
         <v>14.85</v>
       </c>
       <c r="H33" s="10">
-        <f t="shared" si="24"/>
-        <v>17.125</v>
+        <f t="shared" si="25"/>
+        <v>7.8</v>
       </c>
       <c r="I33" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7690000000000001</v>
       </c>
       <c r="K33">
@@ -5791,7 +5814,7 @@
       </c>
       <c r="P33" s="6">
         <f t="shared" si="18"/>
-        <v>54.703649635036491</v>
+        <v>120.1025641025641</v>
       </c>
       <c r="Q33" s="6">
         <f t="shared" si="19"/>
@@ -5810,21 +5833,21 @@
         <f t="shared" si="12"/>
         <v>3.0343434343434348</v>
       </c>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6">
-        <f t="shared" si="26"/>
+      <c r="V33" s="6">
+        <f t="shared" si="20"/>
+        <v>1.9038461538461537</v>
+      </c>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6">
+        <f t="shared" si="27"/>
         <v>3.0415584415584416</v>
       </c>
-      <c r="X33" s="6">
-        <f t="shared" si="26"/>
+      <c r="Y33" s="6">
+        <f t="shared" si="27"/>
         <v>1.000093161915409</v>
       </c>
-      <c r="Y33" s="6">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
       <c r="Z33" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="AA33" s="6">
@@ -5832,17 +5855,21 @@
         <v>1</v>
       </c>
       <c r="AB33" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:28">
+      <c r="AC33" s="6">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29">
       <c r="A34" t="str">
         <f>'Arduino Uno'!M7</f>
         <v>int</v>
       </c>
       <c r="B34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="C34" s="4">
@@ -5867,7 +5894,7 @@
       </c>
       <c r="H34" s="10">
         <f>'NXP K66'!F11</f>
-        <v>2.2749999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I34" s="10">
         <f>I26</f>
@@ -5895,7 +5922,7 @@
       </c>
       <c r="P34" s="6">
         <f t="shared" si="18"/>
-        <v>17.758241758241759</v>
+        <v>36.72727272727272</v>
       </c>
       <c r="Q34" s="6">
         <f t="shared" si="19"/>
@@ -5914,15 +5941,19 @@
         <f t="shared" si="12"/>
         <v>3.0351758793969847</v>
       </c>
-      <c r="V34" s="6"/>
+      <c r="V34" s="6">
+        <f t="shared" si="20"/>
+        <v>1.8090909090909089</v>
+      </c>
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
-    </row>
-    <row r="35" spans="1:28">
+      <c r="AA34" s="6"/>
+    </row>
+    <row r="35" spans="1:29">
       <c r="B35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>32</v>
       </c>
       <c r="C35" s="4">
@@ -5947,10 +5978,10 @@
       </c>
       <c r="H35" s="10">
         <f>'NXP K66'!F12</f>
-        <v>4.4000000000000004</v>
+        <v>2</v>
       </c>
       <c r="I35" s="10">
-        <f t="shared" ref="I35:I37" si="28">I27</f>
+        <f t="shared" ref="I35:I37" si="29">I27</f>
         <v>5.6927500000000002</v>
       </c>
       <c r="K35">
@@ -5975,7 +6006,7 @@
       </c>
       <c r="P35" s="6">
         <f t="shared" si="18"/>
-        <v>17.868181818181817</v>
+        <v>39.31</v>
       </c>
       <c r="Q35" s="6">
         <f t="shared" si="19"/>
@@ -5994,13 +6025,17 @@
         <f t="shared" si="12"/>
         <v>3.0392670157068062</v>
       </c>
-      <c r="V35" s="6"/>
+      <c r="V35" s="6">
+        <f t="shared" si="20"/>
+        <v>1.91</v>
+      </c>
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
-    </row>
-    <row r="36" spans="1:28">
+      <c r="AA35" s="6"/>
+    </row>
+    <row r="36" spans="1:29">
       <c r="B36">
         <f>B32</f>
         <v>64</v>
@@ -6027,10 +6062,10 @@
       </c>
       <c r="H36" s="10">
         <f>'NXP K66'!F13</f>
-        <v>8.6499999999999986</v>
+        <v>3.9</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>8.3607499999999995</v>
       </c>
       <c r="K36">
@@ -6055,7 +6090,7 @@
       </c>
       <c r="P36" s="6">
         <f t="shared" si="18"/>
-        <v>17.953757225433531</v>
+        <v>39.820512820512825</v>
       </c>
       <c r="Q36" s="6">
         <f t="shared" si="19"/>
@@ -6074,15 +6109,19 @@
         <f t="shared" si="12"/>
         <v>3.0346666666666668</v>
       </c>
-      <c r="V36" s="6"/>
+      <c r="V36" s="6">
+        <f t="shared" si="20"/>
+        <v>1.9230769230769231</v>
+      </c>
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
-    </row>
-    <row r="37" spans="1:28">
+      <c r="AA36" s="6"/>
+    </row>
+    <row r="37" spans="1:29">
       <c r="B37">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>128</v>
       </c>
       <c r="C37" s="4">
@@ -6107,10 +6146,10 @@
       </c>
       <c r="H37" s="10">
         <f>'NXP K66'!F14</f>
-        <v>17.125</v>
+        <v>7.8</v>
       </c>
       <c r="I37" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>8.7690000000000001</v>
       </c>
       <c r="K37">
@@ -6135,7 +6174,7 @@
       </c>
       <c r="P37" s="6">
         <f t="shared" si="18"/>
-        <v>17.985401459854014</v>
+        <v>39.487179487179489</v>
       </c>
       <c r="Q37" s="6">
         <f t="shared" si="19"/>
@@ -6154,13 +6193,17 @@
         <f t="shared" si="12"/>
         <v>3.0343434343434348</v>
       </c>
-      <c r="V37" s="6"/>
+      <c r="V37" s="6">
+        <f t="shared" si="20"/>
+        <v>1.9038461538461537</v>
+      </c>
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
-    </row>
-    <row r="39" spans="1:28">
+      <c r="AA37" s="6"/>
+    </row>
+    <row r="39" spans="1:29">
       <c r="A39" t="str">
         <f>A26</f>
         <v>float</v>
@@ -6173,24 +6216,24 @@
         <v>1821.161901293025</v>
       </c>
       <c r="D39" s="8">
-        <f t="shared" ref="D39:G39" si="29">1/(D27*0.000001)</f>
+        <f t="shared" ref="D39:G39" si="30">1/(D27*0.000001)</f>
         <v>4454.5414049623596</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12939.958592132507</v>
       </c>
       <c r="F39" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>13958.682300390843</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>16126.431220770844</v>
       </c>
       <c r="H39" s="8">
-        <f t="shared" ref="H39" si="30">1/(H27*0.000001)</f>
-        <v>224719.10112359552</v>
+        <f t="shared" ref="H39" si="31">1/(H27*0.000001)</f>
+        <v>384615.38461538462</v>
       </c>
       <c r="I39" s="8">
         <f>1/(I27*0.000001)</f>
@@ -6200,35 +6243,35 @@
         <v>4</v>
       </c>
       <c r="K39" s="9">
-        <f t="shared" ref="K39:P39" si="31">$C$36/C28</f>
+        <f t="shared" ref="K39:P39" si="32">$C$36/C28</f>
         <v>0.13762850053172634</v>
       </c>
       <c r="L39" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.34333340702584397</v>
       </c>
       <c r="M39" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.0024528789052416</v>
       </c>
       <c r="N39" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.0827581398591648</v>
       </c>
       <c r="O39" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.2434942749619666</v>
       </c>
       <c r="P39" s="9">
-        <f t="shared" si="31"/>
-        <v>17.953757225433531</v>
+        <f t="shared" si="32"/>
+        <v>30.450980392156868</v>
       </c>
       <c r="Q39" s="9">
         <f>$C$37/I29</f>
         <v>35.12373132626297</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:29">
       <c r="A40" t="str">
         <f>A30</f>
         <v>long</v>
@@ -6241,62 +6284,62 @@
         <v>4227.6147797412705</v>
       </c>
       <c r="D40" s="8">
-        <f t="shared" ref="D40:G40" si="32">1/(D31*0.000001)</f>
+        <f t="shared" ref="D40:G40" si="33">1/(D31*0.000001)</f>
         <v>38550.501156515034</v>
       </c>
       <c r="E40" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>86132.644272179168</v>
       </c>
       <c r="F40" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>79365.079365079364</v>
       </c>
       <c r="G40" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>261780.10471204188</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" ref="H40" si="33">1/(H31*0.000001)</f>
-        <v>227272.72727272726</v>
+        <f t="shared" ref="H40" si="34">1/(H31*0.000001)</f>
+        <v>500000</v>
       </c>
       <c r="I40" s="8">
-        <f t="shared" ref="I40" si="34">1/(I31*0.000001)</f>
+        <f t="shared" ref="I40" si="35">1/(I31*0.000001)</f>
         <v>175662.02626147293</v>
       </c>
       <c r="J40" t="s">
         <v>4</v>
       </c>
       <c r="K40" s="9">
-        <f t="shared" ref="K40:P40" si="35">$C$36/C32</f>
+        <f t="shared" ref="K40:P40" si="36">$C$36/C32</f>
         <v>0.33042553191489366</v>
       </c>
       <c r="L40" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>2.8775245506763021</v>
       </c>
       <c r="M40" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>6.8233743409490337</v>
       </c>
       <c r="N40" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>6.2620967741935489</v>
       </c>
       <c r="O40" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>20.706666666666667</v>
       </c>
       <c r="P40" s="9">
-        <f t="shared" si="35"/>
-        <v>17.953757225433531</v>
+        <f t="shared" si="36"/>
+        <v>39.820512820512825</v>
       </c>
       <c r="Q40" s="9">
         <f>Q39</f>
         <v>35.12373132626297</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:29">
       <c r="A41" t="str">
         <f>A34</f>
         <v>int</v>
@@ -6309,27 +6352,27 @@
         <v>12719.40981938438</v>
       </c>
       <c r="D41" s="8">
-        <f t="shared" ref="D41:G41" si="36">1/(D35*0.000001)</f>
+        <f t="shared" ref="D41:G41" si="37">1/(D35*0.000001)</f>
         <v>38550.501156515034</v>
       </c>
       <c r="E41" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>86132.644272179168</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>79365.079365079364</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>261780.10471204188</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" ref="H41" si="37">1/(H35*0.000001)</f>
-        <v>227272.72727272726</v>
+        <f t="shared" ref="H41" si="38">1/(H35*0.000001)</f>
+        <v>500000</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" ref="I41" si="38">1/(I35*0.000001)</f>
+        <f t="shared" ref="I41" si="39">1/(I35*0.000001)</f>
         <v>175662.02626147293</v>
       </c>
       <c r="J41" t="s">
@@ -6340,24 +6383,24 @@
         <v>1</v>
       </c>
       <c r="L41" s="9">
-        <f t="shared" ref="L41:P41" si="39">$C$36/D36</f>
+        <f t="shared" ref="L41:P41" si="40">$C$36/D36</f>
         <v>2.8780578206078578</v>
       </c>
       <c r="M41" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>6.8233743409490337</v>
       </c>
       <c r="N41" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>6.2620967741935489</v>
       </c>
       <c r="O41" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>20.706666666666667</v>
       </c>
       <c r="P41" s="9">
-        <f t="shared" si="39"/>
-        <v>17.953757225433531</v>
+        <f t="shared" si="40"/>
+        <v>39.820512820512825</v>
       </c>
       <c r="Q41" s="9">
         <f>Q40</f>
@@ -6381,23 +6424,23 @@
         <v>Arduino Uno</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" ref="D60:H60" si="40">D23</f>
+        <f t="shared" ref="D60:H60" si="41">D23</f>
         <v>Arduino M0 Pro</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Maple</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Arduino Due</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>Teensy 3.1</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>K66F</v>
       </c>
       <c r="I60" t="str">
@@ -6415,24 +6458,24 @@
         <v>3765.5502941905706</v>
       </c>
       <c r="D61" s="8">
-        <f t="shared" ref="D61:G61" si="41">SQRT($G$59/((D28*0.000001)/$B28))</f>
+        <f t="shared" ref="D61:G61" si="42">SQRT($G$59/((D28*0.000001)/$B28))</f>
         <v>5947.4704793272776</v>
       </c>
       <c r="E61" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>10162.633113501566</v>
       </c>
       <c r="F61" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>10561.849922156138</v>
       </c>
       <c r="G61" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>11318.689818636485</v>
       </c>
       <c r="H61" s="8">
-        <f t="shared" ref="H61" si="42">SQRT($G$59/((H28*0.000001)/$B28))</f>
-        <v>43008.26644563763</v>
+        <f t="shared" ref="H61" si="43">SQRT($G$59/((H28*0.000001)/$B28))</f>
+        <v>56011.203361120395</v>
       </c>
       <c r="I61" s="8">
         <f>SQRT($G$59/((I11*0.000001)/$B11))</f>
@@ -6452,24 +6495,24 @@
         <v>5834.5996599157825</v>
       </c>
       <c r="D62" s="8">
-        <f t="shared" ref="D62:G62" si="43">SQRT($G$59/((D32*0.000001)/$B32))</f>
+        <f t="shared" ref="D62:G62" si="44">SQRT($G$59/((D32*0.000001)/$B32))</f>
         <v>17218.042770596836</v>
       </c>
       <c r="E62" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>26513.915171382934</v>
       </c>
       <c r="F62" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>25400.025400038103</v>
       </c>
       <c r="G62" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>46188.021535170061</v>
       </c>
       <c r="H62" s="8">
-        <f t="shared" ref="H62" si="44">SQRT($G$59/((H32*0.000001)/$B32))</f>
-        <v>43008.26644563763</v>
+        <f t="shared" ref="H62" si="45">SQRT($G$59/((H32*0.000001)/$B32))</f>
+        <v>64051.261522034853</v>
       </c>
       <c r="I62" s="8">
         <f>I61</f>
@@ -6489,24 +6532,24 @@
         <v>10150.192141783918</v>
       </c>
       <c r="D63" s="8">
-        <f t="shared" ref="D63:G63" si="45">SQRT($G$59/((D36*0.000001)/$B36))</f>
+        <f t="shared" ref="D63:G63" si="46">SQRT($G$59/((D36*0.000001)/$B36))</f>
         <v>17219.638141716368</v>
       </c>
       <c r="E63" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>26513.915171382934</v>
       </c>
       <c r="F63" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>25400.025400038103</v>
       </c>
       <c r="G63" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>46188.021535170061</v>
       </c>
       <c r="H63" s="8">
-        <f t="shared" ref="H63" si="46">SQRT($G$59/((H36*0.000001)/$B36))</f>
-        <v>43008.26644563763</v>
+        <f t="shared" ref="H63" si="47">SQRT($G$59/((H36*0.000001)/$B36))</f>
+        <v>64051.261522034853</v>
       </c>
       <c r="I63" s="8">
         <f>I62</f>
@@ -7883,7 +7926,7 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -8546,48 +8589,45 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U49"/>
+  <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:21">
+    <row r="2" spans="2:6">
       <c r="B2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:21">
+    <row r="3" spans="2:6">
       <c r="B3" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:6">
       <c r="B4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21">
+    </row>
+    <row r="5" spans="2:6">
       <c r="C5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="C6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:6">
       <c r="C7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:21">
+    <row r="8" spans="2:6">
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -8600,1354 +8640,107 @@
       <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="J8" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" t="s">
-        <v>75</v>
-      </c>
-      <c r="N8" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" t="s">
-        <v>81</v>
-      </c>
-      <c r="R8" t="s">
-        <v>81</v>
-      </c>
-      <c r="T8" t="s">
-        <v>82</v>
-      </c>
-      <c r="U8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21">
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="D9" s="6">
-        <f>D21</f>
-        <v>0.7</v>
-      </c>
-      <c r="F9" s="6">
-        <f>F21</f>
-        <v>0.7</v>
-      </c>
-      <c r="J9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>76</v>
-      </c>
-      <c r="N9" t="s">
-        <v>0</v>
-      </c>
-      <c r="P9" t="s">
-        <v>76</v>
-      </c>
-      <c r="R9" t="s">
-        <v>76</v>
-      </c>
-      <c r="T9" t="str">
-        <f>P9</f>
-        <v>Int</v>
-      </c>
-      <c r="U9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21">
+      <c r="D9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="D10" s="6">
-        <f t="shared" ref="D10:F16" si="0">D22</f>
-        <v>1.25</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-      <c r="J10">
-        <v>736548.507935</v>
-      </c>
-      <c r="L10">
-        <v>736548.50128900004</v>
-      </c>
-      <c r="N10">
-        <v>0.7</v>
-      </c>
-      <c r="P10">
-        <v>0.7</v>
-      </c>
-      <c r="T10" t="e">
-        <f t="shared" ref="T10:T40" si="1">M10/Q10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U10" t="e">
-        <f t="shared" ref="U10:U40" si="2">K10/O10</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21">
+      <c r="D10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11">
         <v>16</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="0"/>
-        <v>2.3250000000000002</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="0"/>
-        <v>2.2749999999999999</v>
-      </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="J11">
-        <v>736548.507935</v>
-      </c>
-      <c r="L11">
-        <v>736548.50128900004</v>
-      </c>
-      <c r="N11">
-        <v>0.7</v>
-      </c>
-      <c r="P11">
-        <v>0.7</v>
-      </c>
-      <c r="T11" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U11" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21">
+        <v>1.3</v>
+      </c>
+      <c r="F11">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12">
         <v>32</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" si="0"/>
-        <v>4.45</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I12">
-        <v>4</v>
-      </c>
-      <c r="J12">
-        <v>736548.50793600001</v>
-      </c>
-      <c r="L12">
-        <v>736548.50129000004</v>
-      </c>
-      <c r="N12">
-        <v>0.7</v>
-      </c>
-      <c r="P12">
-        <v>0.7</v>
-      </c>
-      <c r="T12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21">
+        <v>2.6</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13">
         <v>64</v>
       </c>
       <c r="D13" s="6">
-        <f t="shared" si="0"/>
-        <v>8.6499999999999986</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="0"/>
-        <v>8.6499999999999986</v>
-      </c>
-      <c r="I13">
-        <v>4</v>
-      </c>
-      <c r="J13">
-        <v>736548.50793600001</v>
-      </c>
-      <c r="L13">
-        <v>736548.50129000004</v>
-      </c>
-      <c r="N13">
-        <v>0.7</v>
-      </c>
-      <c r="P13">
-        <v>0.7</v>
-      </c>
-      <c r="T13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U13" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F13">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
       <c r="B14">
         <v>128</v>
       </c>
       <c r="D14" s="6">
-        <f t="shared" si="0"/>
-        <v>17.149999999999999</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="0"/>
-        <v>17.125</v>
-      </c>
-      <c r="I14">
-        <v>4</v>
-      </c>
-      <c r="J14">
-        <v>736548.50793600001</v>
-      </c>
-      <c r="K14">
-        <f>(J14-J10)*24*60*60/4</f>
-        <v>2.1600164473056793E-2</v>
-      </c>
-      <c r="L14">
-        <v>736548.50129000004</v>
-      </c>
-      <c r="M14">
-        <f>(L14-L10)*24*60*60/4</f>
-        <v>2.1600164473056793E-2</v>
-      </c>
-      <c r="N14">
-        <v>0.7</v>
-      </c>
-      <c r="O14">
-        <f>AVERAGE(N11:N14)</f>
-        <v>0.7</v>
-      </c>
-      <c r="P14">
-        <v>0.7</v>
-      </c>
-      <c r="Q14">
-        <f>AVERAGE(P11:P14)</f>
-        <v>0.7</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="1"/>
-        <v>3.0857377818652564E-2</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="2"/>
-        <v>3.0857377818652564E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
       <c r="B15">
         <v>256</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="0"/>
-        <v>34.074999999999996</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="0"/>
-        <v>34.1</v>
-      </c>
-      <c r="I15">
-        <v>8</v>
-      </c>
-      <c r="J15">
-        <v>736548.50793700002</v>
-      </c>
-      <c r="L15">
-        <v>736548.50129100005</v>
-      </c>
-      <c r="N15">
-        <v>1.2</v>
-      </c>
-      <c r="P15">
-        <v>1.2</v>
-      </c>
-      <c r="T15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U15" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F15">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
       <c r="B16">
         <v>512</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="0"/>
-        <v>68.05</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="0"/>
-        <v>68.05</v>
-      </c>
-      <c r="I16">
-        <v>8</v>
-      </c>
-      <c r="J16">
-        <v>736548.50793700002</v>
-      </c>
-      <c r="L16">
-        <v>736548.50129100005</v>
-      </c>
-      <c r="N16">
-        <v>1.2</v>
-      </c>
-      <c r="P16">
-        <v>1.2</v>
-      </c>
-      <c r="T16" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U16" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21">
-      <c r="I17">
-        <v>8</v>
-      </c>
-      <c r="J17">
-        <v>736548.50793700002</v>
-      </c>
-      <c r="L17">
-        <v>736548.50129100005</v>
-      </c>
-      <c r="N17">
-        <v>1.3</v>
-      </c>
-      <c r="P17">
-        <v>1.2</v>
-      </c>
-      <c r="T17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U17" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21">
-      <c r="I18">
-        <v>8</v>
-      </c>
-      <c r="J18">
-        <v>736548.50793800002</v>
-      </c>
-      <c r="L18">
-        <v>736548.50129199994</v>
-      </c>
-      <c r="N18">
-        <v>1.3</v>
-      </c>
-      <c r="P18">
-        <v>1.2</v>
-      </c>
-      <c r="T18" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21">
-      <c r="I19">
-        <v>8</v>
-      </c>
-      <c r="J19">
-        <v>736548.50793800002</v>
-      </c>
-      <c r="K19">
-        <f>(J19-J15)*24*60*60/4</f>
-        <v>2.1600164473056793E-2</v>
-      </c>
-      <c r="L19">
-        <v>736548.50129199994</v>
-      </c>
-      <c r="M19">
-        <f>(L19-L15)*24*60*60/4</f>
-        <v>2.1597649902105331E-2</v>
-      </c>
-      <c r="N19">
-        <v>1.2</v>
-      </c>
-      <c r="O19">
-        <f>AVERAGE(N16:N19)</f>
-        <v>1.25</v>
-      </c>
-      <c r="P19">
-        <v>1.2</v>
-      </c>
-      <c r="Q19">
-        <f>AVERAGE(P16:P19)</f>
-        <v>1.2</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="1"/>
-        <v>1.7998041585087776E-2</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="2"/>
-        <v>1.7280131578445435E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21">
-      <c r="I20">
-        <v>16</v>
-      </c>
-      <c r="J20">
-        <v>736548.50793900003</v>
-      </c>
-      <c r="L20">
-        <v>736548.50129299995</v>
-      </c>
-      <c r="N20">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="P20">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="T20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21">
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <f>O14</f>
-        <v>0.7</v>
-      </c>
-      <c r="F21">
-        <f>Q14</f>
-        <v>0.7</v>
-      </c>
-      <c r="I21">
-        <v>16</v>
-      </c>
-      <c r="J21">
-        <v>736548.50794000004</v>
-      </c>
-      <c r="L21">
-        <v>736548.50129399996</v>
-      </c>
-      <c r="N21">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="P21">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="T21" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U21" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21">
-      <c r="B22">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <f>O19</f>
-        <v>1.25</v>
-      </c>
-      <c r="F22">
-        <f>Q19</f>
-        <v>1.2</v>
-      </c>
-      <c r="I22">
-        <v>16</v>
-      </c>
-      <c r="J22">
-        <v>736548.50794100005</v>
-      </c>
-      <c r="L22">
-        <v>736548.50129399996</v>
-      </c>
-      <c r="N22">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="P22">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="T22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21">
-      <c r="B23">
-        <v>16</v>
-      </c>
-      <c r="D23">
-        <f>O24</f>
-        <v>2.3250000000000002</v>
-      </c>
-      <c r="F23">
-        <f>Q24</f>
-        <v>2.2749999999999999</v>
-      </c>
-      <c r="I23">
-        <v>16</v>
-      </c>
-      <c r="J23">
-        <v>736548.50794100005</v>
-      </c>
-      <c r="L23">
-        <v>736548.50129499997</v>
-      </c>
-      <c r="N23">
-        <v>2.4</v>
-      </c>
-      <c r="P23">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="T23" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21">
-      <c r="B24">
-        <v>32</v>
-      </c>
-      <c r="D24">
-        <f>O29</f>
-        <v>4.45</v>
-      </c>
-      <c r="F24">
-        <f>Q29</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I24">
-        <v>16</v>
-      </c>
-      <c r="J24">
-        <v>736548.50794200005</v>
-      </c>
-      <c r="K24">
-        <f>(J24-J20)*24*60*60/4</f>
-        <v>6.480049341917038E-2</v>
-      </c>
-      <c r="L24">
-        <v>736548.50129599997</v>
-      </c>
-      <c r="M24">
-        <f>(L24-L20)*24*60*60/4</f>
-        <v>6.480049341917038E-2</v>
-      </c>
-      <c r="N24">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="O24">
-        <f>AVERAGE(N21:N24)</f>
-        <v>2.3250000000000002</v>
-      </c>
-      <c r="P24">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Q24">
-        <f>AVERAGE(P21:P24)</f>
-        <v>2.2749999999999999</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="1"/>
-        <v>2.8483733371063906E-2</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="2"/>
-        <v>2.7871179965234569E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21">
-      <c r="B25">
-        <v>64</v>
-      </c>
-      <c r="D25">
-        <f>O34</f>
-        <v>8.6499999999999986</v>
-      </c>
-      <c r="F25">
-        <f>Q34</f>
-        <v>8.6499999999999986</v>
-      </c>
-      <c r="I25">
-        <v>32</v>
-      </c>
-      <c r="J25">
-        <v>736548.50794399995</v>
-      </c>
-      <c r="L25">
-        <v>736548.50129699998</v>
-      </c>
-      <c r="N25">
-        <v>4.5</v>
-      </c>
-      <c r="P25">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="T25" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21">
-      <c r="B26">
-        <v>128</v>
-      </c>
-      <c r="D26">
-        <f>O39</f>
-        <v>17.149999999999999</v>
-      </c>
-      <c r="F26">
-        <f>Q39</f>
-        <v>17.125</v>
-      </c>
-      <c r="I26">
-        <v>32</v>
-      </c>
-      <c r="J26">
-        <v>736548.50794499996</v>
-      </c>
-      <c r="L26">
-        <v>736548.50129799999</v>
-      </c>
-      <c r="N26">
-        <v>4.5</v>
-      </c>
-      <c r="P26">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="T26" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U26" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21">
-      <c r="B27">
-        <v>256</v>
-      </c>
-      <c r="D27">
-        <f>O44</f>
-        <v>34.074999999999996</v>
-      </c>
-      <c r="F27">
-        <f>Q44</f>
-        <v>34.1</v>
-      </c>
-      <c r="I27">
-        <v>32</v>
-      </c>
-      <c r="J27">
-        <v>736548.50794699998</v>
-      </c>
-      <c r="L27">
-        <v>736548.5013</v>
-      </c>
-      <c r="N27">
-        <v>4.5</v>
-      </c>
-      <c r="P27">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="T27" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U27" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21">
-      <c r="B28">
-        <v>512</v>
-      </c>
-      <c r="D28">
-        <f>O49</f>
-        <v>68.05</v>
-      </c>
-      <c r="F28">
-        <f>Q49</f>
-        <v>68.05</v>
-      </c>
-      <c r="I28">
-        <v>32</v>
-      </c>
-      <c r="J28">
-        <v>736548.50794799998</v>
-      </c>
-      <c r="L28">
-        <v>736548.50130100001</v>
-      </c>
-      <c r="N28">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="P28">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="T28" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U28" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21">
-      <c r="I29">
-        <v>32</v>
-      </c>
-      <c r="J29">
-        <v>736548.50795</v>
-      </c>
-      <c r="K29">
-        <f>(J29-J25)*24*60*60/4</f>
-        <v>0.12960098683834076</v>
-      </c>
-      <c r="L29">
-        <v>736548.50130200002</v>
-      </c>
-      <c r="M29">
-        <f>(L29-L25)*24*60*60/4</f>
-        <v>0.10800082236528397</v>
-      </c>
-      <c r="N29">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="O29">
-        <f>AVERAGE(N26:N29)</f>
-        <v>4.45</v>
-      </c>
-      <c r="P29">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Q29">
-        <f>AVERAGE(P26:P29)</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="1"/>
-        <v>2.4545641446655445E-2</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="2"/>
-        <v>2.9123817267042867E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21">
-      <c r="I30">
-        <v>64</v>
-      </c>
-      <c r="J30">
-        <v>736548.50795200001</v>
-      </c>
-      <c r="L30">
-        <v>736548.50130500004</v>
-      </c>
-      <c r="N30">
-        <v>8.6</v>
-      </c>
-      <c r="P30">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="T30" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U30" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21">
-      <c r="I31">
-        <v>64</v>
-      </c>
-      <c r="J31">
-        <v>736548.50795500004</v>
-      </c>
-      <c r="L31">
-        <v>736548.50130799995</v>
-      </c>
-      <c r="N31">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="P31">
-        <v>8.6</v>
-      </c>
-      <c r="T31" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U31" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21">
-      <c r="I32">
-        <v>64</v>
-      </c>
-      <c r="J32">
-        <v>736548.50795799994</v>
-      </c>
-      <c r="L32">
-        <v>736548.50130999996</v>
-      </c>
-      <c r="N32">
-        <v>8.6</v>
-      </c>
-      <c r="P32">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="T32" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U32" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="9:21">
-      <c r="I33">
-        <v>64</v>
-      </c>
-      <c r="J33">
-        <v>736548.50796099997</v>
-      </c>
-      <c r="L33">
-        <v>736548.50131299999</v>
-      </c>
-      <c r="N33">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="P33">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="T33" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U33" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="9:21">
-      <c r="I34">
-        <v>64</v>
-      </c>
-      <c r="J34">
-        <v>736548.50796399999</v>
-      </c>
-      <c r="K34">
-        <f>(J34-J30)*24*60*60/4</f>
-        <v>0.25919945910573006</v>
-      </c>
-      <c r="L34">
-        <v>736548.50131600001</v>
-      </c>
-      <c r="M34">
-        <f>(L34-L30)*24*60*60/4</f>
-        <v>0.23759929463267326</v>
-      </c>
-      <c r="N34">
-        <v>8.6</v>
-      </c>
-      <c r="O34">
-        <f>AVERAGE(N31:N34)</f>
-        <v>8.6499999999999986</v>
-      </c>
-      <c r="P34">
-        <v>8.6</v>
-      </c>
-      <c r="Q34">
-        <f>AVERAGE(P31:P34)</f>
-        <v>8.6499999999999986</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="1"/>
-        <v>2.7468126547129861E-2</v>
-      </c>
-      <c r="U34">
-        <f t="shared" si="2"/>
-        <v>2.9965255387945675E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="9:21">
-      <c r="I35">
-        <v>128</v>
-      </c>
-      <c r="J35">
-        <v>736548.50797000004</v>
-      </c>
-      <c r="L35">
-        <v>736548.50132100005</v>
-      </c>
-      <c r="N35">
-        <v>17.2</v>
-      </c>
-      <c r="P35">
-        <v>17.2</v>
-      </c>
-      <c r="T35" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U35" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="9:21">
-      <c r="I36">
-        <v>128</v>
-      </c>
-      <c r="J36">
-        <v>736548.50797499996</v>
-      </c>
-      <c r="L36">
-        <v>736548.50132599997</v>
-      </c>
-      <c r="N36">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="P36">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="T36" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U36" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="9:21">
-      <c r="I37">
-        <v>128</v>
-      </c>
-      <c r="J37">
-        <v>736548.507981</v>
-      </c>
-      <c r="L37">
-        <v>736548.50133100001</v>
-      </c>
-      <c r="N37">
-        <v>17.2</v>
-      </c>
-      <c r="P37">
-        <v>17.2</v>
-      </c>
-      <c r="T37" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U37" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="9:21">
-      <c r="I38">
-        <v>128</v>
-      </c>
-      <c r="J38">
-        <v>736548.50798700005</v>
-      </c>
-      <c r="L38">
-        <v>736548.50133600004</v>
-      </c>
-      <c r="N38">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="P38">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="T38" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U38" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="9:21">
-      <c r="I39">
-        <v>128</v>
-      </c>
-      <c r="J39">
-        <v>736548.50799199997</v>
-      </c>
-      <c r="K39">
-        <f>(J39-J35)*24*60*60/4</f>
-        <v>0.47519858926534653</v>
-      </c>
-      <c r="L39">
-        <v>736548.50134199997</v>
-      </c>
-      <c r="M39">
-        <f>(L39-L35)*24*60*60/4</f>
-        <v>0.45359842479228973</v>
-      </c>
-      <c r="N39">
-        <v>17.2</v>
-      </c>
-      <c r="O39">
-        <f>AVERAGE(N36:N39)</f>
-        <v>17.149999999999999</v>
-      </c>
-      <c r="P39">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="Q39">
-        <f>AVERAGE(P36:P39)</f>
-        <v>17.125</v>
-      </c>
-      <c r="T39">
-        <f t="shared" si="1"/>
-        <v>2.6487499257943928E-2</v>
-      </c>
-      <c r="U39">
-        <f t="shared" si="2"/>
-        <v>2.7708372551915252E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="9:21">
-      <c r="I40">
-        <v>256</v>
-      </c>
-      <c r="J40">
-        <v>736548.50800399994</v>
-      </c>
-      <c r="L40">
-        <v>736548.50135200005</v>
-      </c>
-      <c r="N40">
-        <v>34.1</v>
-      </c>
-      <c r="P40">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="T40" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U40" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="9:21">
-      <c r="I41">
-        <v>256</v>
-      </c>
-      <c r="J41">
-        <v>736548.50801500003</v>
-      </c>
-      <c r="L41">
-        <v>736548.50136200001</v>
-      </c>
-      <c r="N41">
-        <v>34</v>
-      </c>
-      <c r="P41">
-        <v>34.1</v>
-      </c>
-      <c r="S41" t="e">
-        <f t="shared" ref="S41:S49" si="3">M41/Q41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T41" t="e">
-        <f t="shared" ref="T41:T49" si="4">K41/O41</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="9:21">
-      <c r="I42">
-        <v>256</v>
-      </c>
-      <c r="J42">
-        <v>736548.508027</v>
-      </c>
-      <c r="L42">
-        <v>736548.50137299998</v>
-      </c>
-      <c r="N42">
-        <v>34.1</v>
-      </c>
-      <c r="P42">
-        <v>34.1</v>
-      </c>
-      <c r="S42" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T42" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="9:21">
-      <c r="I43">
-        <v>256</v>
-      </c>
-      <c r="J43">
-        <v>736548.50803799997</v>
-      </c>
-      <c r="L43">
-        <v>736548.50138300005</v>
-      </c>
-      <c r="N43">
-        <v>34.1</v>
-      </c>
-      <c r="P43">
-        <v>34.1</v>
-      </c>
-      <c r="S43" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T43" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="9:21">
-      <c r="I44">
-        <v>256</v>
-      </c>
-      <c r="J44">
-        <v>736548.50804900005</v>
-      </c>
-      <c r="K44">
-        <f>(J44-J40)*24*60*60/4</f>
-        <v>0.97200237214565277</v>
-      </c>
-      <c r="L44">
-        <v>736548.50139300001</v>
-      </c>
-      <c r="M44">
-        <f>(L44-L40)*24*60*60/4</f>
-        <v>0.88559919968247414</v>
-      </c>
-      <c r="N44">
-        <v>34.1</v>
-      </c>
-      <c r="O44">
-        <f>AVERAGE(N41:N44)</f>
-        <v>34.074999999999996</v>
-      </c>
-      <c r="P44">
-        <v>34.1</v>
-      </c>
-      <c r="Q44">
-        <f>AVERAGE(P41:P44)</f>
-        <v>34.1</v>
-      </c>
-      <c r="S44">
-        <f t="shared" si="3"/>
-        <v>2.5970651017081351E-2</v>
-      </c>
-      <c r="T44">
-        <f t="shared" si="4"/>
-        <v>2.8525381427605367E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="9:21">
-      <c r="I45">
-        <v>512</v>
-      </c>
-      <c r="J45">
-        <v>736548.508072</v>
-      </c>
-      <c r="L45">
-        <v>736548.50141400006</v>
-      </c>
-      <c r="N45">
-        <v>68</v>
-      </c>
-      <c r="P45">
-        <v>68</v>
-      </c>
-      <c r="S45" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T45" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="9:21">
-      <c r="I46">
-        <v>512</v>
-      </c>
-      <c r="J46">
-        <v>736548.50809400005</v>
-      </c>
-      <c r="L46">
-        <v>736548.50143499998</v>
-      </c>
-      <c r="N46">
-        <v>68</v>
-      </c>
-      <c r="P46">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="S46" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T46" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="9:21">
-      <c r="I47">
-        <v>512</v>
-      </c>
-      <c r="J47">
-        <v>736548.50811699999</v>
-      </c>
-      <c r="L47">
-        <v>736548.50145500002</v>
-      </c>
-      <c r="N47">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="P47">
-        <v>68</v>
-      </c>
-      <c r="S47" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T47" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="9:21">
-      <c r="I48">
-        <v>512</v>
-      </c>
-      <c r="J48">
-        <v>736548.50814000005</v>
-      </c>
-      <c r="L48">
-        <v>736548.50147599995</v>
-      </c>
-      <c r="N48">
-        <v>68</v>
-      </c>
-      <c r="P48">
-        <v>68</v>
-      </c>
-      <c r="S48" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T48" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="9:20">
-      <c r="I49">
-        <v>512</v>
-      </c>
-      <c r="J49">
-        <v>736548.50816199998</v>
-      </c>
-      <c r="K49">
-        <f>(J49-J45)*24*60*60/4</f>
-        <v>1.9439997151494026</v>
-      </c>
-      <c r="L49">
-        <v>736548.50149599998</v>
-      </c>
-      <c r="M49">
-        <f>(L49-L45)*24*60*60/4</f>
-        <v>1.7711983993649483</v>
-      </c>
-      <c r="N49">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="O49">
-        <f>AVERAGE(N46:N49)</f>
-        <v>68.05</v>
-      </c>
-      <c r="P49">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="Q49">
-        <f>AVERAGE(P46:P49)</f>
-        <v>68.05</v>
-      </c>
-      <c r="S49">
-        <f t="shared" si="3"/>
-        <v>2.6027897125127823E-2</v>
-      </c>
-      <c r="T49">
-        <f t="shared" si="4"/>
-        <v>2.8567225792055881E-2</v>
+        <v>39.6</v>
+      </c>
+      <c r="F16">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17">
+        <v>1024</v>
+      </c>
+      <c r="D17" s="6">
+        <v>79.2</v>
+      </c>
+      <c r="F17">
+        <v>62.2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18">
+        <v>2048</v>
+      </c>
+      <c r="D18" s="6">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="F18">
+        <v>124.4</v>
       </c>
     </row>
   </sheetData>

--- a/Arduino/2015-07_Benchmarking/FIR Speed Results.xlsx
+++ b/Arduino/2015-07_Benchmarking/FIR Speed Results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="80">
   <si>
     <t>Float</t>
   </si>
@@ -59,12 +59,6 @@
     <t>Arduino Uno, Float, decrement indexer</t>
   </si>
   <si>
-    <t>Arduino Uno, Float, Modulo</t>
-  </si>
-  <si>
-    <t>Float Operations, Int z</t>
-  </si>
-  <si>
     <t>Micros Per Trial</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
   </si>
   <si>
     <t>usec</t>
-  </si>
-  <si>
-    <t>inline, using types.h</t>
   </si>
   <si>
     <t>int</t>
@@ -265,6 +256,12 @@
   <si>
     <t>Teensy/K66</t>
   </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>int16</t>
+  </si>
 </sst>
 </file>
 
@@ -344,7 +341,112 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -517,7 +619,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.15304642013303429"/>
           <c:y val="0.16714129483814524"/>
-          <c:w val="0.56091349791240519"/>
+          <c:w val="0.51318692247488829"/>
           <c:h val="0.67521216097987746"/>
         </c:manualLayout>
       </c:layout>
@@ -540,26 +642,20 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Comparison!$B$5:$B$10</c:f>
+              <c:f>Comparison!$B$7:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
@@ -567,27 +663,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comparison!$C$5:$C$10</c:f>
+              <c:f>Comparison!$C$7:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>79.5</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>155.34</c:v>
+                  <c:v>622</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>308.66000000000003</c:v>
+                  <c:v>1270</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>627.84</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1283</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2627</c:v>
+                  <c:v>2522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -610,32 +700,26 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Comparison!$B$5:$B$12</c:f>
+              <c:f>Comparison!$B$7:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
@@ -643,32 +727,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comparison!$D$5:$D$12</c:f>
+              <c:f>Comparison!$D$7:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>30.2</c:v>
+                  <c:v>118.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.57</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>118.3</c:v>
+                  <c:v>473</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>235</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>473</c:v>
+                  <c:v>1887</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>945</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1887</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>3761</c:v>
                 </c:pt>
               </c:numCache>
@@ -692,29 +770,26 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Comparison!$B$6:$B$12</c:f>
+              <c:f>Comparison!$B$7:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
@@ -722,29 +797,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comparison!$E$6:$E$12</c:f>
+              <c:f>Comparison!$E$7:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>38.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.44</c:v>
+                  <c:v>77.28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.28</c:v>
+                  <c:v>154.91999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>154.91999999999999</c:v>
+                  <c:v>310.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>310.14999999999998</c:v>
+                  <c:v>620.58000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>620.58000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>1241.3699999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -772,32 +844,29 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Comparison!$B$6:$B$13</c:f>
+              <c:f>Comparison!$B$7:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>256</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
@@ -805,29 +874,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comparison!$F$6:$F$13</c:f>
+              <c:f>Comparison!$F$7:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>17.670000000000002</c:v>
+                  <c:v>35.69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.69</c:v>
+                  <c:v>71.64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.64</c:v>
+                  <c:v>143.43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>143.43</c:v>
+                  <c:v>286.93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>286.93</c:v>
+                  <c:v>573.83000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>573.83000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>1147.53</c:v>
                 </c:pt>
               </c:numCache>
@@ -851,29 +917,26 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Comparison!$B$6:$B$12</c:f>
+              <c:f>Comparison!$B$7:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
@@ -881,29 +944,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Comparison!$G$6:$G$12</c:f>
+              <c:f>Comparison!$G$7:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>14.74</c:v>
+                  <c:v>30.53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.53</c:v>
+                  <c:v>62.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.01</c:v>
+                  <c:v>124.89</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>124.89</c:v>
+                  <c:v>250.57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>250.57</c:v>
+                  <c:v>501.85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>501.85</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>1004.33</c:v>
                 </c:pt>
               </c:numCache>
@@ -1059,16 +1119,16 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="144223232"/>
-        <c:axId val="146072704"/>
+        <c:axId val="116646656"/>
+        <c:axId val="84894848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="144223232"/>
+        <c:axId val="116646656"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
           <c:max val="1024"/>
-          <c:min val="4"/>
+          <c:min val="16"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1095,13 +1155,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146072704"/>
+        <c:crossAx val="84894848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146072704"/>
+        <c:axId val="84894848"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1134,7 +1194,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144223232"/>
+        <c:crossAx val="116646656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -1147,8 +1207,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.74739597052147844"/>
-          <c:y val="0.28192695880538099"/>
+          <c:x val="0.71284895813064553"/>
+          <c:y val="0.24340369081892446"/>
           <c:w val="0.21322160743420587"/>
           <c:h val="0.54181004759628959"/>
         </c:manualLayout>
@@ -1230,16 +1290,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>269.7</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>549.1</c:v>
+                  <c:v>622</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1128.4000000000001</c:v>
+                  <c:v>1270</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2333</c:v>
+                  <c:v>2522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1324,13 +1384,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>40.4</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.62</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>155.30000000000001</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>308</c:v>
@@ -1418,16 +1478,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>119.8</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>236.54</c:v>
+                  <c:v>254</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>470</c:v>
+                  <c:v>503</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>936.8</c:v>
+                  <c:v>1002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1489,11 +1549,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142374784"/>
-        <c:axId val="142376320"/>
+        <c:axId val="84932096"/>
+        <c:axId val="84933632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142374784"/>
+        <c:axId val="84932096"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1506,12 +1566,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142376320"/>
+        <c:crossAx val="84933632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142376320"/>
+        <c:axId val="84933632"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1523,7 +1583,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142374784"/>
+        <c:crossAx val="84932096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1633,7 +1693,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>549.1</c:v>
+                  <c:v>622</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>224.49</c:v>
@@ -1663,7 +1723,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>long</c:v>
+                  <c:v>int32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1702,7 +1762,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>236.54</c:v>
+                  <c:v>254</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>25.94</c:v>
@@ -1732,7 +1792,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>int</c:v>
+                  <c:v>int16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1771,7 +1831,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>78.62</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>25.94</c:v>
@@ -1801,11 +1861,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="142398208"/>
-        <c:axId val="142399744"/>
+        <c:axId val="115900800"/>
+        <c:axId val="115902336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142398208"/>
+        <c:axId val="115900800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,7 +1874,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142399744"/>
+        <c:crossAx val="115902336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1822,7 +1882,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142399744"/>
+        <c:axId val="115902336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1852,7 +1912,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142398208"/>
+        <c:crossAx val="115900800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1963,7 +2023,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>549.1</c:v>
+                  <c:v>622</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>224.49</c:v>
@@ -1994,7 +2054,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>long</c:v>
+                  <c:v>int32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2035,7 +2095,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>236.54</c:v>
+                  <c:v>254</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>25.94</c:v>
@@ -2066,7 +2126,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>int</c:v>
+                  <c:v>int16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2107,7 +2167,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>78.62</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>25.94</c:v>
@@ -2139,11 +2199,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142557568"/>
-        <c:axId val="142559104"/>
+        <c:axId val="115929088"/>
+        <c:axId val="115930624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142557568"/>
+        <c:axId val="115929088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2152,7 +2212,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142559104"/>
+        <c:crossAx val="115930624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2160,7 +2220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142559104"/>
+        <c:axId val="115930624"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2191,7 +2251,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142557568"/>
+        <c:crossAx val="115929088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2308,7 +2368,7 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3765.5502941905706</c:v>
+                  <c:v>3549.4260376644552</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5947.4704793272776</c:v>
@@ -2335,7 +2395,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>long</c:v>
+                  <c:v>int32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2371,7 +2431,7 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5834.5996599157825</c:v>
+                  <c:v>5639.9596744324917</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>17218.042770596836</c:v>
@@ -2398,11 +2458,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="142580736"/>
-        <c:axId val="142611200"/>
+        <c:axId val="116739072"/>
+        <c:axId val="116749056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142580736"/>
+        <c:axId val="116739072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2411,7 +2471,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142611200"/>
+        <c:crossAx val="116749056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2419,7 +2479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142611200"/>
+        <c:axId val="116749056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2456,7 +2516,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142580736"/>
+        <c:crossAx val="116739072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10000"/>
@@ -2537,7 +2597,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>int</c:v>
+                  <c:v>int16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2578,16 +2638,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8780578206078578</c:v>
+                  <c:v>2.8724981467753889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2620967741935489</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.706666666666667</c:v>
+                  <c:v>20.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.820512820512825</c:v>
+                  <c:v>39.743589743589745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2603,7 +2663,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>long</c:v>
+                  <c:v>int32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2641,19 +2701,19 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.33042553191489366</c:v>
+                  <c:v>0.30815109343936381</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8775245506763021</c:v>
+                  <c:v>2.8719659069853622</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2620967741935489</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.706666666666667</c:v>
+                  <c:v>20.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.820512820512825</c:v>
+                  <c:v>39.743589743589745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2707,19 +2767,19 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.13762850053172634</c:v>
+                  <c:v>0.12204724409448819</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34333340702584397</c:v>
+                  <c:v>0.34267017443017267</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0827581398591648</c:v>
+                  <c:v>1.0806665272258245</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2434942749619666</c:v>
+                  <c:v>1.2410921611017696</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.450980392156868</c:v>
+                  <c:v>30.3921568627451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2736,11 +2796,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142650368"/>
-        <c:axId val="142660352"/>
+        <c:axId val="135670016"/>
+        <c:axId val="135675904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142650368"/>
+        <c:axId val="135670016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2749,7 +2809,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="142660352"/>
+        <c:crossAx val="135675904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2757,7 +2817,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142660352"/>
+        <c:axId val="135675904"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2800,7 +2860,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142650368"/>
+        <c:crossAx val="135670016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2969,11 +3029,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="143571968"/>
-        <c:axId val="143602816"/>
+        <c:axId val="137415296"/>
+        <c:axId val="137417472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="143571968"/>
+        <c:axId val="137415296"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -3002,13 +3062,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="143602816"/>
+        <c:crossAx val="137417472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="143602816"/>
+        <c:axId val="137417472"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3038,7 +3098,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143571968"/>
+        <c:crossAx val="137415296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3206,11 +3266,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="143623296"/>
-        <c:axId val="143625216"/>
+        <c:axId val="137704576"/>
+        <c:axId val="137706496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="143623296"/>
+        <c:axId val="137704576"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -3239,13 +3299,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143625216"/>
+        <c:crossAx val="137706496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="143625216"/>
+        <c:axId val="137706496"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3275,7 +3335,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143623296"/>
+        <c:crossAx val="137704576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3306,8 +3366,8 @@
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -4142,7 +4202,7 @@
   <dimension ref="A1:AC63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4168,20 +4228,20 @@
         <v>Arduino M0 Pro</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F1" t="str">
         <f>'Arduino Due'!C6</f>
         <v>Arduino Due</v>
       </c>
       <c r="G1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="2:17">
@@ -4201,13 +4261,13 @@
         <v>float</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:17">
@@ -4235,7 +4295,7 @@
         <v>Inline, using types.h</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="2:17">
@@ -4243,43 +4303,43 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:17">
@@ -4288,8 +4348,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <f>'Arduino Uno'!I9</f>
-        <v>79.5</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <f>'Arduino M0 Pro'!C10</f>
@@ -4312,30 +4371,26 @@
         <f>Python!D9</f>
         <v>5.698666666666667</v>
       </c>
-      <c r="K5">
-        <f>C5/C5</f>
-        <v>1</v>
-      </c>
       <c r="L5" s="10">
         <f t="shared" ref="L5" si="0">C5/D5</f>
-        <v>2.632450331125828</v>
+        <v>0</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" ref="M5" si="1">C5/E5</f>
-        <v>8.5853131749460037</v>
+        <v>0</v>
       </c>
       <c r="N5" s="10">
         <f>$C5/F5</f>
-        <v>9.2334494773519165</v>
+        <v>0</v>
       </c>
       <c r="O5" s="10">
         <f>$C5/G5</f>
-        <v>11.674008810572689</v>
+        <v>0</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="10">
         <f>$C5/I5</f>
-        <v>13.950631726719699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:17">
@@ -4344,8 +4399,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <f>'Arduino Uno'!I10</f>
-        <v>155.34</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f>'Arduino M0 Pro'!C11</f>
@@ -4368,30 +4422,26 @@
         <f>Python!D10</f>
         <v>5.5945</v>
       </c>
-      <c r="K6">
-        <f t="shared" ref="K6:K10" si="2">C6/C6</f>
-        <v>1</v>
-      </c>
       <c r="L6" s="10">
-        <f t="shared" ref="L6:L10" si="3">C6/D6</f>
-        <v>2.6076884337753903</v>
+        <f t="shared" ref="L6:L10" si="2">C6/D6</f>
+        <v>0</v>
       </c>
       <c r="M6" s="10">
-        <f t="shared" ref="M6:M10" si="4">C6/E6</f>
-        <v>8.1757894736842101</v>
+        <f t="shared" ref="M6:M10" si="3">C6/E6</f>
+        <v>0</v>
       </c>
       <c r="N6" s="10">
-        <f t="shared" ref="N6:N10" si="5">$C6/F6</f>
-        <v>8.7911714770797964</v>
+        <f t="shared" ref="N6:N10" si="4">$C6/F6</f>
+        <v>0</v>
       </c>
       <c r="O6" s="10">
         <f>$C6/G6</f>
-        <v>10.538670284938942</v>
+        <v>0</v>
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="10">
-        <f t="shared" ref="Q6:Q10" si="6">$C6/I6</f>
-        <v>27.766556439360087</v>
+        <f t="shared" ref="Q6:Q10" si="5">$C6/I6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:17">
@@ -4400,8 +4450,8 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <f>'Arduino Uno'!I11</f>
-        <v>308.66000000000003</v>
+        <f>'Arduino Uno'!L11</f>
+        <v>311</v>
       </c>
       <c r="D7">
         <f>'Arduino M0 Pro'!C12</f>
@@ -4428,29 +4478,29 @@
         <v>5.5045000000000002</v>
       </c>
       <c r="K7">
+        <f t="shared" ref="K6:K10" si="6">C7/C7</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L7" s="10">
+        <v>2.6289095519864749</v>
+      </c>
+      <c r="M7" s="10">
         <f t="shared" si="3"/>
-        <v>2.6091293322062556</v>
-      </c>
-      <c r="M7" s="10">
+        <v>8.0905306971904274</v>
+      </c>
+      <c r="N7" s="10">
         <f t="shared" si="4"/>
-        <v>8.0296566077003124</v>
-      </c>
-      <c r="N7" s="10">
-        <f t="shared" si="5"/>
-        <v>8.6483608854020755</v>
+        <v>8.7139254693191379</v>
       </c>
       <c r="O7" s="10">
         <f>$C7/G7</f>
-        <v>10.110055682934819</v>
+        <v>10.186701604978708</v>
       </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="10">
-        <f t="shared" si="6"/>
-        <v>56.074121173585254</v>
+        <f t="shared" si="5"/>
+        <v>56.499227904441817</v>
       </c>
     </row>
     <row r="8" spans="2:17">
@@ -4459,8 +4509,8 @@
         <v>32</v>
       </c>
       <c r="C8">
-        <f>'Arduino Uno'!I12</f>
-        <v>627.84</v>
+        <f>'Arduino Uno'!L12</f>
+        <v>622</v>
       </c>
       <c r="D8">
         <f>'Arduino M0 Pro'!C13</f>
@@ -4487,29 +4537,29 @@
         <v>5.6927500000000002</v>
       </c>
       <c r="K8">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L8" s="10">
+        <v>2.6468085106382979</v>
+      </c>
+      <c r="M8" s="10">
         <f t="shared" si="3"/>
-        <v>2.6716595744680851</v>
-      </c>
-      <c r="M8" s="10">
+        <v>8.0486542443064177</v>
+      </c>
+      <c r="N8" s="10">
         <f t="shared" si="4"/>
-        <v>8.1242236024844718</v>
-      </c>
-      <c r="N8" s="10">
-        <f t="shared" si="5"/>
-        <v>8.7638190954773876</v>
+        <v>8.6823003908431051</v>
       </c>
       <c r="O8" s="10">
         <f>$C8/G8</f>
-        <v>10.124818577648767</v>
+        <v>10.030640219319466</v>
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="10">
-        <f t="shared" si="6"/>
-        <v>110.28764656800317</v>
+        <f t="shared" si="5"/>
+        <v>109.26178033463616</v>
       </c>
     </row>
     <row r="9" spans="2:17">
@@ -4518,8 +4568,8 @@
         <v>64</v>
       </c>
       <c r="C9">
-        <f>'Arduino Uno'!I13</f>
-        <v>1283</v>
+        <f>'Arduino Uno'!L13</f>
+        <v>1270</v>
       </c>
       <c r="D9">
         <f>'Arduino M0 Pro'!C14</f>
@@ -4546,29 +4596,29 @@
         <v>8.3607499999999995</v>
       </c>
       <c r="K9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L9" s="10">
+        <v>2.6849894291754759</v>
+      </c>
+      <c r="M9" s="10">
         <f t="shared" si="3"/>
-        <v>2.7124735729386891</v>
-      </c>
-      <c r="M9" s="10">
+        <v>8.197779499096308</v>
+      </c>
+      <c r="N9" s="10">
         <f t="shared" si="4"/>
-        <v>8.2816937774335155</v>
-      </c>
-      <c r="N9" s="10">
-        <f t="shared" si="5"/>
-        <v>8.945130028585373</v>
+        <v>8.8544934811406257</v>
       </c>
       <c r="O9" s="10">
         <f>$C9/G9</f>
-        <v>10.273040275442389</v>
+        <v>10.168948674833853</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="10">
-        <f t="shared" si="6"/>
-        <v>153.45513261370093</v>
+        <f t="shared" si="5"/>
+        <v>151.90024818347638</v>
       </c>
     </row>
     <row r="10" spans="2:17">
@@ -4577,8 +4627,8 @@
         <v>128</v>
       </c>
       <c r="C10">
-        <f>'Arduino Uno'!I14</f>
-        <v>2627</v>
+        <f>'Arduino Uno'!L14</f>
+        <v>2522</v>
       </c>
       <c r="D10">
         <f>'Arduino M0 Pro'!C15</f>
@@ -4605,39 +4655,35 @@
         <v>8.7690000000000001</v>
       </c>
       <c r="K10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L10" s="10">
+        <v>2.6687830687830689</v>
+      </c>
+      <c r="M10" s="10">
         <f t="shared" si="3"/>
-        <v>2.7798941798941801</v>
-      </c>
-      <c r="M10" s="10">
+        <v>8.1315492503627276</v>
+      </c>
+      <c r="N10" s="10">
         <f t="shared" si="4"/>
-        <v>8.4700951152668065</v>
-      </c>
-      <c r="N10" s="10">
-        <f t="shared" si="5"/>
-        <v>9.1555431638378693</v>
+        <v>8.789600250932283</v>
       </c>
       <c r="O10" s="10">
         <f>$C10/G10</f>
-        <v>10.484096260526002</v>
+        <v>10.065051682164665</v>
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="10">
-        <f t="shared" si="6"/>
-        <v>299.57805907172997</v>
+        <f t="shared" si="5"/>
+        <v>287.60405975595847</v>
       </c>
     </row>
     <row r="11" spans="2:17">
       <c r="B11">
         <f>'Arduino M0 Pro'!B16</f>
         <v>256</v>
-      </c>
-      <c r="C11">
-        <f>'Arduino Uno'!I15</f>
-        <v>0</v>
       </c>
       <c r="D11">
         <f>'Arduino M0 Pro'!C16</f>
@@ -4675,10 +4721,6 @@
         <f>'Arduino M0 Pro'!B17</f>
         <v>512</v>
       </c>
-      <c r="C12">
-        <f>'Arduino Uno'!I16</f>
-        <v>0</v>
-      </c>
       <c r="D12">
         <f>'Arduino M0 Pro'!C17</f>
         <v>3761</v>
@@ -4709,10 +4751,6 @@
         <f>'Arduino M0 Pro'!B18</f>
         <v>1024</v>
       </c>
-      <c r="C13">
-        <f>'Arduino Uno'!I17</f>
-        <v>0</v>
-      </c>
       <c r="D13">
         <f>'Arduino M0 Pro'!C18</f>
         <v>7519</v>
@@ -4728,7 +4766,7 @@
     </row>
     <row r="15" spans="2:17">
       <c r="C15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -4739,7 +4777,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -4837,7 +4875,7 @@
         <v>Arduino M0 Pro</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F23" t="str">
         <f>'Arduino Due'!C6</f>
@@ -4896,34 +4934,34 @@
         <v>1.875</v>
       </c>
       <c r="X23" t="str">
-        <f>C23</f>
+        <f t="shared" ref="X23:AC23" si="8">C23</f>
         <v>Arduino Uno</v>
       </c>
       <c r="Y23" t="str">
-        <f>D23</f>
+        <f t="shared" si="8"/>
         <v>Arduino M0 Pro</v>
       </c>
       <c r="Z23" t="str">
-        <f>E23</f>
+        <f t="shared" si="8"/>
         <v>Maple</v>
       </c>
       <c r="AA23" t="str">
-        <f>F23</f>
+        <f t="shared" si="8"/>
         <v>Arduino Due</v>
       </c>
       <c r="AB23" t="str">
-        <f>G23</f>
+        <f t="shared" si="8"/>
         <v>Teensy 3.1</v>
       </c>
       <c r="AC23" t="str">
-        <f>H23</f>
+        <f t="shared" si="8"/>
         <v>K66F</v>
       </c>
     </row>
     <row r="24" spans="1:29">
-      <c r="C24" t="str">
+      <c r="C24">
         <f>'Arduino Uno'!L6</f>
-        <v>inline, using types.h</v>
+        <v>0</v>
       </c>
       <c r="D24" s="4" t="str">
         <f>'Arduino M0 Pro'!K7</f>
@@ -4951,76 +4989,76 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q25" t="s">
+        <v>74</v>
+      </c>
+      <c r="S25" t="s">
+        <v>30</v>
+      </c>
+      <c r="T25" t="s">
+        <v>45</v>
+      </c>
+      <c r="U25" t="s">
+        <v>53</v>
+      </c>
+      <c r="V25" t="s">
         <v>77</v>
       </c>
-      <c r="S25" t="s">
-        <v>33</v>
-      </c>
-      <c r="T25" t="s">
-        <v>48</v>
-      </c>
-      <c r="U25" t="s">
-        <v>56</v>
-      </c>
-      <c r="V25" t="s">
-        <v>80</v>
-      </c>
       <c r="X25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Z25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AA25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AB25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AC25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -5033,8 +5071,8 @@
         <v>16</v>
       </c>
       <c r="C26" s="4">
-        <f>'Arduino Uno'!L11</f>
-        <v>269.7</v>
+        <f>C7</f>
+        <v>311</v>
       </c>
       <c r="D26" s="4">
         <f>'Arduino M0 Pro'!K12</f>
@@ -5065,40 +5103,40 @@
         <v>1</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" ref="L26:L37" si="8">C26/D26</f>
-        <v>2.3994661921708182</v>
+        <f t="shared" ref="L26:L37" si="9">C26/D26</f>
+        <v>2.7669039145907472</v>
       </c>
       <c r="M26" s="6">
-        <f t="shared" ref="M26:M37" si="9">C26/E26</f>
-        <v>7.0161290322580649</v>
+        <f t="shared" ref="M26:M37" si="10">C26/E26</f>
+        <v>8.0905306971904274</v>
       </c>
       <c r="N26" s="6">
         <f>$C26/F26</f>
-        <v>7.556738582235921</v>
+        <v>8.7139254693191379</v>
       </c>
       <c r="O26" s="6">
         <f>$C26/G26</f>
-        <v>8.8339338355715675</v>
+        <v>10.186701604978708</v>
       </c>
       <c r="P26" s="6">
         <f>C26/H26</f>
-        <v>207.46153846153845</v>
+        <v>239.23076923076923</v>
       </c>
       <c r="Q26" s="6">
         <f>$C26/I26</f>
-        <v>48.996275774366424</v>
+        <v>56.499227904441817</v>
       </c>
       <c r="R26" s="6"/>
       <c r="S26" s="6">
-        <f t="shared" ref="S26:S37" si="10">D26/E26</f>
+        <f t="shared" ref="S26:S37" si="11">D26/E26</f>
         <v>2.9240374609781479</v>
       </c>
       <c r="T26" s="6">
-        <f t="shared" ref="T26:T37" si="11">E26/F26</f>
+        <f t="shared" ref="T26:T37" si="12">E26/F26</f>
         <v>1.0770523956290277</v>
       </c>
       <c r="U26" s="6">
-        <f t="shared" ref="U26:U37" si="12">E26/G26</f>
+        <f t="shared" ref="U26:U37" si="13">E26/G26</f>
         <v>1.2590894202423843</v>
       </c>
       <c r="V26" s="6">
@@ -5107,27 +5145,27 @@
       </c>
       <c r="W26" s="6"/>
       <c r="X26" s="6">
-        <f t="shared" ref="X26:AC26" si="13">C26/C34</f>
-        <v>6.6757425742574261</v>
+        <f t="shared" ref="X26:AC26" si="14">C26/C34</f>
+        <v>7.5853658536585362</v>
       </c>
       <c r="Y26" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.4766214177978885</v>
       </c>
       <c r="Z26" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.3642384105960259</v>
       </c>
       <c r="AA26" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.499229583975346</v>
       </c>
       <c r="AB26" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>15.341708542713569</v>
       </c>
       <c r="AC26" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.1818181818181817</v>
       </c>
     </row>
@@ -5137,8 +5175,8 @@
         <v>32</v>
       </c>
       <c r="C27" s="4">
-        <f>'Arduino Uno'!L12</f>
-        <v>549.1</v>
+        <f t="shared" ref="C27:C29" si="15">C8</f>
+        <v>622</v>
       </c>
       <c r="D27" s="4">
         <f>'Arduino M0 Pro'!K13</f>
@@ -5161,77 +5199,77 @@
         <v>2.6</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" ref="I27:I29" si="14">I8</f>
+        <f t="shared" ref="I27:I29" si="16">I8</f>
         <v>5.6927500000000002</v>
       </c>
       <c r="K27">
-        <f t="shared" ref="K27:K37" si="15">C27/C27</f>
+        <f t="shared" ref="K27:K37" si="17">C27/C27</f>
         <v>1</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" si="8"/>
-        <v>2.4459886854648314</v>
+        <f t="shared" si="9"/>
+        <v>2.7707247538865873</v>
       </c>
       <c r="M27" s="6">
-        <f t="shared" si="9"/>
-        <v>7.1053312629399592</v>
+        <f t="shared" si="10"/>
+        <v>8.0486542443064177</v>
       </c>
       <c r="N27" s="6">
-        <f t="shared" ref="N27:N37" si="16">$C27/F27</f>
-        <v>7.6647124511446121</v>
+        <f t="shared" ref="N27:N37" si="18">$C27/F27</f>
+        <v>8.6823003908431051</v>
       </c>
       <c r="O27" s="6">
-        <f t="shared" ref="O27:O37" si="17">$C27/G27</f>
-        <v>8.8550233833252712</v>
+        <f t="shared" ref="O27:O37" si="19">$C27/G27</f>
+        <v>10.030640219319466</v>
       </c>
       <c r="P27" s="6">
-        <f t="shared" ref="P27:P37" si="18">C27/H27</f>
-        <v>211.19230769230771</v>
+        <f t="shared" ref="P27:P37" si="20">C27/H27</f>
+        <v>239.23076923076923</v>
       </c>
       <c r="Q27" s="6">
-        <f t="shared" ref="Q27:Q37" si="19">$C27/I27</f>
-        <v>96.456018620174788</v>
+        <f t="shared" ref="Q27:Q37" si="21">$C27/I27</f>
+        <v>109.26178033463616</v>
       </c>
       <c r="R27" s="6"/>
       <c r="S27" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.9048913043478262</v>
       </c>
       <c r="T27" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0787269681742044</v>
       </c>
       <c r="U27" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2462506047411708</v>
       </c>
       <c r="V27" s="6">
-        <f t="shared" ref="V27:V37" si="20">G27/H27</f>
+        <f t="shared" ref="V27:V37" si="22">G27/H27</f>
         <v>23.849999999999998</v>
       </c>
       <c r="W27" s="6"/>
       <c r="X27" s="6">
-        <f t="shared" ref="X27:AA29" si="21">C27/C35</f>
-        <v>6.9842279318239635</v>
+        <f t="shared" ref="X27:AA29" si="23">C27/C35</f>
+        <v>7.8734177215189876</v>
       </c>
       <c r="Y27" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>8.6542020046260593</v>
       </c>
       <c r="Z27" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>6.6563307493540051</v>
       </c>
       <c r="AA27" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.6857142857142859</v>
       </c>
       <c r="AB27" s="6">
-        <f t="shared" ref="AB27:AC29" si="22">G27/G35</f>
+        <f t="shared" ref="AB27:AC29" si="24">G27/G35</f>
         <v>16.232984293193716</v>
       </c>
       <c r="AC27" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.3</v>
       </c>
     </row>
@@ -5241,8 +5279,8 @@
         <v>64</v>
       </c>
       <c r="C28" s="4">
-        <f>'Arduino Uno'!L13</f>
-        <v>1128.4000000000001</v>
+        <f t="shared" si="15"/>
+        <v>1270</v>
       </c>
       <c r="D28" s="4">
         <f>'Arduino M0 Pro'!K14</f>
@@ -5265,77 +5303,77 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="I28" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.3607499999999995</v>
       </c>
       <c r="K28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="8"/>
-        <v>2.4946388698516571</v>
+        <f t="shared" si="9"/>
+        <v>2.8076846550085115</v>
       </c>
       <c r="M28" s="6">
-        <f t="shared" si="9"/>
-        <v>7.2837593596695083</v>
+        <f t="shared" si="10"/>
+        <v>8.197779499096308</v>
       </c>
       <c r="N28" s="6">
-        <f t="shared" si="16"/>
-        <v>7.8672523182040024</v>
+        <f t="shared" si="18"/>
+        <v>8.8544934811406257</v>
       </c>
       <c r="O28" s="6">
-        <f t="shared" si="17"/>
-        <v>9.0351509328208834</v>
+        <f t="shared" si="19"/>
+        <v>10.168948674833853</v>
       </c>
       <c r="P28" s="6">
-        <f t="shared" si="18"/>
-        <v>221.25490196078434</v>
+        <f t="shared" si="20"/>
+        <v>249.01960784313727</v>
       </c>
       <c r="Q28" s="6">
-        <f t="shared" si="19"/>
-        <v>134.96396854349194</v>
+        <f t="shared" si="21"/>
+        <v>151.90024818347638</v>
       </c>
       <c r="R28" s="6"/>
       <c r="S28" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.9197650400206561</v>
       </c>
       <c r="T28" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0801087638569336</v>
       </c>
       <c r="U28" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2404515974057169</v>
       </c>
       <c r="V28" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>24.488235294117651</v>
       </c>
       <c r="W28" s="6"/>
       <c r="X28" s="6">
-        <f t="shared" si="21"/>
-        <v>7.2659368963296842</v>
+        <f t="shared" si="23"/>
+        <v>8.193548387096774</v>
       </c>
       <c r="Y28" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>8.3826908821349146</v>
       </c>
       <c r="Z28" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>6.8066783831282942</v>
       </c>
       <c r="AA28" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.7834677419354836</v>
       </c>
       <c r="AB28" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>16.652000000000001</v>
       </c>
       <c r="AC28" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.3076923076923077</v>
       </c>
     </row>
@@ -5345,8 +5383,8 @@
         <v>128</v>
       </c>
       <c r="C29" s="4">
-        <f>'Arduino Uno'!L14</f>
-        <v>2333</v>
+        <f t="shared" si="15"/>
+        <v>2522</v>
       </c>
       <c r="D29" s="4">
         <f>'Arduino M0 Pro'!K15</f>
@@ -5369,84 +5407,83 @@
         <v>10</v>
       </c>
       <c r="I29" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.7690000000000001</v>
       </c>
       <c r="K29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" si="8"/>
-        <v>2.5816660764872523</v>
+        <f t="shared" si="9"/>
+        <v>2.7908109065155808</v>
       </c>
       <c r="M29" s="6">
-        <f t="shared" si="9"/>
-        <v>7.5221666935353868</v>
+        <f t="shared" si="10"/>
+        <v>8.1315492503627276</v>
       </c>
       <c r="N29" s="6">
-        <f t="shared" si="16"/>
-        <v>8.1309030077022264</v>
+        <f t="shared" si="18"/>
+        <v>8.789600250932283</v>
       </c>
       <c r="O29" s="6">
-        <f t="shared" si="17"/>
-        <v>9.3107714411142606</v>
+        <f t="shared" si="19"/>
+        <v>10.065051682164665</v>
       </c>
       <c r="P29" s="6">
-        <f t="shared" si="18"/>
-        <v>233.3</v>
+        <f t="shared" si="20"/>
+        <v>252.2</v>
       </c>
       <c r="Q29" s="6">
-        <f t="shared" si="19"/>
-        <v>266.05086098756982</v>
+        <f t="shared" si="21"/>
+        <v>287.60405975595847</v>
       </c>
       <c r="R29" s="6"/>
       <c r="S29" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.9136869256811222</v>
       </c>
       <c r="T29" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0809256613111211</v>
       </c>
       <c r="U29" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.237777866464461</v>
       </c>
       <c r="V29" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>25.056999999999999</v>
       </c>
       <c r="W29" s="6"/>
       <c r="X29" s="6">
-        <f t="shared" si="21"/>
-        <v>7.5746753246753249</v>
+        <f t="shared" si="23"/>
+        <v>8.1883116883116891</v>
       </c>
       <c r="Y29" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>8.4188559716787772</v>
       </c>
       <c r="Z29" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>6.8830448291167325</v>
       </c>
       <c r="AA29" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.83072546230441</v>
       </c>
       <c r="AB29" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>16.873400673400674</v>
       </c>
       <c r="AC29" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.2820512820512822</v>
       </c>
     </row>
     <row r="30" spans="1:29">
-      <c r="A30" t="str">
-        <f>'Arduino Uno'!N7</f>
-        <v>long</v>
+      <c r="A30" t="s">
+        <v>78</v>
       </c>
       <c r="B30">
         <f>B26</f>
@@ -5454,7 +5491,7 @@
       </c>
       <c r="C30" s="4">
         <f>'Arduino Uno'!N11</f>
-        <v>119.8</v>
+        <v>129</v>
       </c>
       <c r="D30" s="4">
         <f>'Arduino M0 Pro'!M12</f>
@@ -5481,84 +5518,84 @@
         <v>5.5045000000000002</v>
       </c>
       <c r="K30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="8"/>
-        <v>9.0346907993966816</v>
+        <f t="shared" si="9"/>
+        <v>9.7285067873303177</v>
       </c>
       <c r="M30" s="6">
-        <f t="shared" si="9"/>
-        <v>19.834437086092716</v>
+        <f t="shared" si="10"/>
+        <v>21.357615894039736</v>
       </c>
       <c r="N30" s="6">
-        <f t="shared" si="16"/>
-        <v>18.459167950693374</v>
+        <f t="shared" si="18"/>
+        <v>19.876733436055471</v>
       </c>
       <c r="O30" s="6">
-        <f t="shared" si="17"/>
-        <v>60.201005025125625</v>
+        <f t="shared" si="19"/>
+        <v>64.824120603015075</v>
       </c>
       <c r="P30" s="6">
-        <f t="shared" si="18"/>
-        <v>108.90909090909089</v>
+        <f t="shared" si="20"/>
+        <v>117.27272727272727</v>
       </c>
       <c r="Q30" s="6">
-        <f t="shared" si="19"/>
-        <v>21.764011263511669</v>
+        <f t="shared" si="21"/>
+        <v>23.435371060041785</v>
       </c>
       <c r="R30" s="6"/>
       <c r="S30" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.1953642384105958</v>
       </c>
       <c r="T30" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.93066255778120177</v>
       </c>
       <c r="U30" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.0351758793969847</v>
       </c>
       <c r="V30" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.8090909090909089</v>
       </c>
       <c r="W30" s="6"/>
       <c r="X30" s="6">
-        <f t="shared" ref="X30:AC30" si="23">C30/C34</f>
-        <v>2.9653465346534653</v>
+        <f t="shared" ref="X30:AC30" si="25">C30/C34</f>
+        <v>3.1463414634146343</v>
       </c>
       <c r="Y30" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="Z30" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AA30" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AB30" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AC30" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
       <c r="B31">
-        <f t="shared" ref="B31:B37" si="24">B27</f>
+        <f t="shared" ref="B31:B37" si="26">B27</f>
         <v>32</v>
       </c>
       <c r="C31" s="4">
         <f>'Arduino Uno'!N12</f>
-        <v>236.54</v>
+        <v>254</v>
       </c>
       <c r="D31" s="4">
         <f>'Arduino M0 Pro'!M13</f>
@@ -5577,92 +5614,92 @@
         <v>3.82</v>
       </c>
       <c r="H31" s="10">
-        <f t="shared" ref="H31:H33" si="25">H35</f>
+        <f t="shared" ref="H31:H33" si="27">H35</f>
         <v>2</v>
       </c>
       <c r="I31" s="10">
-        <f t="shared" ref="I31:I33" si="26">I27</f>
+        <f t="shared" ref="I31:I33" si="28">I27</f>
         <v>5.6927500000000002</v>
       </c>
       <c r="K31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="8"/>
-        <v>9.1187355435620656</v>
+        <f t="shared" si="9"/>
+        <v>9.7918272937548192</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" si="9"/>
-        <v>20.373815676141259</v>
+        <f t="shared" si="10"/>
+        <v>21.877691645133506</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" si="16"/>
-        <v>18.773015873015872</v>
+        <f t="shared" si="18"/>
+        <v>20.158730158730158</v>
       </c>
       <c r="O31" s="6">
-        <f t="shared" si="17"/>
-        <v>61.921465968586389</v>
+        <f t="shared" si="19"/>
+        <v>66.492146596858646</v>
       </c>
       <c r="P31" s="6">
-        <f t="shared" si="18"/>
-        <v>118.27</v>
+        <f t="shared" si="20"/>
+        <v>127</v>
       </c>
       <c r="Q31" s="6">
-        <f t="shared" si="19"/>
-        <v>41.551095691888804</v>
+        <f t="shared" si="21"/>
+        <v>44.618154670414121</v>
       </c>
       <c r="R31" s="6"/>
       <c r="S31" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.2342807924203276</v>
       </c>
       <c r="T31" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.92142857142857137</v>
       </c>
       <c r="U31" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.0392670157068062</v>
       </c>
       <c r="V31" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.91</v>
       </c>
       <c r="W31" s="6"/>
       <c r="X31" s="6">
-        <f t="shared" ref="X31:AA33" si="27">C31/C35</f>
-        <v>3.0086491986771811</v>
+        <f t="shared" ref="X31:AA33" si="29">C31/C35</f>
+        <v>3.2151898734177213</v>
       </c>
       <c r="Y31" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z31" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="AA31" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="AB31" s="6">
-        <f t="shared" ref="AB31:AC33" si="28">G31/G35</f>
+        <f t="shared" ref="AB31:AC33" si="30">G31/G35</f>
         <v>1</v>
       </c>
       <c r="AC31" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
       <c r="B32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>64</v>
       </c>
       <c r="C32" s="4">
         <f>'Arduino Uno'!N13</f>
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="D32" s="4">
         <f>'Arduino M0 Pro'!M14</f>
@@ -5681,92 +5718,92 @@
         <v>7.5</v>
       </c>
       <c r="H32" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.9</v>
       </c>
       <c r="I32" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>8.3607499999999995</v>
       </c>
       <c r="K32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" si="8"/>
-        <v>8.7085417824717446</v>
+        <f t="shared" si="9"/>
+        <v>9.3199925884750794</v>
       </c>
       <c r="M32" s="6">
-        <f t="shared" si="9"/>
-        <v>20.650263620386642</v>
+        <f t="shared" si="10"/>
+        <v>22.100175746924428</v>
       </c>
       <c r="N32" s="6">
-        <f t="shared" si="16"/>
-        <v>18.951612903225804</v>
+        <f t="shared" si="18"/>
+        <v>20.282258064516128</v>
       </c>
       <c r="O32" s="6">
-        <f t="shared" si="17"/>
-        <v>62.666666666666664</v>
+        <f t="shared" si="19"/>
+        <v>67.066666666666663</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" si="18"/>
-        <v>120.51282051282051</v>
+        <f t="shared" si="20"/>
+        <v>128.97435897435898</v>
       </c>
       <c r="Q32" s="6">
-        <f t="shared" si="19"/>
-        <v>56.215052477349523</v>
+        <f t="shared" si="21"/>
+        <v>60.162066800227258</v>
       </c>
       <c r="R32" s="6"/>
       <c r="S32" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.3712653778558872</v>
       </c>
       <c r="T32" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.91774193548387095</v>
       </c>
       <c r="U32" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.0346666666666668</v>
       </c>
       <c r="V32" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.9230769230769231</v>
       </c>
       <c r="W32" s="6"/>
       <c r="X32" s="6">
-        <f t="shared" si="27"/>
-        <v>3.0264005151320021</v>
+        <f t="shared" si="29"/>
+        <v>3.2451612903225806</v>
       </c>
       <c r="Y32" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.0001853224610822</v>
       </c>
       <c r="Z32" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="AA32" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="AB32" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AC32" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
       <c r="B33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>128</v>
       </c>
       <c r="C33" s="4">
         <f>'Arduino Uno'!N14</f>
-        <v>936.8</v>
+        <v>1002</v>
       </c>
       <c r="D33" s="4">
         <f>'Arduino M0 Pro'!M15</f>
@@ -5785,96 +5822,95 @@
         <v>14.85</v>
       </c>
       <c r="H33" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>7.8</v>
       </c>
       <c r="I33" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>8.7690000000000001</v>
       </c>
       <c r="K33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L33" s="6">
-        <f t="shared" si="8"/>
-        <v>8.7265952491849088</v>
+        <f t="shared" si="9"/>
+        <v>9.3339543549138337</v>
       </c>
       <c r="M33" s="6">
-        <f t="shared" si="9"/>
-        <v>20.790057700843317</v>
+        <f t="shared" si="10"/>
+        <v>22.237017310252995</v>
       </c>
       <c r="N33" s="6">
-        <f t="shared" si="16"/>
-        <v>19.036781142044298</v>
+        <f t="shared" si="18"/>
+        <v>20.361715098557202</v>
       </c>
       <c r="O33" s="6">
-        <f t="shared" si="17"/>
-        <v>63.084175084175079</v>
+        <f t="shared" si="19"/>
+        <v>67.474747474747474</v>
       </c>
       <c r="P33" s="6">
-        <f t="shared" si="18"/>
-        <v>120.1025641025641</v>
+        <f t="shared" si="20"/>
+        <v>128.46153846153845</v>
       </c>
       <c r="Q33" s="6">
-        <f t="shared" si="19"/>
-        <v>106.83088151442581</v>
+        <f t="shared" si="21"/>
+        <v>114.26616489907629</v>
       </c>
       <c r="R33" s="6"/>
       <c r="S33" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.3823790501553481</v>
       </c>
       <c r="T33" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.91566754724649468</v>
       </c>
       <c r="U33" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.0343434343434348</v>
       </c>
       <c r="V33" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.9038461538461537</v>
       </c>
       <c r="W33" s="6"/>
       <c r="X33" s="6">
-        <f t="shared" si="27"/>
-        <v>3.0415584415584416</v>
+        <f t="shared" si="29"/>
+        <v>3.2532467532467533</v>
       </c>
       <c r="Y33" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.000093161915409</v>
       </c>
       <c r="Z33" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="AA33" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="AB33" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AC33" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
-      <c r="A34" t="str">
-        <f>'Arduino Uno'!M7</f>
-        <v>int</v>
+      <c r="A34" t="s">
+        <v>79</v>
       </c>
       <c r="B34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>16</v>
       </c>
       <c r="C34" s="4">
         <f>'Arduino Uno'!M11</f>
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="D34" s="4">
         <f>'Arduino M0 Pro'!L12</f>
@@ -5901,48 +5937,48 @@
         <v>5.5045000000000002</v>
       </c>
       <c r="K34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" si="8"/>
-        <v>3.0467571644042231</v>
+        <f t="shared" si="9"/>
+        <v>3.0920060331825039</v>
       </c>
       <c r="M34" s="6">
-        <f t="shared" si="9"/>
-        <v>6.6887417218543046</v>
+        <f t="shared" si="10"/>
+        <v>6.7880794701986753</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="16"/>
-        <v>6.2249614791987673</v>
+        <f t="shared" si="18"/>
+        <v>6.3174114021571643</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" si="17"/>
-        <v>20.30150753768844</v>
+        <f t="shared" si="19"/>
+        <v>20.603015075376884</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" si="18"/>
-        <v>36.72727272727272</v>
+        <f t="shared" si="20"/>
+        <v>37.272727272727266</v>
       </c>
       <c r="Q34" s="6">
-        <f t="shared" si="19"/>
-        <v>7.3394495412844032</v>
+        <f t="shared" si="21"/>
+        <v>7.4484512671450629</v>
       </c>
       <c r="R34" s="6"/>
       <c r="S34" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.1953642384105958</v>
       </c>
       <c r="T34" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.93066255778120177</v>
       </c>
       <c r="U34" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.0351758793969847</v>
       </c>
       <c r="V34" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.8090909090909089</v>
       </c>
       <c r="W34" s="6"/>
@@ -5953,12 +5989,12 @@
     </row>
     <row r="35" spans="1:29">
       <c r="B35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>32</v>
       </c>
       <c r="C35" s="4">
         <f>'Arduino Uno'!M12</f>
-        <v>78.62</v>
+        <v>79</v>
       </c>
       <c r="D35" s="4">
         <f>'Arduino M0 Pro'!L13</f>
@@ -5981,52 +6017,52 @@
         <v>2</v>
       </c>
       <c r="I35" s="10">
-        <f t="shared" ref="I35:I37" si="29">I27</f>
+        <f t="shared" ref="I35:I37" si="31">I27</f>
         <v>5.6927500000000002</v>
       </c>
       <c r="K35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" si="8"/>
-        <v>3.0308404009252121</v>
+        <f t="shared" si="9"/>
+        <v>3.0454895913646878</v>
       </c>
       <c r="M35" s="6">
-        <f t="shared" si="9"/>
-        <v>6.7717484926787259</v>
+        <f t="shared" si="10"/>
+        <v>6.804478897502154</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" si="16"/>
-        <v>6.2396825396825406</v>
+        <f t="shared" si="18"/>
+        <v>6.2698412698412698</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" si="17"/>
-        <v>20.581151832460733</v>
+        <f t="shared" si="19"/>
+        <v>20.680628272251308</v>
       </c>
       <c r="P35" s="6">
-        <f t="shared" si="18"/>
-        <v>39.31</v>
+        <f t="shared" si="20"/>
+        <v>39.5</v>
       </c>
       <c r="Q35" s="6">
-        <f t="shared" si="19"/>
-        <v>13.810548504677001</v>
+        <f t="shared" si="21"/>
+        <v>13.877300074656361</v>
       </c>
       <c r="R35" s="6"/>
       <c r="S35" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.2342807924203276</v>
       </c>
       <c r="T35" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.92142857142857137</v>
       </c>
       <c r="U35" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.0392670157068062</v>
       </c>
       <c r="V35" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.91</v>
       </c>
       <c r="W35" s="6"/>
@@ -6042,7 +6078,7 @@
       </c>
       <c r="C36" s="4">
         <f>'Arduino Uno'!M13</f>
-        <v>155.30000000000001</v>
+        <v>155</v>
       </c>
       <c r="D36" s="4">
         <f>'Arduino M0 Pro'!L14</f>
@@ -6065,52 +6101,52 @@
         <v>3.9</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>8.3607499999999995</v>
       </c>
       <c r="K36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" si="8"/>
-        <v>2.8780578206078578</v>
+        <f t="shared" si="9"/>
+        <v>2.8724981467753889</v>
       </c>
       <c r="M36" s="6">
-        <f t="shared" si="9"/>
-        <v>6.8233743409490337</v>
+        <f t="shared" si="10"/>
+        <v>6.8101933216168709</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" si="16"/>
-        <v>6.2620967741935489</v>
+        <f t="shared" si="18"/>
+        <v>6.25</v>
       </c>
       <c r="O36" s="6">
-        <f t="shared" si="17"/>
-        <v>20.706666666666667</v>
+        <f t="shared" si="19"/>
+        <v>20.666666666666668</v>
       </c>
       <c r="P36" s="6">
-        <f t="shared" si="18"/>
-        <v>39.820512820512825</v>
+        <f t="shared" si="20"/>
+        <v>39.743589743589745</v>
       </c>
       <c r="Q36" s="6">
-        <f t="shared" si="19"/>
-        <v>18.574888616451876</v>
+        <f t="shared" si="21"/>
+        <v>18.539006668062076</v>
       </c>
       <c r="R36" s="6"/>
       <c r="S36" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.3708260105448153</v>
       </c>
       <c r="T36" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.91774193548387095</v>
       </c>
       <c r="U36" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.0346666666666668</v>
       </c>
       <c r="V36" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.9230769230769231</v>
       </c>
       <c r="W36" s="6"/>
@@ -6121,7 +6157,7 @@
     </row>
     <row r="37" spans="1:29">
       <c r="B37">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>128</v>
       </c>
       <c r="C37" s="4">
@@ -6149,52 +6185,52 @@
         <v>7.8</v>
       </c>
       <c r="I37" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>8.7690000000000001</v>
       </c>
       <c r="K37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L37" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.8693869945966086</v>
       </c>
       <c r="M37" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.8353306702174876</v>
       </c>
       <c r="N37" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.2588904694167855</v>
       </c>
       <c r="O37" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>20.74074074074074</v>
       </c>
       <c r="P37" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>39.487179487179489</v>
       </c>
       <c r="Q37" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>35.12373132626297</v>
       </c>
       <c r="R37" s="6"/>
       <c r="S37" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.3821571238348866</v>
       </c>
       <c r="T37" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.91566754724649468</v>
       </c>
       <c r="U37" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.0343434343434348</v>
       </c>
       <c r="V37" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.9038461538461537</v>
       </c>
       <c r="W37" s="6"/>
@@ -6209,30 +6245,30 @@
         <v>float</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C39" s="8">
         <f>1/(C27*0.000001)</f>
-        <v>1821.161901293025</v>
+        <v>1607.7170418006433</v>
       </c>
       <c r="D39" s="8">
-        <f t="shared" ref="D39:G39" si="30">1/(D27*0.000001)</f>
+        <f t="shared" ref="D39:G39" si="32">1/(D27*0.000001)</f>
         <v>4454.5414049623596</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>12939.958592132507</v>
       </c>
       <c r="F39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>13958.682300390843</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>16126.431220770844</v>
       </c>
       <c r="H39" s="8">
-        <f t="shared" ref="H39" si="31">1/(H27*0.000001)</f>
+        <f t="shared" ref="H39" si="33">1/(H27*0.000001)</f>
         <v>384615.38461538462</v>
       </c>
       <c r="I39" s="8">
@@ -6243,28 +6279,28 @@
         <v>4</v>
       </c>
       <c r="K39" s="9">
-        <f t="shared" ref="K39:P39" si="32">$C$36/C28</f>
-        <v>0.13762850053172634</v>
+        <f t="shared" ref="K39:P39" si="34">$C$36/C28</f>
+        <v>0.12204724409448819</v>
       </c>
       <c r="L39" s="9">
-        <f t="shared" si="32"/>
-        <v>0.34333340702584397</v>
+        <f t="shared" si="34"/>
+        <v>0.34267017443017267</v>
       </c>
       <c r="M39" s="9">
-        <f t="shared" si="32"/>
-        <v>1.0024528789052416</v>
+        <f t="shared" si="34"/>
+        <v>1.0005163955589982</v>
       </c>
       <c r="N39" s="9">
-        <f t="shared" si="32"/>
-        <v>1.0827581398591648</v>
+        <f t="shared" si="34"/>
+        <v>1.0806665272258245</v>
       </c>
       <c r="O39" s="9">
-        <f t="shared" si="32"/>
-        <v>1.2434942749619666</v>
+        <f t="shared" si="34"/>
+        <v>1.2410921611017696</v>
       </c>
       <c r="P39" s="9">
-        <f t="shared" si="32"/>
-        <v>30.450980392156868</v>
+        <f t="shared" si="34"/>
+        <v>30.3921568627451</v>
       </c>
       <c r="Q39" s="9">
         <f>$C$37/I29</f>
@@ -6274,65 +6310,65 @@
     <row r="40" spans="1:29">
       <c r="A40" t="str">
         <f>A30</f>
-        <v>long</v>
+        <v>int32</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C40" s="8">
         <f>1/(C31*0.000001)</f>
-        <v>4227.6147797412705</v>
+        <v>3937.0078740157483</v>
       </c>
       <c r="D40" s="8">
-        <f t="shared" ref="D40:G40" si="33">1/(D31*0.000001)</f>
+        <f t="shared" ref="D40:G40" si="35">1/(D31*0.000001)</f>
         <v>38550.501156515034</v>
       </c>
       <c r="E40" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>86132.644272179168</v>
       </c>
       <c r="F40" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>79365.079365079364</v>
       </c>
       <c r="G40" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>261780.10471204188</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" ref="H40" si="34">1/(H31*0.000001)</f>
+        <f t="shared" ref="H40" si="36">1/(H31*0.000001)</f>
         <v>500000</v>
       </c>
       <c r="I40" s="8">
-        <f t="shared" ref="I40" si="35">1/(I31*0.000001)</f>
+        <f t="shared" ref="I40" si="37">1/(I31*0.000001)</f>
         <v>175662.02626147293</v>
       </c>
       <c r="J40" t="s">
         <v>4</v>
       </c>
       <c r="K40" s="9">
-        <f t="shared" ref="K40:P40" si="36">$C$36/C32</f>
-        <v>0.33042553191489366</v>
+        <f t="shared" ref="K40:P40" si="38">$C$36/C32</f>
+        <v>0.30815109343936381</v>
       </c>
       <c r="L40" s="9">
-        <f t="shared" si="36"/>
-        <v>2.8775245506763021</v>
+        <f t="shared" si="38"/>
+        <v>2.8719659069853622</v>
       </c>
       <c r="M40" s="9">
-        <f t="shared" si="36"/>
-        <v>6.8233743409490337</v>
+        <f t="shared" si="38"/>
+        <v>6.8101933216168709</v>
       </c>
       <c r="N40" s="9">
-        <f t="shared" si="36"/>
-        <v>6.2620967741935489</v>
+        <f t="shared" si="38"/>
+        <v>6.25</v>
       </c>
       <c r="O40" s="9">
-        <f t="shared" si="36"/>
-        <v>20.706666666666667</v>
+        <f t="shared" si="38"/>
+        <v>20.666666666666668</v>
       </c>
       <c r="P40" s="9">
-        <f t="shared" si="36"/>
-        <v>39.820512820512825</v>
+        <f t="shared" si="38"/>
+        <v>39.743589743589745</v>
       </c>
       <c r="Q40" s="9">
         <f>Q39</f>
@@ -6342,37 +6378,37 @@
     <row r="41" spans="1:29">
       <c r="A41" t="str">
         <f>A34</f>
-        <v>int</v>
+        <v>int16</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C41" s="8">
         <f>1/(C35*0.000001)</f>
-        <v>12719.40981938438</v>
+        <v>12658.227848101267</v>
       </c>
       <c r="D41" s="8">
-        <f t="shared" ref="D41:G41" si="37">1/(D35*0.000001)</f>
+        <f t="shared" ref="D41:G41" si="39">1/(D35*0.000001)</f>
         <v>38550.501156515034</v>
       </c>
       <c r="E41" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>86132.644272179168</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>79365.079365079364</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>261780.10471204188</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" ref="H41" si="38">1/(H35*0.000001)</f>
+        <f t="shared" ref="H41" si="40">1/(H35*0.000001)</f>
         <v>500000</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" ref="I41" si="39">1/(I35*0.000001)</f>
+        <f t="shared" ref="I41" si="41">1/(I35*0.000001)</f>
         <v>175662.02626147293</v>
       </c>
       <c r="J41" t="s">
@@ -6383,24 +6419,24 @@
         <v>1</v>
       </c>
       <c r="L41" s="9">
-        <f t="shared" ref="L41:P41" si="40">$C$36/D36</f>
-        <v>2.8780578206078578</v>
+        <f t="shared" ref="L41:P41" si="42">$C$36/D36</f>
+        <v>2.8724981467753889</v>
       </c>
       <c r="M41" s="9">
-        <f t="shared" si="40"/>
-        <v>6.8233743409490337</v>
+        <f t="shared" si="42"/>
+        <v>6.8101933216168709</v>
       </c>
       <c r="N41" s="9">
-        <f t="shared" si="40"/>
-        <v>6.2620967741935489</v>
+        <f t="shared" si="42"/>
+        <v>6.25</v>
       </c>
       <c r="O41" s="9">
-        <f t="shared" si="40"/>
-        <v>20.706666666666667</v>
+        <f t="shared" si="42"/>
+        <v>20.666666666666668</v>
       </c>
       <c r="P41" s="9">
-        <f t="shared" si="40"/>
-        <v>39.820512820512825</v>
+        <f t="shared" si="42"/>
+        <v>39.743589743589745</v>
       </c>
       <c r="Q41" s="9">
         <f>Q40</f>
@@ -6409,7 +6445,7 @@
     </row>
     <row r="59" spans="2:10">
       <c r="B59" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G59">
         <v>250</v>
@@ -6424,23 +6460,23 @@
         <v>Arduino Uno</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" ref="D60:H60" si="41">D23</f>
+        <f t="shared" ref="D60:H60" si="43">D23</f>
         <v>Arduino M0 Pro</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>Maple</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>Arduino Due</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>Teensy 3.1</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>K66F</v>
       </c>
       <c r="I60" t="str">
@@ -6455,26 +6491,26 @@
       </c>
       <c r="C61" s="8">
         <f>SQRT($G$59/((C28*0.000001)/$B28))</f>
-        <v>3765.5502941905706</v>
+        <v>3549.4260376644552</v>
       </c>
       <c r="D61" s="8">
-        <f t="shared" ref="D61:G61" si="42">SQRT($G$59/((D28*0.000001)/$B28))</f>
+        <f t="shared" ref="D61:G61" si="44">SQRT($G$59/((D28*0.000001)/$B28))</f>
         <v>5947.4704793272776</v>
       </c>
       <c r="E61" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10162.633113501566</v>
       </c>
       <c r="F61" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10561.849922156138</v>
       </c>
       <c r="G61" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>11318.689818636485</v>
       </c>
       <c r="H61" s="8">
-        <f t="shared" ref="H61" si="43">SQRT($G$59/((H28*0.000001)/$B28))</f>
+        <f t="shared" ref="H61" si="45">SQRT($G$59/((H28*0.000001)/$B28))</f>
         <v>56011.203361120395</v>
       </c>
       <c r="I61" s="8">
@@ -6482,36 +6518,36 @@
         <v>76361.22447565374</v>
       </c>
       <c r="J61" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="2:10">
       <c r="B62" t="str">
         <f>A30</f>
-        <v>long</v>
+        <v>int32</v>
       </c>
       <c r="C62" s="8">
         <f>SQRT($G$59/((C32*0.000001)/$B32))</f>
-        <v>5834.5996599157825</v>
+        <v>5639.9596744324917</v>
       </c>
       <c r="D62" s="8">
-        <f t="shared" ref="D62:G62" si="44">SQRT($G$59/((D32*0.000001)/$B32))</f>
+        <f t="shared" ref="D62:G62" si="46">SQRT($G$59/((D32*0.000001)/$B32))</f>
         <v>17218.042770596836</v>
       </c>
       <c r="E62" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>26513.915171382934</v>
       </c>
       <c r="F62" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>25400.025400038103</v>
       </c>
       <c r="G62" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>46188.021535170061</v>
       </c>
       <c r="H62" s="8">
-        <f t="shared" ref="H62" si="45">SQRT($G$59/((H32*0.000001)/$B32))</f>
+        <f t="shared" ref="H62" si="47">SQRT($G$59/((H32*0.000001)/$B32))</f>
         <v>64051.261522034853</v>
       </c>
       <c r="I62" s="8">
@@ -6519,36 +6555,36 @@
         <v>76361.22447565374</v>
       </c>
       <c r="J62" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="2:10">
       <c r="B63" t="str">
         <f>A34</f>
-        <v>int</v>
+        <v>int16</v>
       </c>
       <c r="C63" s="8">
         <f>SQRT($G$59/((C36*0.000001)/$B36))</f>
-        <v>10150.192141783918</v>
+        <v>10160.010160015239</v>
       </c>
       <c r="D63" s="8">
-        <f t="shared" ref="D63:G63" si="46">SQRT($G$59/((D36*0.000001)/$B36))</f>
+        <f t="shared" ref="D63:G63" si="48">SQRT($G$59/((D36*0.000001)/$B36))</f>
         <v>17219.638141716368</v>
       </c>
       <c r="E63" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>26513.915171382934</v>
       </c>
       <c r="F63" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>25400.025400038103</v>
       </c>
       <c r="G63" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>46188.021535170061</v>
       </c>
       <c r="H63" s="8">
-        <f t="shared" ref="H63" si="47">SQRT($G$59/((H36*0.000001)/$B36))</f>
+        <f t="shared" ref="H63" si="49">SQRT($G$59/((H36*0.000001)/$B36))</f>
         <v>64051.261522034853</v>
       </c>
       <c r="I63" s="8">
@@ -6556,58 +6592,58 @@
         <v>76361.22447565374</v>
       </c>
       <c r="J63" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C26:I37">
-    <cfRule type="cellIs" dxfId="14" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>$D$21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>$D$20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>$D$19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>$D$18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="15" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>$D$18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:I41">
-    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>$C$21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>$C$20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>$C$19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>$C$18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>$C$18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:I63">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>$C$21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>$C$20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>$C$19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>$C$18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>$C$18</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6618,10 +6654,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T34"/>
+  <dimension ref="B2:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6629,38 +6665,35 @@
     <col min="11" max="12" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:14">
       <c r="B2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
       <c r="B3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
       <c r="B4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
       <c r="I5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
       <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -6668,45 +6701,39 @@
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L8" t="str">
         <f>$I$8</f>
@@ -6720,20 +6747,8 @@
         <f t="shared" si="0"/>
         <v>Micros Per Trial</v>
       </c>
-      <c r="P8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>15</v>
-      </c>
-      <c r="S8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20">
+    </row>
+    <row r="9" spans="2:14">
       <c r="B9">
         <v>4</v>
       </c>
@@ -6754,7 +6769,7 @@
       </c>
       <c r="L9"/>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:14">
       <c r="B10">
         <v>8</v>
       </c>
@@ -6775,7 +6790,7 @@
       </c>
       <c r="L10"/>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="2:14">
       <c r="B11">
         <v>16</v>
       </c>
@@ -6795,22 +6810,16 @@
         <v>308.66000000000003</v>
       </c>
       <c r="L11">
-        <v>269.7</v>
+        <v>311</v>
       </c>
       <c r="M11">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="N11">
-        <v>119.8</v>
-      </c>
-      <c r="P11">
-        <v>515.78</v>
-      </c>
-      <c r="Q11">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
       <c r="B12">
         <v>32</v>
       </c>
@@ -6830,22 +6839,16 @@
         <v>627.84</v>
       </c>
       <c r="L12">
-        <v>549.1</v>
+        <v>622</v>
       </c>
       <c r="M12">
-        <v>78.62</v>
+        <v>79</v>
       </c>
       <c r="N12">
-        <v>236.54</v>
-      </c>
-      <c r="P12">
-        <v>1040</v>
-      </c>
-      <c r="Q12">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
       <c r="B13">
         <v>64</v>
       </c>
@@ -6865,28 +6868,16 @@
         <v>1283</v>
       </c>
       <c r="L13" s="3">
-        <v>1128.4000000000001</v>
+        <v>1270</v>
       </c>
       <c r="M13">
-        <v>155.30000000000001</v>
+        <v>155</v>
       </c>
       <c r="N13">
-        <v>470</v>
-      </c>
-      <c r="P13">
-        <v>2100</v>
-      </c>
-      <c r="Q13">
-        <v>824</v>
-      </c>
-      <c r="S13">
-        <v>1462.5</v>
-      </c>
-      <c r="T13">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
       <c r="B14">
         <v>128</v>
       </c>
@@ -6906,36 +6897,21 @@
         <v>2627</v>
       </c>
       <c r="L14">
-        <v>2333</v>
+        <v>2522</v>
       </c>
       <c r="M14">
         <v>308</v>
       </c>
       <c r="N14">
-        <v>936.8</v>
-      </c>
-      <c r="P14">
-        <v>4167</v>
-      </c>
-      <c r="Q14">
-        <v>1136</v>
-      </c>
-      <c r="S14">
-        <v>2983</v>
-      </c>
-      <c r="T14">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
       <c r="B15">
         <v>256</v>
       </c>
-      <c r="S15">
-        <v>5973</v>
-      </c>
-      <c r="T15">
-        <v>1846</v>
+      <c r="M15">
+        <v>612</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -6958,18 +6934,18 @@
         <v>45.351473922902493</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:9">
       <c r="C19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -7188,25 +7164,25 @@
   <sheetData>
     <row r="2" spans="2:15">
       <c r="B2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:15">
       <c r="B4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:15">
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:15">
@@ -7214,7 +7190,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -7228,13 +7204,13 @@
         <v>8</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:15">
@@ -7242,7 +7218,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
         <v>9</v>
@@ -7539,41 +7515,41 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="C6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="C7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="C8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -7730,41 +7706,41 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="C6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="C7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="C8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -7921,41 +7897,41 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="C6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="C7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="C8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -8096,12 +8072,12 @@
     </row>
     <row r="18" spans="2:8">
       <c r="C18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="C19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H19">
         <f>96/72</f>
@@ -8110,16 +8086,16 @@
     </row>
     <row r="20" spans="2:8">
       <c r="C20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:8">
@@ -8292,29 +8268,29 @@
     </row>
     <row r="30" spans="2:8">
       <c r="C30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="C31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="C32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="2:11">
@@ -8599,46 +8575,46 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="C5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="C6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="C7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="C8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -8765,7 +8741,7 @@
   <sheetData>
     <row r="6" spans="2:11">
       <c r="C6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D6" t="str">
         <f>C6</f>
@@ -8774,7 +8750,7 @@
     </row>
     <row r="7" spans="2:11">
       <c r="C7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D7" t="str">
         <f>C7</f>
@@ -8783,16 +8759,16 @@
     </row>
     <row r="8" spans="2:11">
       <c r="C8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:11">

--- a/Arduino/2015-07_Benchmarking/FIR Speed Results.xlsx
+++ b/Arduino/2015-07_Benchmarking/FIR Speed Results.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Arduino M0 Pro" sheetId="1" r:id="rId3"/>
     <sheet name="Maple" sheetId="5" r:id="rId4"/>
     <sheet name="Arduino Due" sheetId="6" r:id="rId5"/>
-    <sheet name="Teensy 3.1" sheetId="7" r:id="rId6"/>
+    <sheet name="Teensy 3.2" sheetId="7" r:id="rId6"/>
     <sheet name="NXP K66" sheetId="9" r:id="rId7"/>
     <sheet name="Python" sheetId="8" r:id="rId8"/>
   </sheets>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="82">
   <si>
     <t>Float</t>
   </si>
@@ -161,9 +161,6 @@
     <t>Maple/Due</t>
   </si>
   <si>
-    <t>96 MHz</t>
-  </si>
-  <si>
     <t>96 MHz, Optimized</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
   </si>
   <si>
     <t>72 MHz, Optimized</t>
-  </si>
-  <si>
-    <t>http://www.pjrc.com/teensy/teensy31.html</t>
   </si>
   <si>
     <t>Teensy 3.1</t>
@@ -262,6 +256,18 @@
   <si>
     <t>int16</t>
   </si>
+  <si>
+    <t>http://www.pjrc.com/store/teensy32.html</t>
+  </si>
+  <si>
+    <t>Teensy 3.2</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>usec / FIR</t>
+  </si>
 </sst>
 </file>
 
@@ -341,112 +347,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
@@ -732,22 +633,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>118.3</c:v>
+                  <c:v>114.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>235</c:v>
+                  <c:v>226.47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>473</c:v>
+                  <c:v>446.45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>945</c:v>
+                  <c:v>892.74</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1887</c:v>
+                  <c:v>1783.68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3761</c:v>
+                  <c:v>3567.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -910,7 +811,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Teensy 3.1</c:v>
+                  <c:v>Teensy 3.2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -949,22 +850,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>30.53</c:v>
+                  <c:v>29.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.01</c:v>
+                  <c:v>58.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>124.89</c:v>
+                  <c:v>115.52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>250.57</c:v>
+                  <c:v>230.49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>501.85</c:v>
+                  <c:v>460.29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1004.33</c:v>
+                  <c:v>919.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1119,11 +1020,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="116646656"/>
-        <c:axId val="84894848"/>
+        <c:axId val="87657856"/>
+        <c:axId val="87668224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="116646656"/>
+        <c:axId val="87657856"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1155,13 +1056,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84894848"/>
+        <c:crossAx val="87668224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84894848"/>
+        <c:axId val="87668224"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1194,7 +1095,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116646656"/>
+        <c:crossAx val="87657856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -1337,16 +1238,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>112.4</c:v>
+                  <c:v>114.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>224.49</c:v>
+                  <c:v>226.47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>452.33</c:v>
+                  <c:v>446.45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>903.68</c:v>
+                  <c:v>892.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1431,16 +1332,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>13.26</c:v>
+                  <c:v>9.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.94</c:v>
+                  <c:v>17.46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.96</c:v>
+                  <c:v>34.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>107.34</c:v>
+                  <c:v>67.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1525,16 +1426,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>13.26</c:v>
+                  <c:v>10.77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.94</c:v>
+                  <c:v>20.79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.97</c:v>
+                  <c:v>40.83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>107.35</c:v>
+                  <c:v>80.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1549,11 +1450,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="84932096"/>
-        <c:axId val="84933632"/>
+        <c:axId val="87844736"/>
+        <c:axId val="87846272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84932096"/>
+        <c:axId val="87844736"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1566,12 +1467,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84933632"/>
+        <c:crossAx val="87846272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84933632"/>
+        <c:axId val="87846272"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1583,14 +1484,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84932096"/>
+        <c:crossAx val="87844736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1696,7 +1596,7 @@
                   <c:v>622</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>224.49</c:v>
+                  <c:v>226.47</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>77.28</c:v>
@@ -1705,7 +1605,7 @@
                   <c:v>71.64</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>62.01</c:v>
+                  <c:v>58.05</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
                   <c:v>2.6</c:v>
@@ -1765,7 +1665,7 @@
                   <c:v>254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.94</c:v>
+                  <c:v>20.79</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>11.61</c:v>
@@ -1774,7 +1674,7 @@
                   <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>3.82</c:v>
+                  <c:v>4.16</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
                   <c:v>2</c:v>
@@ -1834,7 +1734,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.94</c:v>
+                  <c:v>17.46</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>11.61</c:v>
@@ -1843,7 +1743,7 @@
                   <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>3.82</c:v>
+                  <c:v>4.16</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
                   <c:v>2</c:v>
@@ -1861,11 +1761,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="115900800"/>
-        <c:axId val="115902336"/>
+        <c:axId val="87864064"/>
+        <c:axId val="87865600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115900800"/>
+        <c:axId val="87864064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1874,7 +1774,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115902336"/>
+        <c:crossAx val="87865600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1882,7 +1782,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115902336"/>
+        <c:axId val="87865600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1912,7 +1812,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115900800"/>
+        <c:crossAx val="87864064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2026,7 +1926,7 @@
                   <c:v>622</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>224.49</c:v>
+                  <c:v>226.47</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>77.28</c:v>
@@ -2035,7 +1935,7 @@
                   <c:v>71.64</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>62.01</c:v>
+                  <c:v>58.05</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
                   <c:v>2.6</c:v>
@@ -2098,7 +1998,7 @@
                   <c:v>254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.94</c:v>
+                  <c:v>20.79</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>11.61</c:v>
@@ -2107,7 +2007,7 @@
                   <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>3.82</c:v>
+                  <c:v>4.16</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
                   <c:v>2</c:v>
@@ -2170,7 +2070,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.94</c:v>
+                  <c:v>17.46</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>11.61</c:v>
@@ -2179,7 +2079,7 @@
                   <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>3.82</c:v>
+                  <c:v>4.16</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
                   <c:v>2</c:v>
@@ -2199,11 +2099,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115929088"/>
-        <c:axId val="115930624"/>
+        <c:axId val="87908352"/>
+        <c:axId val="87909888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115929088"/>
+        <c:axId val="87908352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2212,7 +2112,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115930624"/>
+        <c:crossAx val="87909888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2220,7 +2120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115930624"/>
+        <c:axId val="87909888"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2251,7 +2151,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115929088"/>
+        <c:crossAx val="87908352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2371,13 +2271,13 @@
                   <c:v>3549.4260376644552</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5947.4704793272776</c:v>
+                  <c:v>5986.5081443669142</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10561.849922156138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11318.689818636485</c:v>
+                  <c:v>11768.778828946262</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>56011.203361120395</c:v>
@@ -2434,13 +2334,13 @@
                   <c:v>5639.9596744324917</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17218.042770596836</c:v>
+                  <c:v>19795.674375415139</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>25400.025400038103</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46188.021535170061</c:v>
+                  <c:v>44253.636380814365</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>64051.261522034853</c:v>
@@ -2458,11 +2358,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="116739072"/>
-        <c:axId val="116749056"/>
+        <c:axId val="87919232"/>
+        <c:axId val="87933312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116739072"/>
+        <c:axId val="87919232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2471,7 +2371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116749056"/>
+        <c:crossAx val="87933312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2479,7 +2379,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116749056"/>
+        <c:axId val="87933312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2516,7 +2416,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116739072"/>
+        <c:crossAx val="87919232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10000"/>
@@ -2638,13 +2538,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8724981467753889</c:v>
+                  <c:v>4.5387994143484631</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.666666666666668</c:v>
+                  <c:v>18.971848225214199</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>39.743589743589745</c:v>
@@ -2704,13 +2604,13 @@
                   <c:v>0.30815109343936381</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8719659069853622</c:v>
+                  <c:v>3.7962282635317171</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.666666666666668</c:v>
+                  <c:v>18.971848225214199</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>39.743589743589745</c:v>
@@ -2770,13 +2670,13 @@
                   <c:v>0.12204724409448819</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34267017443017267</c:v>
+                  <c:v>0.3471833351999104</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0806665272258245</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2410921611017696</c:v>
+                  <c:v>1.3417590027700832</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>30.3921568627451</c:v>
@@ -2796,11 +2696,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="135670016"/>
-        <c:axId val="135675904"/>
+        <c:axId val="87968000"/>
+        <c:axId val="87977984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="135670016"/>
+        <c:axId val="87968000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2809,7 +2709,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="135675904"/>
+        <c:crossAx val="87977984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2817,7 +2717,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135675904"/>
+        <c:axId val="87977984"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2860,7 +2760,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135670016"/>
+        <c:crossAx val="87968000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3029,11 +2929,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137415296"/>
-        <c:axId val="137417472"/>
+        <c:axId val="111872640"/>
+        <c:axId val="111878912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137415296"/>
+        <c:axId val="111872640"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -3062,13 +2962,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="137417472"/>
+        <c:crossAx val="111878912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137417472"/>
+        <c:axId val="111878912"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3098,7 +2998,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137415296"/>
+        <c:crossAx val="111872640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3266,11 +3166,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137704576"/>
-        <c:axId val="137706496"/>
+        <c:axId val="124781696"/>
+        <c:axId val="124783616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137704576"/>
+        <c:axId val="124781696"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -3299,13 +3199,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137706496"/>
+        <c:crossAx val="124783616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137706496"/>
+        <c:axId val="124783616"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3335,7 +3235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137704576"/>
+        <c:crossAx val="124781696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3613,14 +3513,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3644,7 +3544,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5991225" y="3324225"/>
+          <a:off x="5991225" y="3638550"/>
           <a:ext cx="3657600" cy="2743200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3791,20 +3691,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>17526</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="http://www.pjrc.com/teensy/teensy31.png"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="http://www.pjrc.com/store/teensy32.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3824,8 +3724,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4257675" y="1038225"/>
-          <a:ext cx="3124200" cy="1762125"/>
+          <a:off x="4648200" y="742950"/>
+          <a:ext cx="3657600" cy="1751076"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4201,8 +4101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4235,13 +4135,13 @@
         <v>Arduino Due</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="2:17">
@@ -4271,13 +4171,13 @@
       </c>
     </row>
     <row r="3" spans="2:17">
-      <c r="C3" t="str">
-        <f>'Arduino Uno'!I7</f>
-        <v>function</v>
+      <c r="C3">
+        <f>'Arduino Uno'!M10</f>
+        <v>0</v>
       </c>
       <c r="D3" t="str">
-        <f>'Arduino M0 Pro'!C8</f>
-        <v>Function</v>
+        <f>'Arduino M0 Pro'!K7</f>
+        <v>Inline, using types.h</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -4287,7 +4187,7 @@
         <v>Inline, using types.h</v>
       </c>
       <c r="G3" t="str">
-        <f>'Teensy 3.1'!C7</f>
+        <f>'Teensy 3.2'!C19</f>
         <v>96 MHz, Optimized</v>
       </c>
       <c r="H3" t="str">
@@ -4295,7 +4195,7 @@
         <v>Inline, using types.h</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:17">
@@ -4324,7 +4224,7 @@
         <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L4" t="s">
         <v>28</v>
@@ -4336,10 +4236,10 @@
         <v>44</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:17">
@@ -4348,11 +4248,12 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <f>'Arduino Uno'!L9</f>
         <v>0</v>
       </c>
       <c r="D5">
-        <f>'Arduino M0 Pro'!C10</f>
-        <v>30.2</v>
+        <f>'Arduino M0 Pro'!K10</f>
+        <v>0</v>
       </c>
       <c r="E5">
         <f>Maple!D9</f>
@@ -4363,17 +4264,16 @@
         <v>8.61</v>
       </c>
       <c r="G5">
-        <f>'Teensy 3.1'!D9</f>
-        <v>6.81</v>
+        <v>0</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10">
         <f>Python!D9</f>
         <v>5.698666666666667</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="10" t="e">
         <f t="shared" ref="L5" si="0">C5/D5</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" ref="M5" si="1">C5/E5</f>
@@ -4383,9 +4283,9 @@
         <f>$C5/F5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="10" t="e">
         <f>$C5/G5</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="10">
@@ -4399,11 +4299,12 @@
         <v>8</v>
       </c>
       <c r="C6">
+        <f>'Arduino Uno'!L10</f>
         <v>0</v>
       </c>
       <c r="D6">
-        <f>'Arduino M0 Pro'!C11</f>
-        <v>59.57</v>
+        <f>'Arduino M0 Pro'!K11</f>
+        <v>59.51</v>
       </c>
       <c r="E6">
         <f>Maple!D10</f>
@@ -4414,8 +4315,8 @@
         <v>17.670000000000002</v>
       </c>
       <c r="G6">
-        <f>'Teensy 3.1'!D10</f>
-        <v>14.74</v>
+        <f>'Teensy 3.2'!C6</f>
+        <v>14.87</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10">
@@ -4454,8 +4355,8 @@
         <v>311</v>
       </c>
       <c r="D7">
-        <f>'Arduino M0 Pro'!C12</f>
-        <v>118.3</v>
+        <f>'Arduino M0 Pro'!K12</f>
+        <v>114.83</v>
       </c>
       <c r="E7">
         <f>Maple!D11</f>
@@ -4466,8 +4367,8 @@
         <v>35.69</v>
       </c>
       <c r="G7">
-        <f>'Teensy 3.1'!D11</f>
-        <v>30.53</v>
+        <f>'Teensy 3.2'!C7</f>
+        <v>29.24</v>
       </c>
       <c r="H7" s="10">
         <f>'NXP K66'!D11</f>
@@ -4478,12 +4379,12 @@
         <v>5.5045000000000002</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K6:K10" si="6">C7/C7</f>
+        <f t="shared" ref="K7:K10" si="6">C7/C7</f>
         <v>1</v>
       </c>
       <c r="L7" s="10">
         <f t="shared" si="2"/>
-        <v>2.6289095519864749</v>
+        <v>2.7083514760950971</v>
       </c>
       <c r="M7" s="10">
         <f t="shared" si="3"/>
@@ -4495,7 +4396,7 @@
       </c>
       <c r="O7" s="10">
         <f>$C7/G7</f>
-        <v>10.186701604978708</v>
+        <v>10.636114911080712</v>
       </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="10">
@@ -4513,8 +4414,8 @@
         <v>622</v>
       </c>
       <c r="D8">
-        <f>'Arduino M0 Pro'!C13</f>
-        <v>235</v>
+        <f>'Arduino M0 Pro'!K13</f>
+        <v>226.47</v>
       </c>
       <c r="E8">
         <f>Maple!D12</f>
@@ -4525,8 +4426,8 @@
         <v>71.64</v>
       </c>
       <c r="G8">
-        <f>'Teensy 3.1'!D12</f>
-        <v>62.01</v>
+        <f>'Teensy 3.2'!C8</f>
+        <v>58.05</v>
       </c>
       <c r="H8" s="10">
         <f>'NXP K66'!D12</f>
@@ -4542,7 +4443,7 @@
       </c>
       <c r="L8" s="10">
         <f t="shared" si="2"/>
-        <v>2.6468085106382979</v>
+        <v>2.7465006402614032</v>
       </c>
       <c r="M8" s="10">
         <f t="shared" si="3"/>
@@ -4554,7 +4455,7 @@
       </c>
       <c r="O8" s="10">
         <f>$C8/G8</f>
-        <v>10.030640219319466</v>
+        <v>10.714900947459087</v>
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="10">
@@ -4572,8 +4473,8 @@
         <v>1270</v>
       </c>
       <c r="D9">
-        <f>'Arduino M0 Pro'!C14</f>
-        <v>473</v>
+        <f>'Arduino M0 Pro'!K14</f>
+        <v>446.45</v>
       </c>
       <c r="E9">
         <f>Maple!D13</f>
@@ -4584,8 +4485,8 @@
         <v>143.43</v>
       </c>
       <c r="G9">
-        <f>'Teensy 3.1'!D13</f>
-        <v>124.89</v>
+        <f>'Teensy 3.2'!C9</f>
+        <v>115.52</v>
       </c>
       <c r="H9" s="10">
         <f>'NXP K66'!D13</f>
@@ -4601,7 +4502,7 @@
       </c>
       <c r="L9" s="10">
         <f t="shared" si="2"/>
-        <v>2.6849894291754759</v>
+        <v>2.8446634561541049</v>
       </c>
       <c r="M9" s="10">
         <f t="shared" si="3"/>
@@ -4613,7 +4514,7 @@
       </c>
       <c r="O9" s="10">
         <f>$C9/G9</f>
-        <v>10.168948674833853</v>
+        <v>10.993767313019392</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="10">
@@ -4631,8 +4532,8 @@
         <v>2522</v>
       </c>
       <c r="D10">
-        <f>'Arduino M0 Pro'!C15</f>
-        <v>945</v>
+        <f>'Arduino M0 Pro'!K15</f>
+        <v>892.74</v>
       </c>
       <c r="E10">
         <f>Maple!D14</f>
@@ -4643,8 +4544,8 @@
         <v>286.93</v>
       </c>
       <c r="G10">
-        <f>'Teensy 3.1'!D14</f>
-        <v>250.57</v>
+        <f>'Teensy 3.2'!C10</f>
+        <v>230.49</v>
       </c>
       <c r="H10" s="10">
         <f>'NXP K66'!D14</f>
@@ -4660,7 +4561,7 @@
       </c>
       <c r="L10" s="10">
         <f t="shared" si="2"/>
-        <v>2.6687830687830689</v>
+        <v>2.8250106413961511</v>
       </c>
       <c r="M10" s="10">
         <f t="shared" si="3"/>
@@ -4672,7 +4573,7 @@
       </c>
       <c r="O10" s="10">
         <f>$C10/G10</f>
-        <v>10.065051682164665</v>
+        <v>10.941906373378455</v>
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="10">
@@ -4685,9 +4586,13 @@
         <f>'Arduino M0 Pro'!B16</f>
         <v>256</v>
       </c>
+      <c r="C11">
+        <f>'Arduino Uno'!L15</f>
+        <v>0</v>
+      </c>
       <c r="D11">
-        <f>'Arduino M0 Pro'!C16</f>
-        <v>1887</v>
+        <f>'Arduino M0 Pro'!K16</f>
+        <v>1783.68</v>
       </c>
       <c r="E11">
         <f>Maple!D15</f>
@@ -4698,8 +4603,8 @@
         <v>573.83000000000004</v>
       </c>
       <c r="G11">
-        <f>'Teensy 3.1'!D15</f>
-        <v>501.85</v>
+        <f>'Teensy 3.2'!C11</f>
+        <v>460.29</v>
       </c>
       <c r="H11" s="10">
         <f>'NXP K66'!D15</f>
@@ -4721,9 +4626,13 @@
         <f>'Arduino M0 Pro'!B17</f>
         <v>512</v>
       </c>
+      <c r="C12">
+        <f>'Arduino Uno'!L16</f>
+        <v>0</v>
+      </c>
       <c r="D12">
-        <f>'Arduino M0 Pro'!C17</f>
-        <v>3761</v>
+        <f>'Arduino M0 Pro'!K17</f>
+        <v>3567.42</v>
       </c>
       <c r="E12">
         <f>Maple!D16</f>
@@ -4734,8 +4643,8 @@
         <v>1147.53</v>
       </c>
       <c r="G12">
-        <f>'Teensy 3.1'!D16</f>
-        <v>1004.33</v>
+        <f>'Teensy 3.2'!C12</f>
+        <v>919.99</v>
       </c>
       <c r="H12" s="10">
         <f>'NXP K66'!D16</f>
@@ -4751,9 +4660,13 @@
         <f>'Arduino M0 Pro'!B18</f>
         <v>1024</v>
       </c>
+      <c r="C13">
+        <f>'Arduino Uno'!L17</f>
+        <v>0</v>
+      </c>
       <c r="D13">
-        <f>'Arduino M0 Pro'!C18</f>
-        <v>7519</v>
+        <f>'Arduino M0 Pro'!K18</f>
+        <v>7131.84</v>
       </c>
       <c r="H13" s="10">
         <f>'NXP K66'!D17</f>
@@ -4882,7 +4795,7 @@
         <v>Arduino Due</v>
       </c>
       <c r="G23" t="str">
-        <f>'Teensy 3.1'!C6</f>
+        <f>'Teensy 3.2'!C18</f>
         <v>Teensy 3.1</v>
       </c>
       <c r="H23" t="str">
@@ -4972,7 +4885,7 @@
         <v>Inline, using types.h</v>
       </c>
       <c r="G24" t="str">
-        <f>'Teensy 3.1'!C7</f>
+        <f>'Teensy 3.2'!C19</f>
         <v>96 MHz, Optimized</v>
       </c>
       <c r="H24" t="str">
@@ -5010,7 +4923,7 @@
         <v>21</v>
       </c>
       <c r="K25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L25" t="s">
         <v>28</v>
@@ -5022,13 +4935,13 @@
         <v>44</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S25" t="s">
         <v>30</v>
@@ -5037,10 +4950,10 @@
         <v>45</v>
       </c>
       <c r="U25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="X25" t="s">
         <v>25</v>
@@ -5076,7 +4989,7 @@
       </c>
       <c r="D26" s="4">
         <f>'Arduino M0 Pro'!K12</f>
-        <v>112.4</v>
+        <v>114.83</v>
       </c>
       <c r="E26">
         <f>Maple!D11</f>
@@ -5087,8 +5000,8 @@
         <v>35.69</v>
       </c>
       <c r="G26">
-        <f>'Teensy 3.1'!D11</f>
-        <v>30.53</v>
+        <f>'Teensy 3.2'!C7</f>
+        <v>29.24</v>
       </c>
       <c r="H26" s="10">
         <f>'NXP K66'!D11</f>
@@ -5104,7 +5017,7 @@
       </c>
       <c r="L26" s="6">
         <f t="shared" ref="L26:L37" si="9">C26/D26</f>
-        <v>2.7669039145907472</v>
+        <v>2.7083514760950971</v>
       </c>
       <c r="M26" s="6">
         <f t="shared" ref="M26:M37" si="10">C26/E26</f>
@@ -5116,7 +5029,7 @@
       </c>
       <c r="O26" s="6">
         <f>$C26/G26</f>
-        <v>10.186701604978708</v>
+        <v>10.636114911080712</v>
       </c>
       <c r="P26" s="6">
         <f>C26/H26</f>
@@ -5129,7 +5042,7 @@
       <c r="R26" s="6"/>
       <c r="S26" s="6">
         <f t="shared" ref="S26:S37" si="11">D26/E26</f>
-        <v>2.9240374609781479</v>
+        <v>2.9872528616024976</v>
       </c>
       <c r="T26" s="6">
         <f t="shared" ref="T26:T37" si="12">E26/F26</f>
@@ -5137,11 +5050,11 @@
       </c>
       <c r="U26" s="6">
         <f t="shared" ref="U26:U37" si="13">E26/G26</f>
-        <v>1.2590894202423843</v>
+        <v>1.3146374829001368</v>
       </c>
       <c r="V26" s="6">
         <f>G26/H26</f>
-        <v>23.484615384615385</v>
+        <v>22.492307692307691</v>
       </c>
       <c r="W26" s="6"/>
       <c r="X26" s="6">
@@ -5150,7 +5063,7 @@
       </c>
       <c r="Y26" s="6">
         <f t="shared" si="14"/>
-        <v>8.4766214177978885</v>
+        <v>12.604829857299672</v>
       </c>
       <c r="Z26" s="6">
         <f t="shared" si="14"/>
@@ -5162,7 +5075,7 @@
       </c>
       <c r="AB26" s="6">
         <f t="shared" si="14"/>
-        <v>15.341708542713569</v>
+        <v>13.537037037037035</v>
       </c>
       <c r="AC26" s="6">
         <f t="shared" si="14"/>
@@ -5180,7 +5093,7 @@
       </c>
       <c r="D27" s="4">
         <f>'Arduino M0 Pro'!K13</f>
-        <v>224.49</v>
+        <v>226.47</v>
       </c>
       <c r="E27">
         <f>Maple!D12</f>
@@ -5191,8 +5104,8 @@
         <v>71.64</v>
       </c>
       <c r="G27">
-        <f>'Teensy 3.1'!D12</f>
-        <v>62.01</v>
+        <f>'Teensy 3.2'!C8</f>
+        <v>58.05</v>
       </c>
       <c r="H27" s="10">
         <f>'NXP K66'!D12</f>
@@ -5208,7 +5121,7 @@
       </c>
       <c r="L27" s="6">
         <f t="shared" si="9"/>
-        <v>2.7707247538865873</v>
+        <v>2.7465006402614032</v>
       </c>
       <c r="M27" s="6">
         <f t="shared" si="10"/>
@@ -5220,7 +5133,7 @@
       </c>
       <c r="O27" s="6">
         <f t="shared" ref="O27:O37" si="19">$C27/G27</f>
-        <v>10.030640219319466</v>
+        <v>10.714900947459087</v>
       </c>
       <c r="P27" s="6">
         <f t="shared" ref="P27:P37" si="20">C27/H27</f>
@@ -5233,7 +5146,7 @@
       <c r="R27" s="6"/>
       <c r="S27" s="6">
         <f t="shared" si="11"/>
-        <v>2.9048913043478262</v>
+        <v>2.9305124223602483</v>
       </c>
       <c r="T27" s="6">
         <f t="shared" si="12"/>
@@ -5241,11 +5154,11 @@
       </c>
       <c r="U27" s="6">
         <f t="shared" si="13"/>
-        <v>1.2462506047411708</v>
+        <v>1.3312661498708012</v>
       </c>
       <c r="V27" s="6">
         <f t="shared" ref="V27:V37" si="22">G27/H27</f>
-        <v>23.849999999999998</v>
+        <v>22.326923076923077</v>
       </c>
       <c r="W27" s="6"/>
       <c r="X27" s="6">
@@ -5254,7 +5167,7 @@
       </c>
       <c r="Y27" s="6">
         <f t="shared" si="23"/>
-        <v>8.6542020046260593</v>
+        <v>12.970790378006873</v>
       </c>
       <c r="Z27" s="6">
         <f t="shared" si="23"/>
@@ -5266,7 +5179,7 @@
       </c>
       <c r="AB27" s="6">
         <f t="shared" ref="AB27:AC29" si="24">G27/G35</f>
-        <v>16.232984293193716</v>
+        <v>13.954326923076922</v>
       </c>
       <c r="AC27" s="6">
         <f t="shared" si="24"/>
@@ -5284,7 +5197,7 @@
       </c>
       <c r="D28" s="4">
         <f>'Arduino M0 Pro'!K14</f>
-        <v>452.33</v>
+        <v>446.45</v>
       </c>
       <c r="E28">
         <f>Maple!D13</f>
@@ -5295,8 +5208,8 @@
         <v>143.43</v>
       </c>
       <c r="G28">
-        <f>'Teensy 3.1'!D13</f>
-        <v>124.89</v>
+        <f>'Teensy 3.2'!C9</f>
+        <v>115.52</v>
       </c>
       <c r="H28" s="10">
         <f>'NXP K66'!D13</f>
@@ -5312,7 +5225,7 @@
       </c>
       <c r="L28" s="6">
         <f t="shared" si="9"/>
-        <v>2.8076846550085115</v>
+        <v>2.8446634561541049</v>
       </c>
       <c r="M28" s="6">
         <f t="shared" si="10"/>
@@ -5324,7 +5237,7 @@
       </c>
       <c r="O28" s="6">
         <f t="shared" si="19"/>
-        <v>10.168948674833853</v>
+        <v>10.993767313019392</v>
       </c>
       <c r="P28" s="6">
         <f t="shared" si="20"/>
@@ -5337,7 +5250,7 @@
       <c r="R28" s="6"/>
       <c r="S28" s="6">
         <f t="shared" si="11"/>
-        <v>2.9197650400206561</v>
+        <v>2.8818099664342887</v>
       </c>
       <c r="T28" s="6">
         <f t="shared" si="12"/>
@@ -5345,11 +5258,11 @@
       </c>
       <c r="U28" s="6">
         <f t="shared" si="13"/>
-        <v>1.2404515974057169</v>
+        <v>1.3410664819944598</v>
       </c>
       <c r="V28" s="6">
         <f t="shared" si="22"/>
-        <v>24.488235294117651</v>
+        <v>22.650980392156864</v>
       </c>
       <c r="W28" s="6"/>
       <c r="X28" s="6">
@@ -5358,7 +5271,7 @@
       </c>
       <c r="Y28" s="6">
         <f t="shared" si="23"/>
-        <v>8.3826908821349146</v>
+        <v>13.07320644216691</v>
       </c>
       <c r="Z28" s="6">
         <f t="shared" si="23"/>
@@ -5370,7 +5283,7 @@
       </c>
       <c r="AB28" s="6">
         <f t="shared" si="24"/>
-        <v>16.652000000000001</v>
+        <v>14.13953488372093</v>
       </c>
       <c r="AC28" s="6">
         <f t="shared" si="24"/>
@@ -5388,7 +5301,7 @@
       </c>
       <c r="D29" s="4">
         <f>'Arduino M0 Pro'!K15</f>
-        <v>903.68</v>
+        <v>892.74</v>
       </c>
       <c r="E29">
         <f>Maple!D14</f>
@@ -5399,8 +5312,8 @@
         <v>286.93</v>
       </c>
       <c r="G29">
-        <f>'Teensy 3.1'!D14</f>
-        <v>250.57</v>
+        <f>'Teensy 3.2'!C10</f>
+        <v>230.49</v>
       </c>
       <c r="H29" s="10">
         <f>'NXP K66'!D14</f>
@@ -5416,7 +5329,7 @@
       </c>
       <c r="L29" s="6">
         <f t="shared" si="9"/>
-        <v>2.7908109065155808</v>
+        <v>2.8250106413961511</v>
       </c>
       <c r="M29" s="6">
         <f t="shared" si="10"/>
@@ -5428,7 +5341,7 @@
       </c>
       <c r="O29" s="6">
         <f t="shared" si="19"/>
-        <v>10.065051682164665</v>
+        <v>10.941906373378455</v>
       </c>
       <c r="P29" s="6">
         <f t="shared" si="20"/>
@@ -5441,7 +5354,7 @@
       <c r="R29" s="6"/>
       <c r="S29" s="6">
         <f t="shared" si="11"/>
-        <v>2.9136869256811222</v>
+        <v>2.8784136708044499</v>
       </c>
       <c r="T29" s="6">
         <f t="shared" si="12"/>
@@ -5449,11 +5362,11 @@
       </c>
       <c r="U29" s="6">
         <f t="shared" si="13"/>
-        <v>1.237777866464461</v>
+        <v>1.3456115232764978</v>
       </c>
       <c r="V29" s="6">
         <f t="shared" si="22"/>
-        <v>25.056999999999999</v>
+        <v>23.048999999999999</v>
       </c>
       <c r="W29" s="6"/>
       <c r="X29" s="6">
@@ -5462,7 +5375,7 @@
       </c>
       <c r="Y29" s="6">
         <f t="shared" si="23"/>
-        <v>8.4188559716787772</v>
+        <v>13.215988156920799</v>
       </c>
       <c r="Z29" s="6">
         <f t="shared" si="23"/>
@@ -5474,7 +5387,7 @@
       </c>
       <c r="AB29" s="6">
         <f t="shared" si="24"/>
-        <v>16.873400673400674</v>
+        <v>14.22777777777778</v>
       </c>
       <c r="AC29" s="6">
         <f t="shared" si="24"/>
@@ -5483,7 +5396,7 @@
     </row>
     <row r="30" spans="1:29">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B30">
         <f>B26</f>
@@ -5495,7 +5408,7 @@
       </c>
       <c r="D30" s="4">
         <f>'Arduino M0 Pro'!M12</f>
-        <v>13.26</v>
+        <v>10.77</v>
       </c>
       <c r="E30">
         <f>Maple!E11</f>
@@ -5506,8 +5419,8 @@
         <v>6.49</v>
       </c>
       <c r="G30">
-        <f>'Teensy 3.1'!E11</f>
-        <v>1.99</v>
+        <f>'Teensy 3.2'!D7</f>
+        <v>2.16</v>
       </c>
       <c r="H30" s="10">
         <f>H34</f>
@@ -5523,7 +5436,7 @@
       </c>
       <c r="L30" s="6">
         <f t="shared" si="9"/>
-        <v>9.7285067873303177</v>
+        <v>11.977715877437326</v>
       </c>
       <c r="M30" s="6">
         <f t="shared" si="10"/>
@@ -5535,7 +5448,7 @@
       </c>
       <c r="O30" s="6">
         <f t="shared" si="19"/>
-        <v>64.824120603015075</v>
+        <v>59.722222222222221</v>
       </c>
       <c r="P30" s="6">
         <f t="shared" si="20"/>
@@ -5548,7 +5461,7 @@
       <c r="R30" s="6"/>
       <c r="S30" s="6">
         <f t="shared" si="11"/>
-        <v>2.1953642384105958</v>
+        <v>1.7831125827814569</v>
       </c>
       <c r="T30" s="6">
         <f t="shared" si="12"/>
@@ -5556,11 +5469,11 @@
       </c>
       <c r="U30" s="6">
         <f t="shared" si="13"/>
-        <v>3.0351758793969847</v>
+        <v>2.7962962962962963</v>
       </c>
       <c r="V30" s="6">
         <f t="shared" si="22"/>
-        <v>1.8090909090909089</v>
+        <v>1.9636363636363636</v>
       </c>
       <c r="W30" s="6"/>
       <c r="X30" s="6">
@@ -5569,7 +5482,7 @@
       </c>
       <c r="Y30" s="6">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>1.1822173435784853</v>
       </c>
       <c r="Z30" s="6">
         <f t="shared" si="25"/>
@@ -5599,7 +5512,7 @@
       </c>
       <c r="D31" s="4">
         <f>'Arduino M0 Pro'!M13</f>
-        <v>25.94</v>
+        <v>20.79</v>
       </c>
       <c r="E31">
         <f>Maple!E12</f>
@@ -5610,8 +5523,8 @@
         <v>12.6</v>
       </c>
       <c r="G31">
-        <f>'Teensy 3.1'!E12</f>
-        <v>3.82</v>
+        <f>'Teensy 3.2'!D8</f>
+        <v>4.16</v>
       </c>
       <c r="H31" s="10">
         <f t="shared" ref="H31:H33" si="27">H35</f>
@@ -5627,7 +5540,7 @@
       </c>
       <c r="L31" s="6">
         <f t="shared" si="9"/>
-        <v>9.7918272937548192</v>
+        <v>12.217412217412218</v>
       </c>
       <c r="M31" s="6">
         <f t="shared" si="10"/>
@@ -5639,7 +5552,7 @@
       </c>
       <c r="O31" s="6">
         <f t="shared" si="19"/>
-        <v>66.492146596858646</v>
+        <v>61.057692307692307</v>
       </c>
       <c r="P31" s="6">
         <f t="shared" si="20"/>
@@ -5652,7 +5565,7 @@
       <c r="R31" s="6"/>
       <c r="S31" s="6">
         <f t="shared" si="11"/>
-        <v>2.2342807924203276</v>
+        <v>1.7906976744186047</v>
       </c>
       <c r="T31" s="6">
         <f t="shared" si="12"/>
@@ -5660,11 +5573,11 @@
       </c>
       <c r="U31" s="6">
         <f t="shared" si="13"/>
-        <v>3.0392670157068062</v>
+        <v>2.7908653846153846</v>
       </c>
       <c r="V31" s="6">
         <f t="shared" si="22"/>
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="W31" s="6"/>
       <c r="X31" s="6">
@@ -5673,7 +5586,7 @@
       </c>
       <c r="Y31" s="6">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>1.1907216494845361</v>
       </c>
       <c r="Z31" s="6">
         <f t="shared" si="29"/>
@@ -5703,7 +5616,7 @@
       </c>
       <c r="D32" s="4">
         <f>'Arduino M0 Pro'!M14</f>
-        <v>53.97</v>
+        <v>40.83</v>
       </c>
       <c r="E32">
         <f>Maple!E13</f>
@@ -5714,8 +5627,8 @@
         <v>24.8</v>
       </c>
       <c r="G32">
-        <f>'Teensy 3.1'!E13</f>
-        <v>7.5</v>
+        <f>'Teensy 3.2'!D9</f>
+        <v>8.17</v>
       </c>
       <c r="H32" s="10">
         <f t="shared" si="27"/>
@@ -5731,7 +5644,7 @@
       </c>
       <c r="L32" s="6">
         <f t="shared" si="9"/>
-        <v>9.3199925884750794</v>
+        <v>12.319373010041637</v>
       </c>
       <c r="M32" s="6">
         <f t="shared" si="10"/>
@@ -5743,7 +5656,7 @@
       </c>
       <c r="O32" s="6">
         <f t="shared" si="19"/>
-        <v>67.066666666666663</v>
+        <v>61.566707466340269</v>
       </c>
       <c r="P32" s="6">
         <f t="shared" si="20"/>
@@ -5756,7 +5669,7 @@
       <c r="R32" s="6"/>
       <c r="S32" s="6">
         <f t="shared" si="11"/>
-        <v>2.3712653778558872</v>
+        <v>1.7939367311072054</v>
       </c>
       <c r="T32" s="6">
         <f t="shared" si="12"/>
@@ -5764,11 +5677,11 @@
       </c>
       <c r="U32" s="6">
         <f t="shared" si="13"/>
-        <v>3.0346666666666668</v>
+        <v>2.7858017135862916</v>
       </c>
       <c r="V32" s="6">
         <f t="shared" si="22"/>
-        <v>1.9230769230769231</v>
+        <v>2.094871794871795</v>
       </c>
       <c r="W32" s="6"/>
       <c r="X32" s="6">
@@ -5777,7 +5690,7 @@
       </c>
       <c r="Y32" s="6">
         <f t="shared" si="29"/>
-        <v>1.0001853224610822</v>
+        <v>1.1956076134699853</v>
       </c>
       <c r="Z32" s="6">
         <f t="shared" si="29"/>
@@ -5807,7 +5720,7 @@
       </c>
       <c r="D33" s="4">
         <f>'Arduino M0 Pro'!M15</f>
-        <v>107.35</v>
+        <v>80.91</v>
       </c>
       <c r="E33">
         <f>Maple!E14</f>
@@ -5818,8 +5731,8 @@
         <v>49.21</v>
       </c>
       <c r="G33">
-        <f>'Teensy 3.1'!E14</f>
-        <v>14.85</v>
+        <f>'Teensy 3.2'!D10</f>
+        <v>16.2</v>
       </c>
       <c r="H33" s="10">
         <f t="shared" si="27"/>
@@ -5835,7 +5748,7 @@
       </c>
       <c r="L33" s="6">
         <f t="shared" si="9"/>
-        <v>9.3339543549138337</v>
+        <v>12.384130515387469</v>
       </c>
       <c r="M33" s="6">
         <f t="shared" si="10"/>
@@ -5847,7 +5760,7 @@
       </c>
       <c r="O33" s="6">
         <f t="shared" si="19"/>
-        <v>67.474747474747474</v>
+        <v>61.851851851851855</v>
       </c>
       <c r="P33" s="6">
         <f t="shared" si="20"/>
@@ -5860,7 +5773,7 @@
       <c r="R33" s="6"/>
       <c r="S33" s="6">
         <f t="shared" si="11"/>
-        <v>2.3823790501553481</v>
+        <v>1.79560585885486</v>
       </c>
       <c r="T33" s="6">
         <f t="shared" si="12"/>
@@ -5868,11 +5781,11 @@
       </c>
       <c r="U33" s="6">
         <f t="shared" si="13"/>
-        <v>3.0343434343434348</v>
+        <v>2.7814814814814817</v>
       </c>
       <c r="V33" s="6">
         <f t="shared" si="22"/>
-        <v>1.9038461538461537</v>
+        <v>2.0769230769230771</v>
       </c>
       <c r="W33" s="6"/>
       <c r="X33" s="6">
@@ -5881,7 +5794,7 @@
       </c>
       <c r="Y33" s="6">
         <f t="shared" si="29"/>
-        <v>1.000093161915409</v>
+        <v>1.197779422649889</v>
       </c>
       <c r="Z33" s="6">
         <f t="shared" si="29"/>
@@ -5902,7 +5815,7 @@
     </row>
     <row r="34" spans="1:29">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34">
         <f t="shared" si="26"/>
@@ -5914,7 +5827,7 @@
       </c>
       <c r="D34" s="4">
         <f>'Arduino M0 Pro'!L12</f>
-        <v>13.26</v>
+        <v>9.11</v>
       </c>
       <c r="E34">
         <f>Maple!F11</f>
@@ -5925,8 +5838,8 @@
         <v>6.49</v>
       </c>
       <c r="G34">
-        <f>'Teensy 3.1'!F11</f>
-        <v>1.99</v>
+        <f>G30</f>
+        <v>2.16</v>
       </c>
       <c r="H34" s="10">
         <f>'NXP K66'!F11</f>
@@ -5942,7 +5855,7 @@
       </c>
       <c r="L34" s="6">
         <f t="shared" si="9"/>
-        <v>3.0920060331825039</v>
+        <v>4.5005488474204176</v>
       </c>
       <c r="M34" s="6">
         <f t="shared" si="10"/>
@@ -5954,7 +5867,7 @@
       </c>
       <c r="O34" s="6">
         <f t="shared" si="19"/>
-        <v>20.603015075376884</v>
+        <v>18.981481481481481</v>
       </c>
       <c r="P34" s="6">
         <f t="shared" si="20"/>
@@ -5967,7 +5880,7 @@
       <c r="R34" s="6"/>
       <c r="S34" s="6">
         <f t="shared" si="11"/>
-        <v>2.1953642384105958</v>
+        <v>1.5082781456953642</v>
       </c>
       <c r="T34" s="6">
         <f t="shared" si="12"/>
@@ -5975,11 +5888,11 @@
       </c>
       <c r="U34" s="6">
         <f t="shared" si="13"/>
-        <v>3.0351758793969847</v>
+        <v>2.7962962962962963</v>
       </c>
       <c r="V34" s="6">
         <f t="shared" si="22"/>
-        <v>1.8090909090909089</v>
+        <v>1.9636363636363636</v>
       </c>
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
@@ -5998,7 +5911,7 @@
       </c>
       <c r="D35" s="4">
         <f>'Arduino M0 Pro'!L13</f>
-        <v>25.94</v>
+        <v>17.46</v>
       </c>
       <c r="E35">
         <f>Maple!F12</f>
@@ -6009,15 +5922,15 @@
         <v>12.6</v>
       </c>
       <c r="G35">
-        <f>'Teensy 3.1'!F12</f>
-        <v>3.82</v>
+        <f t="shared" ref="G35:G37" si="31">G31</f>
+        <v>4.16</v>
       </c>
       <c r="H35" s="10">
         <f>'NXP K66'!F12</f>
         <v>2</v>
       </c>
       <c r="I35" s="10">
-        <f t="shared" ref="I35:I37" si="31">I27</f>
+        <f t="shared" ref="I35:I37" si="32">I27</f>
         <v>5.6927500000000002</v>
       </c>
       <c r="K35">
@@ -6026,7 +5939,7 @@
       </c>
       <c r="L35" s="6">
         <f t="shared" si="9"/>
-        <v>3.0454895913646878</v>
+        <v>4.5246277205040091</v>
       </c>
       <c r="M35" s="6">
         <f t="shared" si="10"/>
@@ -6038,7 +5951,7 @@
       </c>
       <c r="O35" s="6">
         <f t="shared" si="19"/>
-        <v>20.680628272251308</v>
+        <v>18.990384615384613</v>
       </c>
       <c r="P35" s="6">
         <f t="shared" si="20"/>
@@ -6051,7 +5964,7 @@
       <c r="R35" s="6"/>
       <c r="S35" s="6">
         <f t="shared" si="11"/>
-        <v>2.2342807924203276</v>
+        <v>1.5038759689922483</v>
       </c>
       <c r="T35" s="6">
         <f t="shared" si="12"/>
@@ -6059,11 +5972,11 @@
       </c>
       <c r="U35" s="6">
         <f t="shared" si="13"/>
-        <v>3.0392670157068062</v>
+        <v>2.7908653846153846</v>
       </c>
       <c r="V35" s="6">
         <f t="shared" si="22"/>
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
@@ -6082,7 +5995,7 @@
       </c>
       <c r="D36" s="4">
         <f>'Arduino M0 Pro'!L14</f>
-        <v>53.96</v>
+        <v>34.15</v>
       </c>
       <c r="E36">
         <f>Maple!F13</f>
@@ -6093,15 +6006,15 @@
         <v>24.8</v>
       </c>
       <c r="G36">
-        <f>'Teensy 3.1'!F13</f>
-        <v>7.5</v>
+        <f t="shared" si="31"/>
+        <v>8.17</v>
       </c>
       <c r="H36" s="10">
         <f>'NXP K66'!F13</f>
         <v>3.9</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>8.3607499999999995</v>
       </c>
       <c r="K36">
@@ -6110,7 +6023,7 @@
       </c>
       <c r="L36" s="6">
         <f t="shared" si="9"/>
-        <v>2.8724981467753889</v>
+        <v>4.5387994143484631</v>
       </c>
       <c r="M36" s="6">
         <f t="shared" si="10"/>
@@ -6122,7 +6035,7 @@
       </c>
       <c r="O36" s="6">
         <f t="shared" si="19"/>
-        <v>20.666666666666668</v>
+        <v>18.971848225214199</v>
       </c>
       <c r="P36" s="6">
         <f t="shared" si="20"/>
@@ -6135,7 +6048,7 @@
       <c r="R36" s="6"/>
       <c r="S36" s="6">
         <f t="shared" si="11"/>
-        <v>2.3708260105448153</v>
+        <v>1.5004393673110719</v>
       </c>
       <c r="T36" s="6">
         <f t="shared" si="12"/>
@@ -6143,11 +6056,11 @@
       </c>
       <c r="U36" s="6">
         <f t="shared" si="13"/>
-        <v>3.0346666666666668</v>
+        <v>2.7858017135862916</v>
       </c>
       <c r="V36" s="6">
         <f t="shared" si="22"/>
-        <v>1.9230769230769231</v>
+        <v>2.094871794871795</v>
       </c>
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
@@ -6166,7 +6079,7 @@
       </c>
       <c r="D37" s="4">
         <f>'Arduino M0 Pro'!L15</f>
-        <v>107.34</v>
+        <v>67.55</v>
       </c>
       <c r="E37">
         <f>Maple!F14</f>
@@ -6177,15 +6090,15 @@
         <v>49.21</v>
       </c>
       <c r="G37">
-        <f>'Teensy 3.1'!F14</f>
-        <v>14.85</v>
+        <f t="shared" si="31"/>
+        <v>16.2</v>
       </c>
       <c r="H37" s="10">
         <f>'NXP K66'!F14</f>
         <v>7.8</v>
       </c>
       <c r="I37" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>8.7690000000000001</v>
       </c>
       <c r="K37">
@@ -6194,7 +6107,7 @@
       </c>
       <c r="L37" s="6">
         <f t="shared" si="9"/>
-        <v>2.8693869945966086</v>
+        <v>4.5595854922279795</v>
       </c>
       <c r="M37" s="6">
         <f t="shared" si="10"/>
@@ -6206,7 +6119,7 @@
       </c>
       <c r="O37" s="6">
         <f t="shared" si="19"/>
-        <v>20.74074074074074</v>
+        <v>19.012345679012345</v>
       </c>
       <c r="P37" s="6">
         <f t="shared" si="20"/>
@@ -6219,7 +6132,7 @@
       <c r="R37" s="6"/>
       <c r="S37" s="6">
         <f t="shared" si="11"/>
-        <v>2.3821571238348866</v>
+        <v>1.4991122947181534</v>
       </c>
       <c r="T37" s="6">
         <f t="shared" si="12"/>
@@ -6227,11 +6140,11 @@
       </c>
       <c r="U37" s="6">
         <f t="shared" si="13"/>
-        <v>3.0343434343434348</v>
+        <v>2.7814814814814817</v>
       </c>
       <c r="V37" s="6">
         <f t="shared" si="22"/>
-        <v>1.9038461538461537</v>
+        <v>2.0769230769230771</v>
       </c>
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
@@ -6245,30 +6158,30 @@
         <v>float</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C39" s="8">
         <f>1/(C27*0.000001)</f>
         <v>1607.7170418006433</v>
       </c>
       <c r="D39" s="8">
-        <f t="shared" ref="D39:G39" si="32">1/(D27*0.000001)</f>
-        <v>4454.5414049623596</v>
+        <f t="shared" ref="D39:G39" si="33">1/(D27*0.000001)</f>
+        <v>4415.5958846646354</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>12939.958592132507</v>
       </c>
       <c r="F39" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>13958.682300390843</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="32"/>
-        <v>16126.431220770844</v>
+        <f t="shared" si="33"/>
+        <v>17226.528854435834</v>
       </c>
       <c r="H39" s="8">
-        <f t="shared" ref="H39" si="33">1/(H27*0.000001)</f>
+        <f t="shared" ref="H39" si="34">1/(H27*0.000001)</f>
         <v>384615.38461538462</v>
       </c>
       <c r="I39" s="8">
@@ -6279,27 +6192,27 @@
         <v>4</v>
       </c>
       <c r="K39" s="9">
-        <f t="shared" ref="K39:P39" si="34">$C$36/C28</f>
+        <f t="shared" ref="K39:P39" si="35">$C$36/C28</f>
         <v>0.12204724409448819</v>
       </c>
       <c r="L39" s="9">
-        <f t="shared" si="34"/>
-        <v>0.34267017443017267</v>
+        <f t="shared" si="35"/>
+        <v>0.3471833351999104</v>
       </c>
       <c r="M39" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0005163955589982</v>
       </c>
       <c r="N39" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0806665272258245</v>
       </c>
       <c r="O39" s="9">
-        <f t="shared" si="34"/>
-        <v>1.2410921611017696</v>
+        <f t="shared" si="35"/>
+        <v>1.3417590027700832</v>
       </c>
       <c r="P39" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>30.3921568627451</v>
       </c>
       <c r="Q39" s="9">
@@ -6313,61 +6226,61 @@
         <v>int32</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C40" s="8">
         <f>1/(C31*0.000001)</f>
         <v>3937.0078740157483</v>
       </c>
       <c r="D40" s="8">
-        <f t="shared" ref="D40:G40" si="35">1/(D31*0.000001)</f>
-        <v>38550.501156515034</v>
+        <f t="shared" ref="D40:G40" si="36">1/(D31*0.000001)</f>
+        <v>48100.048100048101</v>
       </c>
       <c r="E40" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>86132.644272179168</v>
       </c>
       <c r="F40" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>79365.079365079364</v>
       </c>
       <c r="G40" s="8">
-        <f t="shared" si="35"/>
-        <v>261780.10471204188</v>
+        <f t="shared" si="36"/>
+        <v>240384.61538461538</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" ref="H40" si="36">1/(H31*0.000001)</f>
+        <f t="shared" ref="H40" si="37">1/(H31*0.000001)</f>
         <v>500000</v>
       </c>
       <c r="I40" s="8">
-        <f t="shared" ref="I40" si="37">1/(I31*0.000001)</f>
+        <f t="shared" ref="I40" si="38">1/(I31*0.000001)</f>
         <v>175662.02626147293</v>
       </c>
       <c r="J40" t="s">
         <v>4</v>
       </c>
       <c r="K40" s="9">
-        <f t="shared" ref="K40:P40" si="38">$C$36/C32</f>
+        <f t="shared" ref="K40:P40" si="39">$C$36/C32</f>
         <v>0.30815109343936381</v>
       </c>
       <c r="L40" s="9">
-        <f t="shared" si="38"/>
-        <v>2.8719659069853622</v>
+        <f t="shared" si="39"/>
+        <v>3.7962282635317171</v>
       </c>
       <c r="M40" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>6.8101933216168709</v>
       </c>
       <c r="N40" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>6.25</v>
       </c>
       <c r="O40" s="9">
-        <f t="shared" si="38"/>
-        <v>20.666666666666668</v>
+        <f t="shared" si="39"/>
+        <v>18.971848225214199</v>
       </c>
       <c r="P40" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>39.743589743589745</v>
       </c>
       <c r="Q40" s="9">
@@ -6381,34 +6294,34 @@
         <v>int16</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C41" s="8">
         <f>1/(C35*0.000001)</f>
         <v>12658.227848101267</v>
       </c>
       <c r="D41" s="8">
-        <f t="shared" ref="D41:G41" si="39">1/(D35*0.000001)</f>
-        <v>38550.501156515034</v>
+        <f t="shared" ref="D41:G41" si="40">1/(D35*0.000001)</f>
+        <v>57273.768613974804</v>
       </c>
       <c r="E41" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>86132.644272179168</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>79365.079365079364</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" si="39"/>
-        <v>261780.10471204188</v>
+        <f t="shared" si="40"/>
+        <v>240384.61538461538</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" ref="H41" si="40">1/(H35*0.000001)</f>
+        <f t="shared" ref="H41" si="41">1/(H35*0.000001)</f>
         <v>500000</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" ref="I41" si="41">1/(I35*0.000001)</f>
+        <f t="shared" ref="I41" si="42">1/(I35*0.000001)</f>
         <v>175662.02626147293</v>
       </c>
       <c r="J41" t="s">
@@ -6419,23 +6332,23 @@
         <v>1</v>
       </c>
       <c r="L41" s="9">
-        <f t="shared" ref="L41:P41" si="42">$C$36/D36</f>
-        <v>2.8724981467753889</v>
+        <f t="shared" ref="L41:P41" si="43">$C$36/D36</f>
+        <v>4.5387994143484631</v>
       </c>
       <c r="M41" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>6.8101933216168709</v>
       </c>
       <c r="N41" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>6.25</v>
       </c>
       <c r="O41" s="9">
-        <f t="shared" si="42"/>
-        <v>20.666666666666668</v>
+        <f t="shared" si="43"/>
+        <v>18.971848225214199</v>
       </c>
       <c r="P41" s="9">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>39.743589743589745</v>
       </c>
       <c r="Q41" s="9">
@@ -6445,7 +6358,7 @@
     </row>
     <row r="59" spans="2:10">
       <c r="B59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G59">
         <v>250</v>
@@ -6460,23 +6373,23 @@
         <v>Arduino Uno</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" ref="D60:H60" si="43">D23</f>
+        <f t="shared" ref="D60:H60" si="44">D23</f>
         <v>Arduino M0 Pro</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>Maple</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>Arduino Due</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>Teensy 3.1</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>K66F</v>
       </c>
       <c r="I60" t="str">
@@ -6494,23 +6407,23 @@
         <v>3549.4260376644552</v>
       </c>
       <c r="D61" s="8">
-        <f t="shared" ref="D61:G61" si="44">SQRT($G$59/((D28*0.000001)/$B28))</f>
-        <v>5947.4704793272776</v>
+        <f t="shared" ref="D61:G61" si="45">SQRT($G$59/((D28*0.000001)/$B28))</f>
+        <v>5986.5081443669142</v>
       </c>
       <c r="E61" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>10162.633113501566</v>
       </c>
       <c r="F61" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>10561.849922156138</v>
       </c>
       <c r="G61" s="8">
-        <f t="shared" si="44"/>
-        <v>11318.689818636485</v>
+        <f t="shared" si="45"/>
+        <v>11768.778828946262</v>
       </c>
       <c r="H61" s="8">
-        <f t="shared" ref="H61" si="45">SQRT($G$59/((H28*0.000001)/$B28))</f>
+        <f t="shared" ref="H61" si="46">SQRT($G$59/((H28*0.000001)/$B28))</f>
         <v>56011.203361120395</v>
       </c>
       <c r="I61" s="8">
@@ -6518,7 +6431,7 @@
         <v>76361.22447565374</v>
       </c>
       <c r="J61" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="2:10">
@@ -6531,23 +6444,23 @@
         <v>5639.9596744324917</v>
       </c>
       <c r="D62" s="8">
-        <f t="shared" ref="D62:G62" si="46">SQRT($G$59/((D32*0.000001)/$B32))</f>
-        <v>17218.042770596836</v>
+        <f t="shared" ref="D62:G62" si="47">SQRT($G$59/((D32*0.000001)/$B32))</f>
+        <v>19795.674375415139</v>
       </c>
       <c r="E62" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>26513.915171382934</v>
       </c>
       <c r="F62" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>25400.025400038103</v>
       </c>
       <c r="G62" s="8">
-        <f t="shared" si="46"/>
-        <v>46188.021535170061</v>
+        <f t="shared" si="47"/>
+        <v>44253.636380814365</v>
       </c>
       <c r="H62" s="8">
-        <f t="shared" ref="H62" si="47">SQRT($G$59/((H32*0.000001)/$B32))</f>
+        <f t="shared" ref="H62" si="48">SQRT($G$59/((H32*0.000001)/$B32))</f>
         <v>64051.261522034853</v>
       </c>
       <c r="I62" s="8">
@@ -6555,7 +6468,7 @@
         <v>76361.22447565374</v>
       </c>
       <c r="J62" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="2:10">
@@ -6568,23 +6481,23 @@
         <v>10160.010160015239</v>
       </c>
       <c r="D63" s="8">
-        <f t="shared" ref="D63:G63" si="48">SQRT($G$59/((D36*0.000001)/$B36))</f>
-        <v>17219.638141716368</v>
+        <f t="shared" ref="D63:G63" si="49">SQRT($G$59/((D36*0.000001)/$B36))</f>
+        <v>21645.351229957632</v>
       </c>
       <c r="E63" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>26513.915171382934</v>
       </c>
       <c r="F63" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>25400.025400038103</v>
       </c>
       <c r="G63" s="8">
-        <f t="shared" si="48"/>
-        <v>46188.021535170061</v>
+        <f t="shared" si="49"/>
+        <v>44253.636380814365</v>
       </c>
       <c r="H63" s="8">
-        <f t="shared" ref="H63" si="49">SQRT($G$59/((H36*0.000001)/$B36))</f>
+        <f t="shared" ref="H63" si="50">SQRT($G$59/((H36*0.000001)/$B36))</f>
         <v>64051.261522034853</v>
       </c>
       <c r="I63" s="8">
@@ -6592,58 +6505,58 @@
         <v>76361.22447565374</v>
       </c>
       <c r="J63" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C26:I37">
-    <cfRule type="cellIs" dxfId="29" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>$D$21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>$D$20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>$D$19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>$D$18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="15" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>$D$18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:I41">
-    <cfRule type="cellIs" dxfId="24" priority="6" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>$C$21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="7" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>$C$20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="8" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>$C$19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="9" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>$C$18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>$C$18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:I63">
-    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>$C$21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>$C$20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>$C$19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>$C$18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>$C$18</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7157,7 +7070,7 @@
   <dimension ref="B2:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7207,10 +7120,10 @@
         <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="2:15">
@@ -7279,6 +7192,15 @@
         <f>H11/E11</f>
         <v>1.0286600949251552</v>
       </c>
+      <c r="K11">
+        <v>59.51</v>
+      </c>
+      <c r="L11">
+        <v>4.93</v>
+      </c>
+      <c r="M11">
+        <v>5.77</v>
+      </c>
     </row>
     <row r="12" spans="2:15">
       <c r="B12">
@@ -7302,17 +7224,17 @@
         <v>1.0151168117269811</v>
       </c>
       <c r="K12">
-        <v>112.4</v>
+        <v>114.83</v>
       </c>
       <c r="L12">
-        <v>13.26</v>
+        <v>9.11</v>
       </c>
       <c r="M12">
-        <v>13.26</v>
+        <v>10.77</v>
       </c>
       <c r="O12">
         <f>K12/L12</f>
-        <v>8.4766214177978885</v>
+        <v>12.604829857299672</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -7337,17 +7259,17 @@
         <v>1.0111688192305925</v>
       </c>
       <c r="K13">
-        <v>224.49</v>
+        <v>226.47</v>
       </c>
       <c r="L13">
-        <v>25.94</v>
+        <v>17.46</v>
       </c>
       <c r="M13">
-        <v>25.94</v>
+        <v>20.79</v>
       </c>
       <c r="O13">
-        <f t="shared" ref="O13:O15" si="3">K13/L13</f>
-        <v>8.6542020046260593</v>
+        <f t="shared" ref="O13:O16" si="3">K13/L13</f>
+        <v>12.970790378006873</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -7372,17 +7294,17 @@
         <v>0.99981738495252015</v>
       </c>
       <c r="K14">
-        <v>452.33</v>
+        <v>446.45</v>
       </c>
       <c r="L14">
-        <v>53.96</v>
+        <v>34.15</v>
       </c>
       <c r="M14">
-        <v>53.97</v>
+        <v>40.83</v>
       </c>
       <c r="O14">
         <f t="shared" si="3"/>
-        <v>8.3826908821349146</v>
+        <v>13.07320644216691</v>
       </c>
     </row>
     <row r="15" spans="2:15">
@@ -7407,17 +7329,17 @@
         <v>0.99958845854863043</v>
       </c>
       <c r="K15">
-        <v>903.68</v>
+        <v>892.74</v>
       </c>
       <c r="L15">
-        <v>107.34</v>
+        <v>67.55</v>
       </c>
       <c r="M15">
-        <v>107.35</v>
+        <v>80.91</v>
       </c>
       <c r="O15">
         <f t="shared" si="3"/>
-        <v>8.4188559716787772</v>
+        <v>13.215988156920799</v>
       </c>
     </row>
     <row r="16" spans="2:15">
@@ -7441,8 +7363,21 @@
         <f t="shared" si="2"/>
         <v>0.99705215419501136</v>
       </c>
-    </row>
-    <row r="17" spans="2:9">
+      <c r="K16">
+        <v>1783.68</v>
+      </c>
+      <c r="L16">
+        <v>134.35</v>
+      </c>
+      <c r="M16">
+        <v>161.06</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>13.276367696315594</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
       <c r="B17">
         <v>512</v>
       </c>
@@ -7457,8 +7392,17 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="18" spans="2:9">
+      <c r="K17">
+        <v>3567.42</v>
+      </c>
+      <c r="L17">
+        <v>267.93</v>
+      </c>
+      <c r="M17">
+        <v>321.36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
       <c r="B18">
         <v>1024</v>
       </c>
@@ -7473,8 +7417,17 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="20" spans="2:9">
+      <c r="K18">
+        <v>7131.84</v>
+      </c>
+      <c r="L18">
+        <v>535.12</v>
+      </c>
+      <c r="M18">
+        <v>641.98</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
@@ -7485,7 +7438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:13">
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
@@ -7887,22 +7840,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K40"/>
+  <dimension ref="B2:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -7910,178 +7863,130 @@
         <v>46</v>
       </c>
     </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="6" spans="2:6">
-      <c r="C6" t="s">
-        <v>51</v>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>14.87</v>
+      </c>
+      <c r="D6">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="C7" t="s">
-        <v>47</v>
+      <c r="B7" s="5">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>29.24</v>
+      </c>
+      <c r="D7">
+        <v>2.16</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
+      <c r="B8" s="5">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>58.05</v>
+      </c>
+      <c r="D8">
+        <v>4.16</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9">
-        <v>4</v>
+      <c r="B9" s="5">
+        <v>64</v>
       </c>
       <c r="C9">
-        <v>11.78</v>
+        <v>115.52</v>
       </c>
       <c r="D9">
-        <v>6.81</v>
-      </c>
-      <c r="E9">
-        <v>0.61</v>
-      </c>
-      <c r="F9">
-        <v>0.61</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10">
-        <v>8</v>
+      <c r="B10" s="5">
+        <v>128</v>
       </c>
       <c r="C10">
-        <v>24.81</v>
+        <v>230.49</v>
       </c>
       <c r="D10">
-        <v>14.74</v>
-      </c>
-      <c r="E10">
-        <v>1.07</v>
-      </c>
-      <c r="F10">
-        <v>1.07</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11">
-        <v>16</v>
+      <c r="B11" s="5">
+        <v>256</v>
       </c>
       <c r="C11">
-        <v>50.7</v>
+        <v>460.29</v>
       </c>
       <c r="D11">
-        <v>30.53</v>
-      </c>
-      <c r="E11">
-        <v>1.99</v>
-      </c>
-      <c r="F11">
-        <v>1.99</v>
+        <v>32.229999999999997</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12">
-        <v>32</v>
+      <c r="B12" s="5">
+        <v>512</v>
       </c>
       <c r="C12">
-        <v>102.3</v>
+        <v>919.99</v>
       </c>
       <c r="D12">
-        <v>62.01</v>
-      </c>
-      <c r="E12">
-        <v>3.82</v>
-      </c>
-      <c r="F12">
-        <v>3.82</v>
+        <v>64.31</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13">
-        <v>64</v>
+      <c r="B13" s="5">
+        <v>1024</v>
       </c>
       <c r="C13">
-        <v>205.35</v>
+        <v>1839.32</v>
       </c>
       <c r="D13">
-        <v>124.89</v>
-      </c>
-      <c r="E13">
-        <v>7.5</v>
-      </c>
-      <c r="F13">
-        <v>7.5</v>
+        <v>128.49</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14">
-        <v>128</v>
-      </c>
-      <c r="C14">
-        <v>411.28</v>
-      </c>
-      <c r="D14">
-        <v>250.57</v>
-      </c>
-      <c r="E14">
-        <v>14.85</v>
-      </c>
-      <c r="F14">
-        <v>14.85</v>
-      </c>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15">
-        <v>256</v>
-      </c>
-      <c r="C15">
-        <v>822.97</v>
-      </c>
-      <c r="D15">
-        <v>501.85</v>
-      </c>
-      <c r="E15">
-        <v>29.55</v>
-      </c>
-      <c r="F15">
-        <v>29.55</v>
-      </c>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16">
-        <v>512</v>
-      </c>
-      <c r="C16">
-        <v>1646.22</v>
-      </c>
-      <c r="D16">
-        <v>1004.33</v>
-      </c>
-      <c r="E16">
-        <v>58.96</v>
-      </c>
-      <c r="F16">
-        <v>58.96</v>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="C18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19">
-        <f>96/72</f>
-        <v>1.3333333333333333</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -8103,20 +8008,16 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <v>12.67</v>
+        <v>11.78</v>
       </c>
       <c r="D21">
-        <v>7.36</v>
+        <v>6.81</v>
       </c>
       <c r="E21">
-        <v>0.81</v>
+        <v>0.61</v>
       </c>
       <c r="F21">
-        <v>0.81</v>
-      </c>
-      <c r="H21">
-        <f>F21/F9</f>
-        <v>1.3278688524590165</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="22" spans="2:8">
@@ -8124,20 +8025,16 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>26.53</v>
+        <v>24.81</v>
       </c>
       <c r="D22">
-        <v>15.51</v>
+        <v>14.74</v>
       </c>
       <c r="E22">
-        <v>1.42</v>
+        <v>1.07</v>
       </c>
       <c r="F22">
-        <v>1.42</v>
-      </c>
-      <c r="H22">
-        <f t="shared" ref="H22:H28" si="0">F22/F10</f>
-        <v>1.3271028037383177</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="23" spans="2:8">
@@ -8145,20 +8042,16 @@
         <v>16</v>
       </c>
       <c r="C23">
-        <v>54.1</v>
+        <v>50.7</v>
       </c>
       <c r="D23">
-        <v>31.67</v>
+        <v>30.53</v>
       </c>
       <c r="E23">
-        <v>2.65</v>
+        <v>1.99</v>
       </c>
       <c r="F23">
-        <v>2.65</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>1.3316582914572863</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -8166,20 +8059,16 @@
         <v>32</v>
       </c>
       <c r="C24">
-        <v>109.06</v>
+        <v>102.3</v>
       </c>
       <c r="D24">
-        <v>63.87</v>
+        <v>62.01</v>
       </c>
       <c r="E24">
-        <v>5.0999999999999996</v>
+        <v>3.82</v>
       </c>
       <c r="F24">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>1.3350785340314135</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="25" spans="2:8">
@@ -8187,20 +8076,16 @@
         <v>64</v>
       </c>
       <c r="C25">
-        <v>218.82</v>
+        <v>205.35</v>
       </c>
       <c r="D25">
-        <v>128.22</v>
+        <v>124.89</v>
       </c>
       <c r="E25">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="F25">
-        <v>10</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="26" spans="2:8">
@@ -8208,20 +8093,16 @@
         <v>128</v>
       </c>
       <c r="C26">
-        <v>438.17</v>
+        <v>411.28</v>
       </c>
       <c r="D26">
-        <v>256.58</v>
+        <v>250.57</v>
       </c>
       <c r="E26">
-        <v>19.809999999999999</v>
+        <v>14.85</v>
       </c>
       <c r="F26">
-        <v>19.809999999999999</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>1.3340067340067339</v>
+        <v>14.85</v>
       </c>
     </row>
     <row r="27" spans="2:8">
@@ -8229,20 +8110,16 @@
         <v>256</v>
       </c>
       <c r="C27">
-        <v>876.73</v>
+        <v>822.97</v>
       </c>
       <c r="D27">
-        <v>513.32000000000005</v>
+        <v>501.85</v>
       </c>
       <c r="E27">
-        <v>39.43</v>
+        <v>29.55</v>
       </c>
       <c r="F27">
-        <v>39.43</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="0"/>
-        <v>1.3343485617597293</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -8250,30 +8127,30 @@
         <v>512</v>
       </c>
       <c r="C28">
-        <v>1753.6</v>
+        <v>1646.22</v>
       </c>
       <c r="D28">
-        <v>1026.67</v>
+        <v>1004.33</v>
       </c>
       <c r="E28">
-        <v>78.650000000000006</v>
+        <v>58.96</v>
       </c>
       <c r="F28">
-        <v>78.650000000000006</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>1.3339552238805972</v>
+        <v>58.96</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="C30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="C31" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="H31">
+        <f>96/72</f>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="32" spans="2:8">
@@ -8289,40 +8166,37 @@
       <c r="F32" t="s">
         <v>22</v>
       </c>
-      <c r="H32" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="33" spans="2:11">
       <c r="B33">
         <v>4</v>
       </c>
       <c r="C33">
-        <v>12.36</v>
+        <v>12.67</v>
       </c>
       <c r="D33">
-        <v>7.95</v>
+        <v>7.36</v>
       </c>
       <c r="E33">
-        <v>0.89</v>
+        <v>0.81</v>
       </c>
       <c r="F33">
-        <v>0.89</v>
+        <v>0.81</v>
       </c>
       <c r="H33">
-        <f>C33/C9</f>
-        <v>1.0492359932088284</v>
+        <f>F33/F21</f>
+        <v>1.3278688524590165</v>
       </c>
       <c r="I33">
-        <f t="shared" ref="I33:K40" si="1">D33/D9</f>
+        <f t="shared" ref="I33:K40" si="0">D45/D21</f>
         <v>1.1674008810572689</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.459016393442623</v>
       </c>
       <c r="K33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.459016393442623</v>
       </c>
     </row>
@@ -8331,31 +8205,31 @@
         <v>8</v>
       </c>
       <c r="C34">
-        <v>25.72</v>
+        <v>26.53</v>
       </c>
       <c r="D34">
-        <v>16.88</v>
+        <v>15.51</v>
       </c>
       <c r="E34">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="F34">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34:H40" si="2">C34/C10</f>
-        <v>1.0366787585650947</v>
+        <f t="shared" ref="H34:H40" si="1">F34/F22</f>
+        <v>1.3271028037383177</v>
       </c>
       <c r="I34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1451831750339212</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4579439252336448</v>
       </c>
       <c r="K34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4579439252336448</v>
       </c>
     </row>
@@ -8364,31 +8238,31 @@
         <v>16</v>
       </c>
       <c r="C35">
-        <v>52.28</v>
+        <v>54.1</v>
       </c>
       <c r="D35">
-        <v>34.659999999999997</v>
+        <v>31.67</v>
       </c>
       <c r="E35">
-        <v>2.89</v>
+        <v>2.65</v>
       </c>
       <c r="F35">
-        <v>2.89</v>
+        <v>2.65</v>
       </c>
       <c r="H35">
-        <f t="shared" si="2"/>
-        <v>1.031163708086785</v>
+        <f t="shared" si="1"/>
+        <v>1.3316582914572863</v>
       </c>
       <c r="I35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1352767769407139</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4522613065326633</v>
       </c>
       <c r="K35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4522613065326633</v>
       </c>
     </row>
@@ -8397,31 +8271,31 @@
         <v>32</v>
       </c>
       <c r="C36">
-        <v>105.2</v>
+        <v>109.06</v>
       </c>
       <c r="D36">
-        <v>70.22</v>
+        <v>63.87</v>
       </c>
       <c r="E36">
-        <v>5.56</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F36">
-        <v>5.56</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H36">
-        <f t="shared" si="2"/>
-        <v>1.0283479960899315</v>
+        <f t="shared" si="1"/>
+        <v>1.3350785340314135</v>
       </c>
       <c r="I36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1323980003225287</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4554973821989527</v>
       </c>
       <c r="K36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4554973821989527</v>
       </c>
     </row>
@@ -8430,31 +8304,31 @@
         <v>64</v>
       </c>
       <c r="C37">
-        <v>210.9</v>
+        <v>218.82</v>
       </c>
       <c r="D37">
-        <v>141.04</v>
+        <v>128.22</v>
       </c>
       <c r="E37">
-        <v>10.91</v>
+        <v>10</v>
       </c>
       <c r="F37">
-        <v>10.91</v>
+        <v>10</v>
       </c>
       <c r="H37">
-        <f t="shared" si="2"/>
-        <v>1.027027027027027</v>
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1293137961406037</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4546666666666668</v>
       </c>
       <c r="K37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4546666666666668</v>
       </c>
     </row>
@@ -8463,31 +8337,31 @@
         <v>128</v>
       </c>
       <c r="C38">
-        <v>422.11</v>
+        <v>438.17</v>
       </c>
       <c r="D38">
-        <v>282.75</v>
+        <v>256.58</v>
       </c>
       <c r="E38">
-        <v>21.6</v>
+        <v>19.809999999999999</v>
       </c>
       <c r="F38">
-        <v>21.6</v>
+        <v>19.809999999999999</v>
       </c>
       <c r="H38">
-        <f t="shared" si="2"/>
-        <v>1.0263324255981328</v>
+        <f t="shared" si="1"/>
+        <v>1.3340067340067339</v>
       </c>
       <c r="I38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1284271860158839</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4545454545454546</v>
       </c>
       <c r="K38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4545454545454546</v>
       </c>
     </row>
@@ -8496,31 +8370,31 @@
         <v>256</v>
       </c>
       <c r="C39">
-        <v>844.39</v>
+        <v>876.73</v>
       </c>
       <c r="D39">
-        <v>566.07000000000005</v>
+        <v>513.32000000000005</v>
       </c>
       <c r="E39">
-        <v>42.97</v>
+        <v>39.43</v>
       </c>
       <c r="F39">
-        <v>42.97</v>
+        <v>39.43</v>
       </c>
       <c r="H39">
-        <f t="shared" si="2"/>
-        <v>1.026027680231357</v>
+        <f t="shared" si="1"/>
+        <v>1.3343485617597293</v>
       </c>
       <c r="I39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1279665238617118</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4541455160744501</v>
       </c>
       <c r="K39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4541455160744501</v>
       </c>
     </row>
@@ -8529,32 +8403,227 @@
         <v>512</v>
       </c>
       <c r="C40">
+        <v>1753.6</v>
+      </c>
+      <c r="D40">
+        <v>1026.67</v>
+      </c>
+      <c r="E40">
+        <v>78.650000000000006</v>
+      </c>
+      <c r="F40">
+        <v>78.650000000000006</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>1.3339552238805972</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>1.127766769886392</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>1.4536974219810039</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>1.4536974219810039</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>12.36</v>
+      </c>
+      <c r="D45">
+        <v>7.95</v>
+      </c>
+      <c r="E45">
+        <v>0.89</v>
+      </c>
+      <c r="F45">
+        <v>0.89</v>
+      </c>
+      <c r="H45">
+        <f>C45/C21</f>
+        <v>1.0492359932088284</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>25.72</v>
+      </c>
+      <c r="D46">
+        <v>16.88</v>
+      </c>
+      <c r="E46">
+        <v>1.56</v>
+      </c>
+      <c r="F46">
+        <v>1.56</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ref="H46:H52" si="2">C46/C22</f>
+        <v>1.0366787585650947</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>52.28</v>
+      </c>
+      <c r="D47">
+        <v>34.659999999999997</v>
+      </c>
+      <c r="E47">
+        <v>2.89</v>
+      </c>
+      <c r="F47">
+        <v>2.89</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>1.031163708086785</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48">
+        <v>32</v>
+      </c>
+      <c r="C48">
+        <v>105.2</v>
+      </c>
+      <c r="D48">
+        <v>70.22</v>
+      </c>
+      <c r="E48">
+        <v>5.56</v>
+      </c>
+      <c r="F48">
+        <v>5.56</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>1.0283479960899315</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49">
+        <v>64</v>
+      </c>
+      <c r="C49">
+        <v>210.9</v>
+      </c>
+      <c r="D49">
+        <v>141.04</v>
+      </c>
+      <c r="E49">
+        <v>10.91</v>
+      </c>
+      <c r="F49">
+        <v>10.91</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>1.027027027027027</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50">
+        <v>128</v>
+      </c>
+      <c r="C50">
+        <v>422.11</v>
+      </c>
+      <c r="D50">
+        <v>282.75</v>
+      </c>
+      <c r="E50">
+        <v>21.6</v>
+      </c>
+      <c r="F50">
+        <v>21.6</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>1.0263324255981328</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51">
+        <v>256</v>
+      </c>
+      <c r="C51">
+        <v>844.39</v>
+      </c>
+      <c r="D51">
+        <v>566.07000000000005</v>
+      </c>
+      <c r="E51">
+        <v>42.97</v>
+      </c>
+      <c r="F51">
+        <v>42.97</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>1.026027680231357</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52">
+        <v>512</v>
+      </c>
+      <c r="C52">
         <v>1688.76</v>
       </c>
-      <c r="D40">
+      <c r="D52">
         <v>1132.6500000000001</v>
       </c>
-      <c r="E40">
+      <c r="E52">
         <v>85.71</v>
       </c>
-      <c r="F40">
+      <c r="F52">
         <v>85.71</v>
       </c>
-      <c r="H40">
+      <c r="H52">
         <f t="shared" si="2"/>
         <v>1.0258410176039654</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="1"/>
-        <v>1.127766769886392</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="1"/>
-        <v>1.4536974219810039</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="1"/>
-        <v>1.4536974219810039</v>
       </c>
     </row>
   </sheetData>
@@ -8580,22 +8649,22 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="C5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="C6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -8741,7 +8810,7 @@
   <sheetData>
     <row r="6" spans="2:11">
       <c r="C6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" t="str">
         <f>C6</f>
@@ -8750,7 +8819,7 @@
     </row>
     <row r="7" spans="2:11">
       <c r="C7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" t="str">
         <f>C7</f>
@@ -8759,16 +8828,16 @@
     </row>
     <row r="8" spans="2:11">
       <c r="C8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:11">

--- a/Arduino/2015-07_Benchmarking/FIR Speed Results.xlsx
+++ b/Arduino/2015-07_Benchmarking/FIR Speed Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="15315" windowHeight="11250"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="15315" windowHeight="11250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="3" r:id="rId1"/>
@@ -1020,11 +1020,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="87657856"/>
-        <c:axId val="87668224"/>
+        <c:axId val="222842240"/>
+        <c:axId val="222844416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87657856"/>
+        <c:axId val="222842240"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1056,13 +1056,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87668224"/>
+        <c:crossAx val="222844416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87668224"/>
+        <c:axId val="222844416"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1095,7 +1095,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87657856"/>
+        <c:crossAx val="222842240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -1450,11 +1450,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="87844736"/>
-        <c:axId val="87846272"/>
+        <c:axId val="223422336"/>
+        <c:axId val="223423872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87844736"/>
+        <c:axId val="223422336"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1467,12 +1467,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87846272"/>
+        <c:crossAx val="223423872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87846272"/>
+        <c:axId val="223423872"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1484,7 +1484,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87844736"/>
+        <c:crossAx val="223422336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1761,11 +1761,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="87864064"/>
-        <c:axId val="87865600"/>
+        <c:axId val="223455488"/>
+        <c:axId val="223469568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87864064"/>
+        <c:axId val="223455488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1774,7 +1774,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87865600"/>
+        <c:crossAx val="223469568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1782,7 +1782,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87865600"/>
+        <c:axId val="223469568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1812,7 +1812,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87864064"/>
+        <c:crossAx val="223455488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2099,11 +2099,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87908352"/>
-        <c:axId val="87909888"/>
+        <c:axId val="223303552"/>
+        <c:axId val="223305088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87908352"/>
+        <c:axId val="223303552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2112,7 +2112,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87909888"/>
+        <c:crossAx val="223305088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2120,7 +2120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87909888"/>
+        <c:axId val="223305088"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2151,7 +2151,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87908352"/>
+        <c:crossAx val="223303552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2203,7 +2203,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2358,11 +2357,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="87919232"/>
-        <c:axId val="87933312"/>
+        <c:axId val="223312896"/>
+        <c:axId val="223339264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87919232"/>
+        <c:axId val="223312896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2371,7 +2370,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87933312"/>
+        <c:crossAx val="223339264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2379,7 +2378,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87933312"/>
+        <c:axId val="223339264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2416,7 +2415,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87919232"/>
+        <c:crossAx val="223312896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10000"/>
@@ -2424,7 +2423,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2469,7 +2467,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2696,11 +2693,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87968000"/>
-        <c:axId val="87977984"/>
+        <c:axId val="223824896"/>
+        <c:axId val="223830784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87968000"/>
+        <c:axId val="223824896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2709,7 +2706,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="87977984"/>
+        <c:crossAx val="223830784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2717,7 +2714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87977984"/>
+        <c:axId val="223830784"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2760,14 +2757,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87968000"/>
+        <c:crossAx val="223824896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2929,11 +2925,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="111872640"/>
-        <c:axId val="111878912"/>
+        <c:axId val="222731264"/>
+        <c:axId val="222753920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111872640"/>
+        <c:axId val="222731264"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -2962,13 +2958,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="111878912"/>
+        <c:crossAx val="222753920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111878912"/>
+        <c:axId val="222753920"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2998,7 +2994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111872640"/>
+        <c:crossAx val="222731264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3166,11 +3162,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="124781696"/>
-        <c:axId val="124783616"/>
+        <c:axId val="222795264"/>
+        <c:axId val="222797184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124781696"/>
+        <c:axId val="222795264"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -3199,13 +3195,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124783616"/>
+        <c:crossAx val="222797184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124783616"/>
+        <c:axId val="222797184"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3235,7 +3231,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124781696"/>
+        <c:crossAx val="222795264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4101,14 +4097,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="9" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="9" width="9.28515625" customWidth="1"/>
     <col min="10" max="10" width="2.140625" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="17" width="9.28515625" customWidth="1"/>
@@ -6569,8 +6566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7070,7 +7067,7 @@
   <dimension ref="B2:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
